--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1312.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1312.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8435655349597692</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04217827674798846</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04217827674798846</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06748524279678154</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06328615717561636</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01328615717561636</v>
+        <v>0.01512646549221072</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008246082333996676</v>
+        <v>0.009388273691361219</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001889058651382079</v>
+        <v>0.001820696772600994</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007242984094612671</v>
+        <v>0.0007774627259165591</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001817095734514412</v>
+        <v>0.005490104241556742</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007760495427375777</v>
+        <v>0.0007711033263140156</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.006782239284776309</v>
+        <v>0.00847931755718967</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007588674708205069</v>
+        <v>0.0007707485033024682</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01056638797477927</v>
+        <v>0.001820696772600994</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007734195259988634</v>
+        <v>0.0007774627259165591</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003667799505817776</v>
+        <v>0.003934746646924649</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001448596818922534</v>
+        <v>0.001554925451833118</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003628080148458987</v>
+        <v>0.01130980503072762</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001552099085475155</v>
+        <v>0.001542206652628031</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01286739352467661</v>
+        <v>0.01900000000000002</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001517734941641014</v>
+        <v>0.001814214046822744</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02052287627152916</v>
+        <v>0.003934746646924649</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001546839051997727</v>
+        <v>0.001554925451833118</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0042551915090129</v>
+        <v>0.005460304225100542</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002172895228383801</v>
+        <v>0.002332388177749677</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005351553340930119</v>
+        <v>0.01536903890937744</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002328148628212733</v>
+        <v>0.002313309978942047</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01891307911468509</v>
+        <v>0.02254643047211335</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002276602412461521</v>
+        <v>0.002312245509907404</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02875603557545198</v>
+        <v>0.005460304225100542</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00232025857799659</v>
+        <v>0.002332388177749677</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006326741512198267</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002748694111332225</v>
+        <v>0.003041195652173913</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
+        <v>0.01799999999999999</v>
+      </c>
+      <c r="K69" s="171" t="n">
+        <v>0.002715353260869563</v>
+      </c>
+      <c r="L69" s="172" t="n">
+        <v>0.02854957556486581</v>
+      </c>
+      <c r="M69" s="170" t="n">
+        <v>0.003082994013209873</v>
+      </c>
+      <c r="N69" s="171" t="n">
         <v>0.006999999999999999</v>
       </c>
-      <c r="K69" s="171" t="n">
+      <c r="O69" s="172" t="n">
         <v>0.003041195652173913</v>
-      </c>
-      <c r="L69" s="172" t="n">
-        <v>0.02399999999999997</v>
-      </c>
-      <c r="M69" s="170" t="n">
-        <v>0.003218196457326888</v>
-      </c>
-      <c r="N69" s="171" t="n">
-        <v>0.03299999999999997</v>
-      </c>
-      <c r="O69" s="172" t="n">
-        <v>0.002783896158716756</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002748694111332225</v>
+        <v>0.003041195652173913</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006326741512198267</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.00572915026616426</v>
+        <v>0.008104178485934511</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003621492047306335</v>
+        <v>0.003887313629582795</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.008263081585317043</v>
+        <v>0.02247981849192271</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003880247713687889</v>
+        <v>0.003855516631570078</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02578531293791891</v>
+        <v>0.03442413329076699</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003794337354102535</v>
+        <v>0.003853742516512341</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04004027196419158</v>
+        <v>0.008104178485934511</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003867097629994317</v>
+        <v>0.003887313629582795</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006791887599211149</v>
+        <v>0.009624596029180782</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004345790456767602</v>
+        <v>0.004664776355499355</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.009317182225086311</v>
+        <v>0.02557720678405334</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004656297256425466</v>
+        <v>0.004626619957884093</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02842635585010819</v>
+        <v>0.03931668247263331</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004553204824923041</v>
+        <v>0.004624491019814808</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04416074365527672</v>
+        <v>0.009624596029180782</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00464051715599318</v>
+        <v>0.004664776355499355</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009771491153187761</v>
+        <v>0.01056977358173398</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005070088866228869</v>
+        <v>0.005442239081415914</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01028255674610912</v>
+        <v>0.02862184018139277</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005432346799163043</v>
+        <v>0.00539772328419811</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.0304564196326928</v>
+        <v>0.04407380193328109</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005312072295743549</v>
+        <v>0.005395239523117277</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04832775867057887</v>
+        <v>0.01056977358173398</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005413936681992044</v>
+        <v>0.005442239081415914</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01067594730977769</v>
+        <v>0.01183158169911406</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005794387275690137</v>
+        <v>0.006219701807332473</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01147258764564426</v>
+        <v>0.03064480523213803</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006208396341900621</v>
+        <v>0.006168826610512125</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03367090081550678</v>
+        <v>0.04784207049552658</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006449974626158872</v>
+        <v>0.006165988026419746</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05221533613880286</v>
+        <v>0.01183158169911406</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006292730463329767</v>
+        <v>0.006219701807332473</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009513242450664539</v>
+        <v>0.01260189093684093</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006518685685151404</v>
+        <v>0.006997164533249031</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01220065742095051</v>
+        <v>0.03367090081550678</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006984445884638199</v>
+        <v>0.00725622145442873</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03452464803150568</v>
+        <v>0.05221533613880286</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006829807237384563</v>
+        <v>0.007122541073878748</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05418719417679912</v>
+        <v>0.01260189093684093</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006960775733989771</v>
+        <v>0.006997164533249031</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01229136295753191</v>
+        <v>0.01367257185043459</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00724298409461267</v>
+        <v>0.007774627259165591</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01338014856928665</v>
+        <v>0.03445092556487356</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007760495427375777</v>
+        <v>0.007711033263140156</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03594038873643776</v>
+        <v>0.05332418783673154</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007588674708205069</v>
+        <v>0.007707485033024682</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05673653516329791</v>
+        <v>0.01367257185043459</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007734195259988634</v>
+        <v>0.007774627259165591</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01328615717561636</v>
+        <v>0.01433549499541492</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008246082333996676</v>
+        <v>0.00855208998508215</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01402444358791144</v>
+        <v>0.03565616772868405</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008536544970113354</v>
+        <v>0.008482136589454172</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03766388765636822</v>
+        <v>0.05560867580846618</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008347542179025575</v>
+        <v>0.008478233536327149</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0599641923942224</v>
+        <v>0.01433549499541492</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008507614785987497</v>
+        <v>0.00855208998508215</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01371147241847405</v>
+        <v>0.01512646549221072</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008691580913535205</v>
+        <v>0.009388273691361219</v>
       </c>
       <c r="J77" t="n">
+        <v>0.03653947137049532</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.009253239915768187</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.05755269753872549</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.009248982039629617</v>
+      </c>
+      <c r="N77" t="n">
         <v>0.01512646549221072</v>
       </c>
-      <c r="K77" t="n">
+      <c r="O77" t="n">
         <v>0.009388273691361219</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.0393883986960733</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.009106409649846083</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.0623614081006762</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.009281034311986361</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01341074948615227</v>
+        <v>0.01545754458511436</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009415879322996474</v>
+        <v>0.01010701543691527</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01577438530722608</v>
+        <v>0.0379005436388922</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01008864405558851</v>
+        <v>0.0100243432420822</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04120717576032928</v>
+        <v>0.05995602904183245</v>
       </c>
       <c r="M78" t="n">
-        <v>0.00986527712066659</v>
+        <v>0.01001973054293209</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06511942451376285</v>
+        <v>0.01545754458511436</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01005445383798522</v>
+        <v>0.01010701543691527</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01511676171842853</v>
+        <v>0.01592653672600462</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01014017773245774</v>
+        <v>0.01088447816283183</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01662752600202014</v>
+        <v>0.03923909168245929</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01086469359832609</v>
+        <v>0.01079544656839622</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04311347275391245</v>
+        <v>0.06151844633211018</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0106241445914871</v>
+        <v>0.01079047904623455</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06782948386458587</v>
+        <v>0.01592653672600462</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01082787336398409</v>
+        <v>0.01088447816283183</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01382616481520938</v>
+        <v>0.01658948905451846</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01086447614191901</v>
+        <v>0.01166194088874839</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01749995240427582</v>
+        <v>0.04065482264978126</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01164074314106366</v>
+        <v>0.01156654989471024</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04450054358159902</v>
+        <v>0.06343972542388177</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0113830120623076</v>
+        <v>0.01156122754953702</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07058282838424895</v>
+        <v>0.01658948905451846</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01160129288998295</v>
+        <v>0.01166194088874839</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01453561447640141</v>
+        <v>0.01714604360992071</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01158877455138027</v>
+        <v>0.01243940361466495</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01828508163788989</v>
+        <v>0.04174744368944275</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01241679268380124</v>
+        <v>0.01233765322102425</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0460616421481653</v>
+        <v>0.06551964233147034</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01214187953312811</v>
+        <v>0.01233197605283949</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07317070030385575</v>
+        <v>0.01714604360992071</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01237471241598181</v>
+        <v>0.01243940361466495</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01724176640191119</v>
+        <v>0.01759584243147606</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01231307296084154</v>
+        <v>0.0132168663405815</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01937633082675916</v>
+        <v>0.04301666195002848</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01319284222653882</v>
+        <v>0.01310875654733826</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04759002235838752</v>
+        <v>0.06725797306919867</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01290074700394862</v>
+        <v>0.01310272455614196</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07568434185450973</v>
+        <v>0.01759584243147606</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01314813194198068</v>
+        <v>0.0132168663405815</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01694127629164531</v>
+        <v>0.01843852755844926</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01303737137030281</v>
+        <v>0.01399432906649806</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02026711709478038</v>
+        <v>0.04366218458012311</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0139688917692764</v>
+        <v>0.01387985987365228</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04957893811704195</v>
+        <v>0.06845449365139017</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01365961447476913</v>
+        <v>0.01387347305944443</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07851499526731448</v>
+        <v>0.01843852755844926</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01392155146797954</v>
+        <v>0.01399432906649806</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01863079984551033</v>
+        <v>0.018773741030105</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01376166977976408</v>
+        <v>0.01477179179241462</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02085085756585039</v>
+        <v>0.0447837187283113</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01474494131201398</v>
+        <v>0.0146509631999663</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0512216433289048</v>
+        <v>0.07020898009236759</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01441848194558963</v>
+        <v>0.01464422156274689</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08045390277337372</v>
+        <v>0.018773741030105</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01469497099397841</v>
+        <v>0.01477179179241462</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01830699276341285</v>
+        <v>0.01940112488570808</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01448596818922534</v>
+        <v>0.01554925451833118</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02202096936386591</v>
+        <v>0.04648097154317768</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01552099085475155</v>
+        <v>0.01542206652628031</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05261139189875244</v>
+        <v>0.07242120840645422</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01517734941641014</v>
+        <v>0.01541497006604936</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08269230660379073</v>
+        <v>0.01940112488570808</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01546839051997727</v>
+        <v>0.01554925451833118</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01796651074525944</v>
+        <v>0.01982032116452317</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01521026659868661</v>
+        <v>0.01632671724424774</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02267086961272378</v>
+        <v>0.04755365017330695</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01629704039748913</v>
+        <v>0.01619316985259433</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05404143773136103</v>
+        <v>0.07439095460797296</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01593621688723065</v>
+        <v>0.01618571856935183</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08462144898966945</v>
+        <v>0.01982032116452317</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01624181004597613</v>
+        <v>0.01632671724424774</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02060600949095667</v>
+        <v>0.02043097190581505</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01593456500814788</v>
+        <v>0.0171041799701643</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02349397543632079</v>
+        <v>0.04830146176728384</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01707308994022671</v>
+        <v>0.01696427317890834</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0551050347315068</v>
+        <v>0.07551799471124682</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01669508435805115</v>
+        <v>0.0169564670726543</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0869325721621132</v>
+        <v>0.02043097190581505</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01701522957197499</v>
+        <v>0.0171041799701643</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02122214470041113</v>
+        <v>0.02073271914884843</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01665886341760914</v>
+        <v>0.01788164269608086</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02418370395855368</v>
+        <v>0.04932411347369295</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01784913948296429</v>
+        <v>0.01773537650522236</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05629543680396618</v>
+        <v>0.07680210473059906</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01745395182887166</v>
+        <v>0.01772721557595677</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08901691835222575</v>
+        <v>0.02073271914884843</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01778864909797386</v>
+        <v>0.01788164269608086</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02081157207352936</v>
+        <v>0.02122520493288804</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01738316182707041</v>
+        <v>0.01865910542199742</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02523347230331929</v>
+        <v>0.05042131244111897</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01862518902570186</v>
+        <v>0.01850647983153637</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05790589785351524</v>
+        <v>0.07864306068035259</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01821281929969217</v>
+        <v>0.01849796407925923</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09056572979111055</v>
+        <v>0.02122520493288804</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01856206862397272</v>
+        <v>0.01865910542199742</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02037094731021802</v>
+        <v>0.02190807129719864</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01810746023653168</v>
+        <v>0.01943656814791398</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02593669759451436</v>
+        <v>0.05119276581814655</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01940123856843944</v>
+        <v>0.01927758315785039</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05882967178493034</v>
+        <v>0.08024063857483049</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01897168677051267</v>
+        <v>0.0192687125825617</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09177024870987133</v>
+        <v>0.02190807129719864</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01933548814997159</v>
+        <v>0.01943656814791398</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0228969261103836</v>
+        <v>0.02228096028104494</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01883175864599295</v>
+        <v>0.02021403087383054</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02658679695603572</v>
+        <v>0.05253818075336045</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02017728811117702</v>
+        <v>0.0200486864841644</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05966001250298775</v>
+        <v>0.08149461442835576</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01973055424133318</v>
+        <v>0.02003946108586417</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09322171733961149</v>
+        <v>0.02228096028104494</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02010890767597045</v>
+        <v>0.02021403087383054</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02338616417393272</v>
+        <v>0.02264351392369167</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01955605705545421</v>
+        <v>0.0209914935997471</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02717718751178014</v>
+        <v>0.05325726439534523</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0209533376539146</v>
+        <v>0.02081978981047842</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06069017391246365</v>
+        <v>0.08340476425525156</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02048942171215369</v>
+        <v>0.02081020958916664</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09471137791143475</v>
+        <v>0.02264351392369167</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02088232720196931</v>
+        <v>0.0209914935997471</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02283531720077196</v>
+        <v>0.02319537426440356</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02028035546491548</v>
+        <v>0.02176895632566365</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02750128638564439</v>
+        <v>0.0539497238926856</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02172938719665217</v>
+        <v>0.02159089313679244</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06141340991813435</v>
+        <v>0.08397086406984083</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02124828918297419</v>
+        <v>0.02158095809246911</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09643047265644467</v>
+        <v>0.02319537426440356</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02165574672796818</v>
+        <v>0.02176895632566365</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02224104089080789</v>
+        <v>0.0237361833424454</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02100465387437675</v>
+        <v>0.02254641905158021</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02785251070152531</v>
+        <v>0.05491526639396627</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02250543673938975</v>
+        <v>0.02236199646310645</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06262297442477616</v>
+        <v>0.0855926898864468</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0220071566537947</v>
+        <v>0.02235170659577158</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09697024380574487</v>
+        <v>0.0237361833424454</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02242916625396704</v>
+        <v>0.02254641905158021</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02359999094394709</v>
+        <v>0.02416558319708183</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02172895228383801</v>
+        <v>0.02332388177749677</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02822427758331962</v>
+        <v>0.05565359904777181</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02328148628212733</v>
+        <v>0.02313309978942047</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06301212133716524</v>
+        <v>0.08687001771939229</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02276602412461521</v>
+        <v>0.02312245509907404</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09742193359043883</v>
+        <v>0.02416558319708183</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0232025857799659</v>
+        <v>0.02332388177749677</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02290882306009613</v>
+        <v>0.02458321586757765</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02245325069329928</v>
+        <v>0.02410134450341333</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02881000415492414</v>
+        <v>0.05686442900268698</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02405753582486491</v>
+        <v>0.02390420311573448</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06357410456007789</v>
+        <v>0.08810262358300053</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02352489159543571</v>
+        <v>0.02389320360237651</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09817678424163018</v>
+        <v>0.02458321586757765</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02397600530596477</v>
+        <v>0.02410134450341333</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0231641929391616</v>
+        <v>0.02478872339319761</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02317754910276055</v>
+        <v>0.02487880722932989</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02900310754023566</v>
+        <v>0.05744746340729642</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02483358536760248</v>
+        <v>0.0246753064420485</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06390217799829037</v>
+        <v>0.08929028349159446</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02428375906625622</v>
+        <v>0.02466395210567898</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09852603799042259</v>
+        <v>0.02478872339319761</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02474942483196363</v>
+        <v>0.02487880722932989</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02336275628105007</v>
+        <v>0.02528174781320637</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02390184751222181</v>
+        <v>0.02565626995524645</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02899700486315097</v>
+        <v>0.05810240941018482</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02560963491034006</v>
+        <v>0.02544640976836252</v>
       </c>
       <c r="L98" t="n">
-        <v>0.063589595556579</v>
+        <v>0.09063277345949727</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02504262653707673</v>
+        <v>0.02543470060898145</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09846093706791953</v>
+        <v>0.02528174781320637</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02552284435796249</v>
+        <v>0.02565626995524645</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02550116878566813</v>
+        <v>0.0257619311668687</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02462614592168308</v>
+        <v>0.02643373268116301</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02888708078763745</v>
+        <v>0.05912897415993684</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02638568445307764</v>
+        <v>0.02621751309467653</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06393011646475902</v>
+        <v>0.09192986950103182</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02580149400789724</v>
+        <v>0.02620544911228392</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09892986136047138</v>
+        <v>0.0257619311668687</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02629626388396136</v>
+        <v>0.02643373268116301</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02557608615292234</v>
+        <v>0.02592891549344938</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02535044433114435</v>
+        <v>0.02721119540707957</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02878283046795468</v>
+        <v>0.05922686480513717</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02716173399581522</v>
+        <v>0.02698861642099054</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06363417605363675</v>
+        <v>0.09318134763052138</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02656036147871774</v>
+        <v>0.02697619761558638</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09798650356212463</v>
+        <v>0.02592891549344938</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02706968340996022</v>
+        <v>0.02721119540707957</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0235859181542232</v>
+        <v>0.02658234283221307</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02607474274060562</v>
+        <v>0.02798865813299612</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02849702932054933</v>
+        <v>0.06009578849437039</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0279377835385528</v>
+        <v>0.02775971974730456</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06361703649230011</v>
+        <v>0.09428698386228884</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02731922894953825</v>
+        <v>0.02774694611888886</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09716736341043514</v>
+        <v>0.02658234283221307</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02784310293595908</v>
+        <v>0.02798865813299612</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02554750251608279</v>
+        <v>0.02672185522242451</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02679904115006689</v>
+        <v>0.02876612085891268</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02824211698544107</v>
+        <v>0.06083545237622129</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02871383308129037</v>
+        <v>0.02853082307361858</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06299036300698552</v>
+        <v>0.09454655421065739</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02807809642035876</v>
+        <v>0.02851769462219132</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09620970220888364</v>
+        <v>0.02672185522242451</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02861652246195795</v>
+        <v>0.02876612085891268</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02346906526570881</v>
+        <v>0.0270470947033485</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02752333955952815</v>
+        <v>0.02954358358482925</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02823053310264961</v>
+        <v>0.06174556359927449</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02948988262402795</v>
+        <v>0.02930192639993259</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06256582082392934</v>
+        <v>0.0959598346899499</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02883696389117926</v>
+        <v>0.02928844312549379</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09585078126095065</v>
+        <v>0.0270470947033485</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02938994198795681</v>
+        <v>0.02954358358482925</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02335465201245021</v>
+        <v>0.02735770331424969</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02824763796898942</v>
+        <v>0.03032104631074581</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0278747173121946</v>
+        <v>0.06222582931211462</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03026593216676553</v>
+        <v>0.03007302972624661</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06225507516936807</v>
+        <v>0.09702660131448959</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02959583136199977</v>
+        <v>0.03005919162879626</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09392786187011676</v>
+        <v>0.02735770331424969</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03016336151395567</v>
+        <v>0.03032104631074581</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02420830836565593</v>
+        <v>0.0278533230943929</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02897193637845068</v>
+        <v>0.03109850903666236</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02728710925409573</v>
+        <v>0.06277595666332642</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03104198170950311</v>
+        <v>0.03084413305256063</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06186979126953815</v>
+        <v>0.09694663009859944</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03035469883282028</v>
+        <v>0.03082994013209873</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09297820533986256</v>
+        <v>0.0278533230943929</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03093678103995454</v>
+        <v>0.03109850903666236</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02503407993467489</v>
+        <v>0.02803359608304279</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02969623478791195</v>
+        <v>0.03187597176257893</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02708014856837269</v>
+        <v>0.06329565280149452</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03181803125224068</v>
+        <v>0.03161523637887464</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06112163435067602</v>
+        <v>0.09791969705660253</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03111356630364078</v>
+        <v>0.0316006886354012</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09163907297366869</v>
+        <v>0.02803359608304279</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0317102005659534</v>
+        <v>0.03187597176257893</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02383601232885603</v>
+        <v>0.02839816431946413</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03042053319737322</v>
+        <v>0.03265343448849548</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02656627489504516</v>
+        <v>0.06348462487520357</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03259408079497826</v>
+        <v>0.03238633970518865</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06072226963901803</v>
+        <v>0.09934557820282192</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03187243377446129</v>
+        <v>0.03237143713870366</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09004772607501565</v>
+        <v>0.02839816431946413</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03248362009195226</v>
+        <v>0.03265343448849548</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02461815115754828</v>
+        <v>0.02864666984292162</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03114483160683448</v>
+        <v>0.03343089721441204</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02625792787413284</v>
+        <v>0.06424258003303832</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03337013033771584</v>
+        <v>0.03315744303150267</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05938336236080077</v>
+        <v>0.1000240495515806</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0326313012452818</v>
+        <v>0.03314218564200613</v>
       </c>
       <c r="N108" t="n">
-        <v>0.0883414259473842</v>
+        <v>0.02864666984292162</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03325703961795113</v>
+        <v>0.03343089721441204</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.0243845420301006</v>
+        <v>0.02867875469268005</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03186913001629575</v>
+        <v>0.0342083599403286</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02576754714565535</v>
+        <v>0.06416922542358336</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03414617988045342</v>
+        <v>0.03392854635781669</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05921657774226052</v>
+        <v>0.1000548871172017</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0333901687161023</v>
+        <v>0.0339129341453086</v>
       </c>
       <c r="N109" t="n">
-        <v>0.08605743389425485</v>
+        <v>0.02867875469268005</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03403045914394999</v>
+        <v>0.0342083599403286</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02313923055586192</v>
+        <v>0.0289940609080041</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03259342842575702</v>
+        <v>0.03498582266624516</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02520757234963245</v>
+        <v>0.06476426819542339</v>
       </c>
       <c r="K110" t="n">
-        <v>0.034922229423191</v>
+        <v>0.0346996496841307</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05833358100963384</v>
+        <v>0.1010378669140082</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03414903618692281</v>
+        <v>0.03468368264861107</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08513301121910821</v>
+        <v>0.0289940609080041</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03480387866994885</v>
+        <v>0.03498582266624516</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02288626234418116</v>
+        <v>0.02899223052815854</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03331772683521829</v>
+        <v>0.03576328539216172</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02489044312608377</v>
+        <v>0.06542741549714307</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03569827896592857</v>
+        <v>0.03547075301044472</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05704603738915709</v>
+        <v>0.1011727649563233</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03490790365774332</v>
+        <v>0.03545443115191354</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08340541922542494</v>
+        <v>0.02899223052815854</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03557729819594772</v>
+        <v>0.03576328539216172</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02362968300440726</v>
+        <v>0.02927290559240808</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03404202524467956</v>
+        <v>0.03654074811807827</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02492859911502901</v>
+        <v>0.0657583744773271</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03647432850866615</v>
+        <v>0.03624185633675873</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05626561210706671</v>
+        <v>0.1017593572584699</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03566677112856383</v>
+        <v>0.036225179655216</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08261191921668548</v>
+        <v>0.02927290559240808</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03635071772194658</v>
+        <v>0.03654074811807827</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0213735381458892</v>
+        <v>0.02963572814001746</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03476632365414082</v>
+        <v>0.03731821084399484</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02443447995648787</v>
+        <v>0.06615685228456011</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03725037805140373</v>
+        <v>0.03701295966307275</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05580397038959917</v>
+        <v>0.102697419834771</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03642563859938433</v>
+        <v>0.03699592815851847</v>
       </c>
       <c r="N113" t="n">
-        <v>0.08098977249637057</v>
+        <v>0.02963572814001746</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03712413724794544</v>
+        <v>0.03731821084399484</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02212187337797586</v>
+        <v>0.02968034021025141</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03549062206360209</v>
+        <v>0.0380956735699114</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02442052529047997</v>
+        <v>0.06642255606742681</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03802642759414131</v>
+        <v>0.03778406298938677</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05527277746299092</v>
+        <v>0.1024867286995499</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03718450607020483</v>
+        <v>0.03776667666182094</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07957624036796074</v>
+        <v>0.02968034021025141</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0378975567739443</v>
+        <v>0.0380956735699114</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0208787343100162</v>
+        <v>0.02970638384237467</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03621492047306335</v>
+        <v>0.03887313629582795</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02459665702103958</v>
+        <v>0.06665519297451186</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03880247713687889</v>
+        <v>0.03855516631570078</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0540836985534783</v>
+        <v>0.1027270598671295</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03794337354102535</v>
+        <v>0.03853742516512341</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07990858413493668</v>
+        <v>0.02970638384237467</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03867097629994317</v>
+        <v>0.03887313629582795</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02264816655135918</v>
+        <v>0.03001350107565198</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03693921888252463</v>
+        <v>0.03965059902174452</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02462660574607907</v>
+        <v>0.06635447015439991</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03957852667961646</v>
+        <v>0.03932626964201479</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05404839888729784</v>
+        <v>0.1029181893518327</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03870224101184585</v>
+        <v>0.03930817366842588</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07912406510077885</v>
+        <v>0.03001350107565198</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03944439582594204</v>
+        <v>0.03965059902174452</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02243421571135368</v>
+        <v>0.03000133394934806</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03766351729198589</v>
+        <v>0.04042806174766107</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02449260855629309</v>
+        <v>0.06662009475567565</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04035457622235404</v>
+        <v>0.04009737296832881</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05287854369068595</v>
+        <v>0.1030598931679829</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03946110848266636</v>
+        <v>0.04007892217172834</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07925036854589962</v>
+        <v>0.03000133394934806</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0402178153519409</v>
+        <v>0.04042806174766107</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0222409273993487</v>
+        <v>0.03016952450272765</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03838781570144716</v>
+        <v>0.04120552447357764</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02479196971653197</v>
+        <v>0.06715177392692376</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04113062576509162</v>
+        <v>0.04086847629464283</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0523857981898791</v>
+        <v>0.1038519473299029</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04021997595348686</v>
+        <v>0.04084967067503081</v>
       </c>
       <c r="N118" t="n">
-        <v>0.07906781615386399</v>
+        <v>0.03016952450272765</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04099123487793976</v>
+        <v>0.04120552447357764</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02007234722469313</v>
+        <v>0.02991771477505549</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03911211411090842</v>
+        <v>0.04198298719949419</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02492199349164606</v>
+        <v>0.06714921481672889</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04190667530782919</v>
+        <v>0.04163957962095684</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05208182761111366</v>
+        <v>0.1035941278519159</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04097884342430737</v>
+        <v>0.04162041917833328</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07892279197448759</v>
+        <v>0.02991771477505549</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04176465440393862</v>
+        <v>0.04198298719949419</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02193252079673594</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03983641252036969</v>
+        <v>0.04276044992541075</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02497998414648568</v>
+        <v>0.06734180163101358</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04268272485056677</v>
+        <v>0.04241068294727086</v>
       </c>
       <c r="L120" t="n">
-        <v>0.0517782971806261</v>
+        <v>0.1044306722776057</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04173771089512788</v>
+        <v>0.04239116768163575</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07990618044566933</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04253807392993749</v>
+        <v>0.04276044992541075</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02082549372482605</v>
+        <v>0.02995254148385897</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04056071092983096</v>
+        <v>0.04353791265132731</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02506324594590117</v>
+        <v>0.06724021034634886</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04345877439330435</v>
+        <v>0.04318178627358488</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05178687212465283</v>
+        <v>0.1036279720335126</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04249657836594839</v>
+        <v>0.04316191618493822</v>
       </c>
       <c r="N121" t="n">
-        <v>0.08050886600530827</v>
+        <v>0.02995254148385897</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04331149345593635</v>
+        <v>0.04353791265132731</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.0207553116183124</v>
+        <v>0.03013283653042019</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04128500933929222</v>
+        <v>0.04431537537724387</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02546908315474292</v>
+        <v>0.06713929850392392</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04423482393604192</v>
+        <v>0.04395288959989889</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05191921766943033</v>
+        <v>0.1040075482497791</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04325544583676889</v>
+        <v>0.04393266468824068</v>
       </c>
       <c r="N122" t="n">
-        <v>0.08102173309130301</v>
+        <v>0.03013283653042019</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04408491298193522</v>
+        <v>0.04431537537724387</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02072602008654392</v>
+        <v>0.02998476331846694</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04200930774875349</v>
+        <v>0.04509283810316043</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0255948000378612</v>
+        <v>0.06702712767307173</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0450108734787795</v>
+        <v>0.0447239929262129</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0519807326220465</v>
+        <v>0.1034907947158084</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0440143133075894</v>
+        <v>0.04470341319154315</v>
       </c>
       <c r="N123" t="n">
-        <v>0.08103566614155266</v>
+        <v>0.02998476331846694</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04485833250793408</v>
+        <v>0.04509283810316043</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01973778882667546</v>
+        <v>0.02991027824647695</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04273360615821476</v>
+        <v>0.04587030082907699</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02573770086010639</v>
+        <v>0.06700504919461825</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04578692302151708</v>
+        <v>0.04549509625252692</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05216252886250997</v>
+        <v>0.104081169902038</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04477318077840991</v>
+        <v>0.04547416169484562</v>
       </c>
       <c r="N124" t="n">
-        <v>0.08204154959395604</v>
+        <v>0.02991027824647695</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04563175203393294</v>
+        <v>0.04587030082907699</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01978385985163397</v>
+        <v>0.0298113377129279</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04345790456767603</v>
+        <v>0.04664776355499355</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02599508988632883</v>
+        <v>0.06707328978644284</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04656297256425466</v>
+        <v>0.04626619957884094</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05235507857985103</v>
+        <v>0.1031849893239656</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04553204824923041</v>
+        <v>0.04624491019814809</v>
       </c>
       <c r="N125" t="n">
-        <v>0.08353026788641205</v>
+        <v>0.0298113377129279</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0464051715599318</v>
+        <v>0.04664776355499355</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01986156300914246</v>
+        <v>0.02978989811629752</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04418220297713729</v>
+        <v>0.04742522628091011</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02626427138137885</v>
+        <v>0.06683207616642481</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04733902210699224</v>
+        <v>0.04703730290515495</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05254885452396743</v>
+        <v>0.1033085684970887</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04629091572005092</v>
+        <v>0.04701565870145056</v>
       </c>
       <c r="N126" t="n">
-        <v>0.08429270545681944</v>
+        <v>0.02978989811629752</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04717859108593067</v>
+        <v>0.04742522628091011</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02196835071214989</v>
+        <v>0.02944791585506348</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04490650138659856</v>
+        <v>0.04820268900682666</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02644254961010681</v>
+        <v>0.06708163505244363</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04811507164972981</v>
+        <v>0.04780840623146897</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05293432944475684</v>
+        <v>0.1024582229369048</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04704978319087143</v>
+        <v>0.04778640720475302</v>
       </c>
       <c r="N127" t="n">
-        <v>0.08521974674307731</v>
+        <v>0.02944791585506348</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04795201061192953</v>
+        <v>0.04820268900682666</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02210167537360525</v>
+        <v>0.02958734732770352</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04563079979605983</v>
+        <v>0.04898015173274323</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02702722883736303</v>
+        <v>0.06692219316237855</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04889112119246739</v>
+        <v>0.04857950955778299</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05360197609211689</v>
+        <v>0.1023402681589115</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04780865066169194</v>
+        <v>0.04855715570805549</v>
       </c>
       <c r="N128" t="n">
-        <v>0.08630227618308445</v>
+        <v>0.02958734732770352</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04872543013792839</v>
+        <v>0.04898015173274323</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02225898940645751</v>
+        <v>0.02931014893269533</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0463550982055211</v>
+        <v>0.04975761445865978</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02711561332799783</v>
+        <v>0.06665397721410898</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04966717073520497</v>
+        <v>0.049350612884097</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05414226721594534</v>
+        <v>0.1014610196786061</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04856751813251244</v>
+        <v>0.04932790421135796</v>
       </c>
       <c r="N129" t="n">
-        <v>0.08743117821473978</v>
+        <v>0.02931014893269533</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04949884966392726</v>
+        <v>0.04975761445865978</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02243774522365564</v>
+        <v>0.02911827706851663</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04707939661498237</v>
+        <v>0.05053507718457634</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02740500734686159</v>
+        <v>0.0668772139255143</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05044322027794255</v>
+        <v>0.05012171621041101</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05514567556613975</v>
+        <v>0.1005267930114864</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04932638560333295</v>
+        <v>0.05009865271466043</v>
       </c>
       <c r="N130" t="n">
-        <v>0.08899733727594211</v>
+        <v>0.02911827706851663</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05027226918992612</v>
+        <v>0.05053507718457634</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02063539523814865</v>
+        <v>0.02871368813364511</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04780369502444363</v>
+        <v>0.0513125399104929</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02779271515880466</v>
+        <v>0.06639213001447383</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05121926982068013</v>
+        <v>0.05089281953672503</v>
       </c>
       <c r="L131" t="n">
-        <v>0.0556026738925979</v>
+        <v>0.09954390367304972</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05008525307415346</v>
+        <v>0.0508694012179629</v>
       </c>
       <c r="N131" t="n">
-        <v>0.08989163780459042</v>
+        <v>0.02871368813364511</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05104568871592498</v>
+        <v>0.0513125399104929</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02284939186288551</v>
+        <v>0.02879833852655847</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0485279934339049</v>
+        <v>0.05209000263640946</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02787604102867734</v>
+        <v>0.06639895219886696</v>
       </c>
       <c r="K132" t="n">
-        <v>0.0519953193634177</v>
+        <v>0.05166392286303904</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05660373494521745</v>
+        <v>0.09951866717879376</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05084412054497396</v>
+        <v>0.05164014972126536</v>
       </c>
       <c r="N132" t="n">
-        <v>0.09140496423858363</v>
+        <v>0.02879833852655847</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05181910824192384</v>
+        <v>0.05209000263640946</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02307718751081518</v>
+        <v>0.02847418464573442</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04925229184336616</v>
+        <v>0.05286746536232602</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02835228922133</v>
+        <v>0.06649790719657309</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05277136890615528</v>
+        <v>0.05243502618935306</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05743933147389604</v>
+        <v>0.09845739904421591</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05160298801579447</v>
+        <v>0.05241089822456783</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09172820101582047</v>
+        <v>0.02847418464573442</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05259252776792271</v>
+        <v>0.05286746536232602</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02131623459488666</v>
+        <v>0.0280431828896507</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04997659025282743</v>
+        <v>0.05364492808824257</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02861876400161295</v>
+        <v>0.06618922172547148</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05354741844889286</v>
+        <v>0.05320612951566708</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05819993622853137</v>
+        <v>0.09746641478481383</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05236185548661498</v>
+        <v>0.0531816467278703</v>
       </c>
       <c r="N134" t="n">
-        <v>0.09345223257419999</v>
+        <v>0.0280431828896507</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05336594729392158</v>
+        <v>0.05364492808824257</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02356398552804892</v>
+        <v>0.02800728965678496</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0507008886622887</v>
+        <v>0.05442239081415914</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02867276963437658</v>
+        <v>0.06607312250344158</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05432346799163044</v>
+        <v>0.05397723284198109</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05907602195902112</v>
+        <v>0.09645202991608492</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05312072295743548</v>
+        <v>0.05395239523117277</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09426794335162098</v>
+        <v>0.02800728965678496</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05413936681992043</v>
+        <v>0.05442239081415914</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02181789272325095</v>
+        <v>0.02776846134561495</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05142518707174996</v>
+        <v>0.05519985354007569</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02891161038447118</v>
+        <v>0.06614983624836268</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05509951753436802</v>
+        <v>0.0547483361682951</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05995806141526303</v>
+        <v>0.09582055995352673</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05387959042825599</v>
+        <v>0.05472314373447524</v>
       </c>
       <c r="N136" t="n">
-        <v>0.09576621778598249</v>
+        <v>0.02776846134561495</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05491278634591931</v>
+        <v>0.05519985354007569</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02307540859344173</v>
+        <v>0.02742865435461836</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05214948548121123</v>
+        <v>0.05597731626599225</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02913259051674712</v>
+        <v>0.06571958967811425</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05587556707710559</v>
+        <v>0.05551943949460911</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06113652734715472</v>
+        <v>0.0947783204126369</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0546384578990765</v>
+        <v>0.05549389223777771</v>
       </c>
       <c r="N137" t="n">
-        <v>0.09703794031518315</v>
+        <v>0.02742865435461836</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05568620587191817</v>
+        <v>0.05597731626599225</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02333398555157024</v>
+        <v>0.0272898250822729</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05287378389067249</v>
+        <v>0.05675477899190881</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02943301429605472</v>
+        <v>0.06548260951057555</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05665161661984317</v>
+        <v>0.05629054282092314</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06200189250459381</v>
+        <v>0.09443162680891282</v>
       </c>
       <c r="M138" t="n">
-        <v>0.055397325369897</v>
+        <v>0.05626464074108018</v>
       </c>
       <c r="N138" t="n">
-        <v>0.09807399537712203</v>
+        <v>0.0272898250822729</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05645962539791703</v>
+        <v>0.05675477899190881</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02459107601058547</v>
+        <v>0.02705392992705627</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05359808230013377</v>
+        <v>0.05753224171782537</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02951018598724435</v>
+        <v>0.06573912246362595</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05742766616258075</v>
+        <v>0.05706164614723716</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06234462963747808</v>
+        <v>0.09398679465785215</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05615619284071751</v>
+        <v>0.05703538924438264</v>
       </c>
       <c r="N139" t="n">
-        <v>0.099165267409698</v>
+        <v>0.02705392992705627</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05723304492391589</v>
+        <v>0.05753224171782537</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02384413238343636</v>
+        <v>0.02692292528744616</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05432238070959503</v>
+        <v>0.05830970444374194</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02996140985516633</v>
+        <v>0.06518935525514488</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05820371570531833</v>
+        <v>0.05783274947355117</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06315521149570519</v>
+        <v>0.09325013947495231</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05691506031153802</v>
+        <v>0.05780613774768511</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1007026408508099</v>
+        <v>0.02692292528744616</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05800646444991475</v>
+        <v>0.05830970444374194</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02409060708307192</v>
+        <v>0.02649876756192031</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0550466791190563</v>
+        <v>0.0590871671696585</v>
       </c>
       <c r="J141" t="n">
-        <v>0.029883990164671</v>
+        <v>0.06543353460301163</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05897976524805591</v>
+        <v>0.05860385279986519</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06422411082917276</v>
+        <v>0.09192797677571085</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05767392778235853</v>
+        <v>0.05857688625098758</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1010770001383567</v>
+        <v>0.02649876756192031</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05877988397591363</v>
+        <v>0.0590871671696585</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02332795252244114</v>
+        <v>0.02628341314895641</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05577097752851756</v>
+        <v>0.05986462989557505</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02987523118060871</v>
+        <v>0.06517188722510561</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05975581479079348</v>
+        <v>0.05937495612617921</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06474180038777858</v>
+        <v>0.09082662207562531</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05843279525317904</v>
+        <v>0.05934763475429004</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1021792297102372</v>
+        <v>0.02628341314895641</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05955330350191248</v>
+        <v>0.05986462989557505</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.024553621114493</v>
+        <v>0.02627881844703217</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05649527593797884</v>
+        <v>0.06064209262149162</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03003243716782979</v>
+        <v>0.06470463983930613</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06053186433353106</v>
+        <v>0.06014605945249322</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06579875292142021</v>
+        <v>0.09025239089019321</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05919166272399954</v>
+        <v>0.06011838325759251</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1031002140043503</v>
+        <v>0.02627881844703217</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06032672302791134</v>
+        <v>0.06064209262149162</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02576506527217644</v>
+        <v>0.02608693985462529</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0572195743474401</v>
+        <v>0.06141955534740817</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03025293098442144</v>
+        <v>0.06493201916349262</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06130791387626864</v>
+        <v>0.06091716277880723</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06618544117999539</v>
+        <v>0.0900115987349121</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05995053019482004</v>
+        <v>0.06088913176089499</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1044306722776057</v>
+        <v>0.02608693985462529</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06110014255391021</v>
+        <v>0.06141955534740817</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02495973740844049</v>
+        <v>0.02590973377021345</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05794387275690136</v>
+        <v>0.06219701807332473</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03025089524649602</v>
+        <v>0.06445425191554438</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06208396341900622</v>
+        <v>0.06168826610512125</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0665923379134018</v>
+        <v>0.08911056112527943</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06070939766564055</v>
+        <v>0.06165988026419746</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1044903656127346</v>
+        <v>0.02590973377021345</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06187356207990907</v>
+        <v>0.06219701807332473</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0251350899362341</v>
+        <v>0.02564915659227443</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05866817116636264</v>
+        <v>0.06297448079924128</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03004466508117427</v>
+        <v>0.06457156481334081</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06286001296174379</v>
+        <v>0.06245936943143526</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06734180163101358</v>
+        <v>0.08775559357679291</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06146826513646107</v>
+        <v>0.06243062876749992</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1050552959416197</v>
+        <v>0.02564915659227443</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06264698160590794</v>
+        <v>0.06297448079924128</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02528857526850627</v>
+        <v>0.02550716471928585</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05939246957582391</v>
+        <v>0.06375194352515785</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03003445022648064</v>
+        <v>0.06398418457476127</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06363606250448137</v>
+        <v>0.06323047275774928</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06740201232787957</v>
+        <v>0.08735301160494979</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06222713260728156</v>
+        <v>0.0632013772708024</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1061289014819827</v>
+        <v>0.02550716471928585</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06342040113190679</v>
+        <v>0.06375194352515785</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02541764581820596</v>
+        <v>0.02528571454972546</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06011676798528517</v>
+        <v>0.06452940625107441</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03002046249442157</v>
+        <v>0.06389233791768509</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06441211204721894</v>
+        <v>0.06400157608406329</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06789541205942365</v>
+        <v>0.08740913072524792</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06298600007810207</v>
+        <v>0.06397212577410487</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1067093797324937</v>
+        <v>0.02528571454972546</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06419382065790566</v>
+        <v>0.06452940625107441</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02651975399828217</v>
+        <v>0.02518676248207098</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06084106639474644</v>
+        <v>0.06530686897699096</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03010291369700348</v>
+        <v>0.06409625155999168</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06518816158995652</v>
+        <v>0.0647726794103773</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06818981505127522</v>
+        <v>0.08672641104285045</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06374486754892258</v>
+        <v>0.06474287427740733</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1067949281918232</v>
+        <v>0.02518676248207098</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06496724018390453</v>
+        <v>0.06530686897699096</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02657231435123272</v>
+        <v>0.02511112271950459</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0615653648042077</v>
+        <v>0.06608433170290752</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03018201564623278</v>
+        <v>0.06379615221956034</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0659642111326941</v>
+        <v>0.06554378273669133</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06878325626307621</v>
+        <v>0.08577236539489919</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06450373501974309</v>
+        <v>0.06551362278070978</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1075837443586415</v>
+        <v>0.02511112271950459</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06574065970990339</v>
+        <v>0.06608433170290752</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0246604095535345</v>
+        <v>0.02504425766370974</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06228966321366897</v>
+        <v>0.06686179442882408</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03015798015411594</v>
+        <v>0.06349226661427046</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06674026067543168</v>
+        <v>0.06631488606300534</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06937377065446854</v>
+        <v>0.08523727911736506</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06526260249056359</v>
+        <v>0.06628437128401225</v>
       </c>
       <c r="N151" t="n">
-        <v>0.108774025731619</v>
+        <v>0.02504425766370974</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06651407923590226</v>
+        <v>0.06686179442882408</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02572588901888227</v>
+        <v>0.02488107178157173</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06301396162313025</v>
+        <v>0.06763925715474065</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02983101903265938</v>
+        <v>0.06318482146200144</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06751631021816926</v>
+        <v>0.06708598938931935</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06925939318509394</v>
+        <v>0.0851199573641358</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0660214699613841</v>
+        <v>0.06705511978731472</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1095639698094261</v>
+        <v>0.02488107178157173</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06728749876190111</v>
+        <v>0.06763925715474065</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02679028633574937</v>
+        <v>0.02502139556660993</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0637382600325915</v>
+        <v>0.0684167198806572</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02990134409386949</v>
+        <v>0.06287404348063261</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06829235976090683</v>
+        <v>0.06785709271563338</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06993815881459442</v>
+        <v>0.08511920528909894</v>
       </c>
       <c r="M153" t="n">
-        <v>0.0667803374322046</v>
+        <v>0.06782586829061719</v>
       </c>
       <c r="N153" t="n">
-        <v>0.109951774090733</v>
+        <v>0.02502139556660993</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06806091828789998</v>
+        <v>0.0684167198806572</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02485350288116824</v>
+        <v>0.02476505951234377</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06446255844205277</v>
+        <v>0.06919418260657376</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03006916714975277</v>
+        <v>0.06296015938804331</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06906840930364441</v>
+        <v>0.06862819604194739</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07050810250261183</v>
+        <v>0.08453382804614235</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06753920490302512</v>
+        <v>0.06859661679391967</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1104356360742104</v>
+        <v>0.02476505951234377</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06883433781389885</v>
+        <v>0.06919418260657376</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02691544003217139</v>
+        <v>0.02481189411229259</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06518685685151404</v>
+        <v>0.06997164533249031</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02973470001231561</v>
+        <v>0.0626433959021129</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06984445884638199</v>
+        <v>0.06939929936826141</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07066725920878811</v>
+        <v>0.08456263078915355</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06829807237384562</v>
+        <v>0.06936736529722214</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1116137532585283</v>
+        <v>0.02481189411229259</v>
       </c>
       <c r="O155" t="n">
-        <v>0.0696077573398977</v>
+        <v>0.06997164533249031</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02597599916579126</v>
+        <v>0.02496172985997584</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06591115526097531</v>
+        <v>0.07074910805840688</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02999815449356444</v>
+        <v>0.06232397974072082</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07062050838911957</v>
+        <v>0.07017040269457542</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07101366389276501</v>
+        <v>0.08420441867202039</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06905693984466614</v>
+        <v>0.07013811380052461</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1120843231423572</v>
+        <v>0.02496172985997584</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07038117686589658</v>
+        <v>0.07074910805840688</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02703508165906034</v>
+        <v>0.02471439724891288</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06663545367043658</v>
+        <v>0.07152657078432344</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02965974240550572</v>
+        <v>0.06240213762174635</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07139655793185715</v>
+        <v>0.07094150602088944</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07124535151418451</v>
+        <v>0.08295799684863037</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06981580731548663</v>
+        <v>0.07090886230382708</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1126455432243674</v>
+        <v>0.02471439724891288</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07115459639189543</v>
+        <v>0.07152657078432344</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0260925888890111</v>
+        <v>0.0248697267726231</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06735975207989783</v>
+        <v>0.07230403351023999</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02961967556014583</v>
+        <v>0.06187809626306887</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07217260747459472</v>
+        <v>0.07171260934720346</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07176035703268849</v>
+        <v>0.08342217047287132</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07057467478630715</v>
+        <v>0.07167961080712955</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1126956110032294</v>
+        <v>0.0248697267726231</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07192801591789429</v>
+        <v>0.07230403351023999</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02714842223267604</v>
+        <v>0.02472754892462592</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06808405048935912</v>
+        <v>0.07308149623615655</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02987816576949125</v>
+        <v>0.06145208238256775</v>
       </c>
       <c r="K159" t="n">
-        <v>0.0729486570173323</v>
+        <v>0.07248371267351747</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07175671540791875</v>
+        <v>0.08299574469863075</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07133354225712765</v>
+        <v>0.07245035931043201</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1133327239776136</v>
+        <v>0.02472754892462592</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07270143544389317</v>
+        <v>0.07308149623615655</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02720248306708761</v>
+        <v>0.0244876941984407</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06880834889882037</v>
+        <v>0.0738589589620731</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02963542484554839</v>
+        <v>0.06122432269812236</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07372470656006988</v>
+        <v>0.07325481599983148</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07213246159951733</v>
+        <v>0.0821775246797965</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07209240972794816</v>
+        <v>0.07322110781373448</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1147550796461901</v>
+        <v>0.0244876941984407</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07347485496989202</v>
+        <v>0.0738589589620731</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02525467276927827</v>
+        <v>0.02454999308758679</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06953264730828164</v>
+        <v>0.07463642168798967</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02979166460032369</v>
+        <v>0.06109504392761206</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07450075610280746</v>
+        <v>0.0740259193261455</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07208563056712597</v>
+        <v>0.08256631557025629</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07285127719876866</v>
+        <v>0.07399185631703693</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1152608755076295</v>
+        <v>0.02454999308758679</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07424827449589089</v>
+        <v>0.07463642168798967</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02730489271628053</v>
+        <v>0.02451427608558367</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07025694571774292</v>
+        <v>0.07541388441390624</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02964709684582355</v>
+        <v>0.06116447278891615</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07527680564554504</v>
+        <v>0.07479702265245951</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07271425727038658</v>
+        <v>0.08206092252389763</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07361014466958918</v>
+        <v>0.0747626048203394</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1158483090606021</v>
+        <v>0.02451427608558367</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07502169402188975</v>
+        <v>0.07541388441390624</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02535304428512687</v>
+        <v>0.02438037368595068</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07098124412720418</v>
+        <v>0.0761913471398228</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02970193339405446</v>
+        <v>0.06063283599991412</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07605285518828261</v>
+        <v>0.07556812597877353</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07311637666894108</v>
+        <v>0.08126015069460829</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07436901214040967</v>
+        <v>0.07553335332364187</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1165155778037782</v>
+        <v>0.02438037368595068</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07579511354788861</v>
+        <v>0.0761913471398228</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02639902885284971</v>
+        <v>0.02454811638220719</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07170554253666545</v>
+        <v>0.07696880986573935</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0293563860570228</v>
+        <v>0.06030036027848523</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07682890473102019</v>
+        <v>0.07633922930508755</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0730900237224314</v>
+        <v>0.08176280523627599</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07512787961123019</v>
+        <v>0.07630410182694435</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1166608792358282</v>
+        <v>0.02454811638220719</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07656853307388749</v>
+        <v>0.07696880986573935</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02544274779648156</v>
+        <v>0.02451733466787265</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0724298409461267</v>
+        <v>0.07774627259165591</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02941066664673501</v>
+        <v>0.06006727234250886</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07760495427375777</v>
+        <v>0.07711033263140156</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07293323339049926</v>
+        <v>0.0804676913027883</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07588674708205069</v>
+        <v>0.07707485033024682</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1170824108554224</v>
+        <v>0.02451733466787265</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07734195259988634</v>
+        <v>0.07774627259165591</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02648410249305491</v>
+        <v>0.0245878590364664</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07315413935558798</v>
+        <v>0.07852373531757247</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02926498697519755</v>
+        <v>0.06033379890986437</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07838100381649535</v>
+        <v>0.07788143595771557</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07334404063278668</v>
+        <v>0.08067361404803308</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07664561455287119</v>
+        <v>0.07784559883354929</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1178783701612313</v>
+        <v>0.0245878590364664</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07811537212588519</v>
+        <v>0.07852373531757247</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02652299431960221</v>
+        <v>0.02435951998150784</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07387843776504925</v>
+        <v>0.07930119804348904</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02921955885441684</v>
+        <v>0.06000016669843114</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07915705335923293</v>
+        <v>0.07865253928402959</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07312048040893551</v>
+        <v>0.08047937862589777</v>
       </c>
       <c r="M167" t="n">
-        <v>0.0774044820236917</v>
+        <v>0.07861634733685176</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1181469546519252</v>
+        <v>0.02435951998150784</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07888879165188407</v>
+        <v>0.07930119804348904</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02755932465315594</v>
+        <v>0.0245321479965164</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07460273617451051</v>
+        <v>0.08007866076940559</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02927459409639926</v>
+        <v>0.05976660242608853</v>
       </c>
       <c r="K168" t="n">
-        <v>0.0799331029019705</v>
+        <v>0.0794236426103436</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07336058767858761</v>
+        <v>0.07958379019027023</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07816334949451222</v>
+        <v>0.07938709584015423</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1181863618261744</v>
+        <v>0.0245321479965164</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07966221117788293</v>
+        <v>0.08007866076940559</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02759299487074857</v>
+        <v>0.02450557357501143</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07532703458397179</v>
+        <v>0.08085612349532215</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02933030451315133</v>
+        <v>0.05923333281071591</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08070915244470808</v>
+        <v>0.08019474593665761</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07366268498807177</v>
+        <v>0.07948565389503803</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07892221696533272</v>
+        <v>0.08015784434345669</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1188947891826493</v>
+        <v>0.02450557357501143</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08043563070388179</v>
+        <v>0.08085612349532215</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02762390634941259</v>
+        <v>0.02427962721051231</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07605133299343304</v>
+        <v>0.0816335862212387</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02928498349813118</v>
+        <v>0.05950058457019261</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08148520198744566</v>
+        <v>0.08096584926297164</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07342806054060053</v>
+        <v>0.07908377489408908</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07968108443615322</v>
+        <v>0.08092859284675916</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1191704342200203</v>
+        <v>0.02427962721051231</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08120905022988066</v>
+        <v>0.0816335862212387</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02665196046618047</v>
+        <v>0.02425413939653846</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07677563140289431</v>
+        <v>0.08241104894715527</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02933384756105883</v>
+        <v>0.05906858442239799</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08226125153018324</v>
+        <v>0.08173695258928566</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07295827458655804</v>
+        <v>0.07937695834131075</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08043995190697373</v>
+        <v>0.08169934135006163</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1196114944369578</v>
+        <v>0.02425413939653846</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08198246975587951</v>
+        <v>0.08241104894715527</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02567705859808467</v>
+        <v>0.02412894062660927</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07749992981235558</v>
+        <v>0.08318851167307183</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02927702984544719</v>
+        <v>0.05883755908521146</v>
       </c>
       <c r="K172" t="n">
-        <v>0.0830373010729208</v>
+        <v>0.08250805591559968</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07335462783021074</v>
+        <v>0.07916400939059093</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08119881937779425</v>
+        <v>0.08247008985336408</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1205161673321319</v>
+        <v>0.02412894062660927</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08275588928187838</v>
+        <v>0.08318851167307183</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02569910212215766</v>
+        <v>0.02420386139424409</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07822422822181685</v>
+        <v>0.08396597439898838</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02921494015138457</v>
+        <v>0.05840773527651236</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08381335061565838</v>
+        <v>0.08327915924191369</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07281842097582514</v>
+        <v>0.0780437331958172</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08195768684861475</v>
+        <v>0.08324083835666655</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1200826504042134</v>
+        <v>0.02420386139424409</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08352930880787725</v>
+        <v>0.08396597439898838</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02671799241543195</v>
+        <v>0.02407873219296237</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07894852663127812</v>
+        <v>0.08474343712490494</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02894798827895929</v>
+        <v>0.05817933971418002</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08458940015839596</v>
+        <v>0.0840502625682277</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07295095472766763</v>
+        <v>0.07871493491087728</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08271655431943525</v>
+        <v>0.08401158685996903</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1208091411518722</v>
+        <v>0.02407873219296237</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08430272833387611</v>
+        <v>0.08474343712490494</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02773363085494</v>
+        <v>0.02415338351628345</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07967282504073939</v>
+        <v>0.08552089985082149</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02877658402825965</v>
+        <v>0.05775275009512448</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08536544970113354</v>
+        <v>0.08482136589454171</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07285352979000467</v>
+        <v>0.07747641968965885</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08347542179025576</v>
+        <v>0.0847823353632715</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1202938370737791</v>
+        <v>0.02415338351628345</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08507614785987498</v>
+        <v>0.08552089985082149</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02774591881771425</v>
+        <v>0.02432764585772676</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08039712345020066</v>
+        <v>0.08629836257673806</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02890113719937397</v>
+        <v>0.05782816841054508</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08614149924387111</v>
+        <v>0.08559246922085573</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07242744686710273</v>
+        <v>0.07782699268604965</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08423428926107626</v>
+        <v>0.08555308386657397</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1213349356686041</v>
+        <v>0.02432764585772676</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08584956738587383</v>
+        <v>0.08629836257673806</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02575475768078722</v>
+        <v>0.02430134971081166</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08112142185966191</v>
+        <v>0.08707582530265462</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02892205759239057</v>
+        <v>0.05790460550671633</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08691754878660869</v>
+        <v>0.08636357254716975</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07197400666322826</v>
+        <v>0.07676545905393722</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08499315673189678</v>
+        <v>0.08632383236987644</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1210306344350178</v>
+        <v>0.02430134971081166</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0866229869118727</v>
+        <v>0.08707582530265462</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02576004882119136</v>
+        <v>0.02427432556905755</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08184572026912318</v>
+        <v>0.08785328802857117</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02873975500739773</v>
+        <v>0.05768099257698098</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08769359832934627</v>
+        <v>0.08713467587348377</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07169450988264769</v>
+        <v>0.07699062394720929</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08575202420271728</v>
+        <v>0.08709458087317891</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1207791308716904</v>
+        <v>0.02427432556905755</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08739640643787157</v>
+        <v>0.08785328802857117</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02576167953853564</v>
+        <v>0.02394640392598384</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08257001867858445</v>
+        <v>0.08863075075448773</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02855463924448379</v>
+        <v>0.05705626081468171</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08846964787208385</v>
+        <v>0.08790577919979778</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07189025722962752</v>
+        <v>0.07650129251975368</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08651089167353779</v>
+        <v>0.08786532937648137</v>
       </c>
       <c r="N179" t="n">
-        <v>0.120951791734433</v>
+        <v>0.02394640392598384</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08816982596387044</v>
+        <v>0.08863075075448773</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02575478100376345</v>
+        <v>0.02391741527510988</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08329431708804572</v>
+        <v>0.08940821348040429</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02866712010373704</v>
+        <v>0.05662934141316131</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08924569741482143</v>
+        <v>0.08867688252611179</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07096254940843416</v>
+        <v>0.0757962699254579</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08726975914435829</v>
+        <v>0.08863607787978384</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1211992669604521</v>
+        <v>0.02391741527510988</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08894324548986929</v>
+        <v>0.08940821348040429</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02673586122899745</v>
+        <v>0.02418719010995507</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08401861549750698</v>
+        <v>0.09018567620632086</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02837760738524579</v>
+        <v>0.05639916556576247</v>
       </c>
       <c r="K181" t="n">
-        <v>0.090021746957559</v>
+        <v>0.0894479858524258</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07071268712333406</v>
+        <v>0.07607436131820966</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08802862661517881</v>
+        <v>0.08940682638308631</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1204148932917938</v>
+        <v>0.02418719010995507</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08971666501586816</v>
+        <v>0.09018567620632086</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02570545498166835</v>
+        <v>0.02385555892403883</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08474291390696825</v>
+        <v>0.09096313893223741</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02848651088909837</v>
+        <v>0.0564646644658279</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09079779650029658</v>
+        <v>0.09021908917873982</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07064197107859366</v>
+        <v>0.07493437185189683</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0887874940859993</v>
+        <v>0.09017757488638878</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1196178828941394</v>
+        <v>0.02385555892403883</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09049008454186702</v>
+        <v>0.09096313893223741</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02566409702920683</v>
+        <v>0.02392235221088053</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08546721231642952</v>
+        <v>0.09174060165815398</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02839424041538306</v>
+        <v>0.0562247693067004</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09157384604303416</v>
+        <v>0.09099019250505384</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07035170197847948</v>
+        <v>0.07507510668040679</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08954636155681982</v>
+        <v>0.09094832338969124</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1182274479331697</v>
+        <v>0.02392235221088053</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09126350406786587</v>
+        <v>0.09174060165815398</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02661232213904362</v>
+        <v>0.02378740046399958</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08619151072589078</v>
+        <v>0.09251806438407054</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02800120576418821</v>
+        <v>0.05617841128172263</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09234989558577174</v>
+        <v>0.09176129583136786</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07004318052725789</v>
+        <v>0.0746953709576274</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09030522902764032</v>
+        <v>0.09171907189299371</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1172628005745657</v>
+        <v>0.02378740046399958</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09203692359386474</v>
+        <v>0.09251806438407054</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02755066507860944</v>
+        <v>0.02405053417691536</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08691580913535206</v>
+        <v>0.09329552710998709</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02790781673560208</v>
+        <v>0.05592452158423736</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09312594512850932</v>
+        <v>0.09253239915768188</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06911770742919535</v>
+        <v>0.07339396983744628</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09106409649846083</v>
+        <v>0.09248982039629618</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1165431529840085</v>
+        <v>0.02405053417691536</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09281034311986361</v>
+        <v>0.09329552710998709</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02647966061533497</v>
+        <v>0.02381158384314722</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08764010754481333</v>
+        <v>0.09407298983590366</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02801448312971301</v>
+        <v>0.05536203140758728</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09390199467124689</v>
+        <v>0.0933035024839959</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06907658338855838</v>
+        <v>0.07286970847375118</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09182296396928133</v>
+        <v>0.09326056889959865</v>
       </c>
       <c r="N186" t="n">
-        <v>0.115187717327179</v>
+        <v>0.02381158384314722</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09358376264586248</v>
+        <v>0.09407298983590366</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02739984351665092</v>
+        <v>0.02377037995621462</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08836440595427458</v>
+        <v>0.09485045256182022</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02782161474660931</v>
+        <v>0.05508987194511511</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09467804421398447</v>
+        <v>0.09407460581030991</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06842110910961338</v>
+        <v>0.07262136386830259</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09258183144010185</v>
+        <v>0.09403131740290112</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1131157057697581</v>
+        <v>0.02377037995621462</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09435718217186134</v>
+        <v>0.09485045256182022</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02531174854998802</v>
+        <v>0.02372675300963689</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08908870436373585</v>
+        <v>0.09562791528773677</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02762962138637928</v>
+        <v>0.05510697439016368</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09545409375672205</v>
+        <v>0.09484570913662392</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06765258529662679</v>
+        <v>0.07229514901844736</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09334069891092235</v>
+        <v>0.09480206590620359</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1118463304774269</v>
+        <v>0.02372675300963689</v>
       </c>
       <c r="O188" t="n">
-        <v>0.0951306016978602</v>
+        <v>0.09562791528773677</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02721591048277697</v>
+        <v>0.02388053349693345</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08981300277319712</v>
+        <v>0.09640537801365333</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02763891284911124</v>
+        <v>0.05481226993607563</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09623014329945963</v>
+        <v>0.09561681246293793</v>
       </c>
       <c r="L189" t="n">
-        <v>0.0675723126538651</v>
+        <v>0.07154843367441382</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09409956638174286</v>
+        <v>0.09557281440950605</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1101988036158664</v>
+        <v>0.02388053349693345</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09590402122385906</v>
+        <v>0.09640537801365333</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02611286408244845</v>
+        <v>0.02373155191162368</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09053730118265839</v>
+        <v>0.09718284073956988</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02754989893489349</v>
+        <v>0.0546046897761937</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09700619284219721</v>
+        <v>0.09638791578925195</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06698159188559474</v>
+        <v>0.07048963429625082</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09485843385256336</v>
+        <v>0.09634356291280852</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1088923373507574</v>
+        <v>0.02373155191162368</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09667744074985793</v>
+        <v>0.09718284073956988</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.0250031441164332</v>
+        <v>0.02367963874722699</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09126159959211966</v>
+        <v>0.09796030346548645</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02756298944381436</v>
+        <v>0.05428316510386064</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09778224238493478</v>
+        <v>0.09715901911556597</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06638172369608214</v>
+        <v>0.06982716734400712</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09561730132338388</v>
+        <v>0.09711431141611099</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1066461438477811</v>
+        <v>0.02367963874722699</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09745086027585678</v>
+        <v>0.09796030346548645</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02488728535216191</v>
+        <v>0.02352462449726274</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09198589800158093</v>
+        <v>0.09873776619140301</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02747859417596213</v>
+        <v>0.05394662711241915</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09855829192767236</v>
+        <v>0.09793012244187999</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06597400878959381</v>
+        <v>0.06866944927773139</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09637616879420437</v>
+        <v>0.09788505991941346</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1049794352726185</v>
+        <v>0.02352462449726274</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09822427980185566</v>
+        <v>0.09873776619140301</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02476582255706529</v>
+        <v>0.02366633965525038</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09271019641104219</v>
+        <v>0.09951522891731956</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02749712293142513</v>
+        <v>0.053594006995212</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09933434147040994</v>
+        <v>0.098701225768194</v>
       </c>
       <c r="L193" t="n">
-        <v>0.0657597478703961</v>
+        <v>0.06682489655747242</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09713503626502488</v>
+        <v>0.09865580842271593</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1030114237909504</v>
+        <v>0.02366633965525038</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09899769932785452</v>
+        <v>0.09951522891731956</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02563929049857405</v>
+        <v>0.02360461471470923</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09343449482050345</v>
+        <v>0.1002926916432361</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02741898551029166</v>
+        <v>0.05282423594558186</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1001103910131475</v>
+        <v>0.09947232909450801</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06464024164275561</v>
+        <v>0.06640192564327918</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09789390373584539</v>
+        <v>0.09942655692601839</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1018613215684579</v>
+        <v>0.02360461471470923</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09977111885385337</v>
+        <v>0.1002926916432361</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02650822394411889</v>
+        <v>0.0235392801691587</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09415879322996473</v>
+        <v>0.1010701543691527</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02714459171265003</v>
+        <v>0.05243624515687151</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1008864405558851</v>
+        <v>0.100243432420822</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06411679081093866</v>
+        <v>0.06430895299520017</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09865277120666589</v>
+        <v>0.1001973054293209</v>
       </c>
       <c r="N195" t="n">
-        <v>0.100048340770822</v>
+        <v>0.0235392801691587</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1005445383798522</v>
+        <v>0.1010701543691527</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02637315766113055</v>
+        <v>0.02317016651211819</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09488309163942599</v>
+        <v>0.1018476170950692</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02697435133858858</v>
+        <v>0.05232896582242366</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1016624900986227</v>
+        <v>0.101014535747136</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06359069607921175</v>
+        <v>0.0637543950732844</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09941163867748641</v>
+        <v>0.1009680539326233</v>
       </c>
       <c r="N196" t="n">
-        <v>0.09869169356372359</v>
+        <v>0.02317016651211819</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1013179579058511</v>
+        <v>0.1018476170950692</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02423462641703968</v>
+        <v>0.02319710423710708</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09560739004888726</v>
+        <v>0.1026250798209858</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02690867418819556</v>
+        <v>0.05150132913558103</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1024385396413603</v>
+        <v>0.1017856390734501</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06356325815184133</v>
+        <v>0.06174666833758058</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1001705061483069</v>
+        <v>0.1017388024359258</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09621059211284377</v>
+        <v>0.02319710423710708</v>
       </c>
       <c r="O197" t="n">
-        <v>0.10209137743185</v>
+        <v>0.1026250798209858</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02409316497927703</v>
+        <v>0.02331624409962819</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09633168845834854</v>
+        <v>0.1034025425469024</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02694797006155934</v>
+        <v>0.0510522662896864</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1032145891840978</v>
+        <v>0.1025567423997641</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06303577773309385</v>
+        <v>0.0603941892481375</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1009293736191274</v>
+        <v>0.1025095509392283</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09532424858386346</v>
+        <v>0.02331624409962819</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1028647969578488</v>
+        <v>0.1034025425469024</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02494930811527329</v>
+        <v>0.02320644065676872</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09705598686780979</v>
+        <v>0.1041800052728189</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02689264875876819</v>
+        <v>0.05058070847808244</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1039906387268354</v>
+        <v>0.1033278457260781</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06200955552723578</v>
+        <v>0.0595053742650038</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1016882410899479</v>
+        <v>0.1032802994425307</v>
       </c>
       <c r="N199" t="n">
-        <v>0.0935518751424636</v>
+        <v>0.02320644065676872</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1036382164838477</v>
+        <v>0.1041800052728189</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02380359059245918</v>
+        <v>0.02276623940688301</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09778028527727106</v>
+        <v>0.1049574679987355</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02704312007991044</v>
+        <v>0.05028558689411186</v>
       </c>
       <c r="K200" t="n">
-        <v>0.104766688269573</v>
+        <v>0.1040989490523921</v>
       </c>
       <c r="L200" t="n">
-        <v>0.0615858922385335</v>
+        <v>0.0573886398482284</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1024471085607684</v>
+        <v>0.1040510479458332</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09221268395432525</v>
+        <v>0.02276623940688301</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1044116360098466</v>
+        <v>0.1049574679987355</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02365654717826539</v>
+        <v>0.02269790375423346</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09850458368673232</v>
+        <v>0.105734930724652</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02689979382507439</v>
+        <v>0.04996583273111749</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1055427378123106</v>
+        <v>0.1048700523787061</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06146608857125355</v>
+        <v>0.05545240245786004</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1032059760315889</v>
+        <v>0.1048217964491357</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09122588718512942</v>
+        <v>0.02269790375423346</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1051850555358454</v>
+        <v>0.105734930724652</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02550871264012265</v>
+        <v>0.02240369710308251</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0992288820961936</v>
+        <v>0.1065123934505686</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02676307979434835</v>
+        <v>0.04907745371172015</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1063187873550481</v>
+        <v>0.1056411557050201</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06075144522966236</v>
+        <v>0.05400507855394748</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1039648435024094</v>
+        <v>0.1055925449524381</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09031069700055705</v>
+        <v>0.02240369710308251</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1059584750618443</v>
+        <v>0.1065123934505686</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02536062174546164</v>
+        <v>0.02228588285769256</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09995318050565487</v>
+        <v>0.1072898561764851</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02683338778782064</v>
+        <v>0.04843065689282153</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1070948368977857</v>
+        <v>0.1064122590313342</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06004326291802636</v>
+        <v>0.05285508459653954</v>
       </c>
       <c r="M203" t="n">
-        <v>0.10472371097323</v>
+        <v>0.1063632934557406</v>
       </c>
       <c r="N203" t="n">
-        <v>0.08988632556628912</v>
+        <v>0.02228588285769256</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1067318945878432</v>
+        <v>0.1072898561764851</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02421280926171307</v>
+        <v>0.022246724422326</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1006774789151161</v>
+        <v>0.1080673189024017</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02681112760557956</v>
+        <v>0.04735074123472466</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1078708864405233</v>
+        <v>0.1071833623576482</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05974284234061197</v>
+        <v>0.05121083704568491</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1054825784440505</v>
+        <v>0.1071340419590431</v>
       </c>
       <c r="N204" t="n">
-        <v>0.08907198504800656</v>
+        <v>0.022246724422326</v>
       </c>
       <c r="O204" t="n">
-        <v>0.107505314113842</v>
+        <v>0.1080673189024017</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02506580995630768</v>
+        <v>0.02188848520124526</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1014017773245774</v>
+        <v>0.1088447816283183</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02679670904771343</v>
+        <v>0.04569346782746234</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1086469359832609</v>
+        <v>0.1079544656839622</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05905148420168571</v>
+        <v>0.05018075236143249</v>
       </c>
       <c r="M205" t="n">
-        <v>0.106241445914871</v>
+        <v>0.1079047904623455</v>
       </c>
       <c r="N205" t="n">
-        <v>0.08888688761139052</v>
+        <v>0.02188848520124526</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1082787336398409</v>
+        <v>0.1088447816283183</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02292015859667615</v>
+        <v>0.02141342859871277</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1021260757340387</v>
+        <v>0.1096222443542348</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02689054191431056</v>
+        <v>0.04431459776106719</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1094229855259985</v>
+        <v>0.1087255690102762</v>
       </c>
       <c r="L206" t="n">
-        <v>0.059070489205514</v>
+        <v>0.0477732470038309</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1070003133856915</v>
+        <v>0.108675538965648</v>
       </c>
       <c r="N206" t="n">
-        <v>0.08843474022486364</v>
+        <v>0.02141342859871277</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1090521531658397</v>
+        <v>0.1096222443542348</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02377638995024918</v>
+        <v>0.02142381801899088</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1028503741434999</v>
+        <v>0.1103997070801514</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02659075552881517</v>
+        <v>0.04296989212557215</v>
       </c>
       <c r="K207" t="n">
-        <v>0.110199035068736</v>
+        <v>0.1094966723365902</v>
       </c>
       <c r="L207" t="n">
-        <v>0.0580011580563633</v>
+        <v>0.04659673743292914</v>
       </c>
       <c r="M207" t="n">
-        <v>0.107759180856512</v>
+        <v>0.1094462874689505</v>
       </c>
       <c r="N207" t="n">
-        <v>0.08898586777392509</v>
+        <v>0.02142381801899088</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1098255726918386</v>
+        <v>0.1103997070801514</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0236350387844575</v>
+        <v>0.02112191686634206</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1035746725529612</v>
+        <v>0.111177169806068</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02659254680963628</v>
+        <v>0.04181511201100988</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1109750846114736</v>
+        <v>0.1102677756629042</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05764444012664963</v>
+        <v>0.04505964010877583</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1085180483273325</v>
+        <v>0.1102170359722529</v>
       </c>
       <c r="N208" t="n">
-        <v>0.08844002484245278</v>
+        <v>0.02112191686634206</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1105989922178375</v>
+        <v>0.111177169806068</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0234966398667318</v>
+        <v>0.0207099885450287</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1042989709624225</v>
+        <v>0.1119546325319845</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0265957738054102</v>
+        <v>0.04010601850741313</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1117511341542112</v>
+        <v>0.1110388789892182</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05728978109480168</v>
+        <v>0.04377037149141971</v>
       </c>
       <c r="M209" t="n">
-        <v>0.109276915798153</v>
+        <v>0.1109877844755554</v>
       </c>
       <c r="N209" t="n">
-        <v>0.08899719583948518</v>
+        <v>0.0207099885450287</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1113724117438363</v>
+        <v>0.1119546325319845</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02336172796450281</v>
+        <v>0.02039029645931319</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1050232693718837</v>
+        <v>0.1127320952579011</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02660047044461482</v>
+        <v>0.03929837270481465</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1125271836969488</v>
+        <v>0.1118099823155323</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05703173675924403</v>
+        <v>0.04313734804090963</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1100357832689735</v>
+        <v>0.1117585329788579</v>
       </c>
       <c r="N210" t="n">
-        <v>0.08825736517406108</v>
+        <v>0.02039029645931319</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1121458312698352</v>
+        <v>0.1127320952579011</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02423083784520121</v>
+        <v>0.01986510401345798</v>
       </c>
       <c r="G211" t="n">
-        <v>0.105747567781345</v>
+        <v>0.1135095579838176</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02670667065572804</v>
+        <v>0.03814793569324726</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1133032332396863</v>
+        <v>0.1125810856418463</v>
       </c>
       <c r="L211" t="n">
-        <v>0.0565703130105914</v>
+        <v>0.04096898621729433</v>
       </c>
       <c r="M211" t="n">
-        <v>0.110794650739794</v>
+        <v>0.1125292814821604</v>
       </c>
       <c r="N211" t="n">
-        <v>0.08792051725521877</v>
+        <v>0.01986510401345798</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1129192507958341</v>
+        <v>0.1135095579838176</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02310450427625771</v>
+        <v>0.01973667461172542</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1064718661908063</v>
+        <v>0.1142870207097342</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02671440836722778</v>
+        <v>0.03701046856274368</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1140792827824239</v>
+        <v>0.1133521889681603</v>
       </c>
       <c r="L212" t="n">
-        <v>0.0557055157394587</v>
+        <v>0.04027370248062262</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1115535182106145</v>
+        <v>0.1133000299854628</v>
       </c>
       <c r="N212" t="n">
-        <v>0.08758663649199699</v>
+        <v>0.01973667461172542</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1136926703218329</v>
+        <v>0.1142870207097342</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02398326202510304</v>
+        <v>0.01940727165837798</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1071961646002675</v>
+        <v>0.1150644834356507</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02672371750759193</v>
+        <v>0.03633533427938637</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1148553323251615</v>
+        <v>0.1141232922944743</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05533735083646069</v>
+        <v>0.03955991329094333</v>
       </c>
       <c r="M213" t="n">
-        <v>0.112312385681435</v>
+        <v>0.1140707784887653</v>
       </c>
       <c r="N213" t="n">
-        <v>0.08785570729343434</v>
+        <v>0.01940727165837798</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1144660898478318</v>
+        <v>0.1150644834356507</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02386764585916788</v>
+        <v>0.01907915855767807</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1079204630097288</v>
+        <v>0.1158419461615673</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02683463200529841</v>
+        <v>0.0353596818303992</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1156313818678991</v>
+        <v>0.1148943956207883</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05476582419221224</v>
+        <v>0.03783603510830513</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1130712531522555</v>
+        <v>0.1148415269920677</v>
       </c>
       <c r="N214" t="n">
-        <v>0.08822771406856911</v>
+        <v>0.01907915855767807</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1152395093738307</v>
+        <v>0.1158419461615673</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02275819054588296</v>
+        <v>0.01855459871388807</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1086447614191901</v>
+        <v>0.1166194088874839</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02674718578882511</v>
+        <v>0.03509114241190567</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1164074314106367</v>
+        <v>0.1156654989471023</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05449094169732813</v>
+        <v>0.03711048439275688</v>
       </c>
       <c r="M215" t="n">
-        <v>0.113830120623076</v>
+        <v>0.1156122754953702</v>
       </c>
       <c r="N215" t="n">
-        <v>0.08750264122644008</v>
+        <v>0.01855459871388807</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1160129288998295</v>
+        <v>0.1166194088874839</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02265498795164511</v>
+        <v>0.01843585553127038</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1093690598286513</v>
+        <v>0.1173968716134004</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02696141278664992</v>
+        <v>0.03452988920252351</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1171834809533742</v>
+        <v>0.1164366022734163</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05441270924242322</v>
+        <v>0.03679167760434732</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1145889880938965</v>
+        <v>0.1163830239986727</v>
       </c>
       <c r="N216" t="n">
-        <v>0.08738047317608577</v>
+        <v>0.01843585553127038</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1167863484258284</v>
+        <v>0.1173968716134004</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02355342836685213</v>
+        <v>0.01812519241408746</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1100933582381126</v>
+        <v>0.118174334339317</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02677734692725074</v>
+        <v>0.03417609538087044</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1179595304961118</v>
+        <v>0.1172077055997304</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05373113271811231</v>
+        <v>0.03548803120312521</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1153478555647171</v>
+        <v>0.1171537725019752</v>
       </c>
       <c r="N217" t="n">
-        <v>0.08736119432654466</v>
+        <v>0.01812519241408746</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1175597679518273</v>
+        <v>0.118174334339317</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02145215756210506</v>
+        <v>0.01782487276660166</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1108176566475739</v>
+        <v>0.1189517970652335</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02699502213910551</v>
+        <v>0.03332993412556415</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1187355800388494</v>
+        <v>0.1179788089260444</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05304621801501022</v>
+        <v>0.03480796164913935</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1161067230355376</v>
+        <v>0.1179245210052776</v>
       </c>
       <c r="N218" t="n">
-        <v>0.08694478908685532</v>
+        <v>0.01782487276660166</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1183331874778261</v>
+        <v>0.1189517970652335</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02335117951976833</v>
+        <v>0.01743715999307544</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1115419550570351</v>
+        <v>0.1197292597911501</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02691447235069208</v>
+        <v>0.03309157861522249</v>
       </c>
       <c r="K219" t="n">
-        <v>0.119511629581587</v>
+        <v>0.1187499122523584</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05285797102373183</v>
+        <v>0.03485988540243851</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1168655905063581</v>
+        <v>0.1186952695085801</v>
       </c>
       <c r="N219" t="n">
-        <v>0.08713124186605647</v>
+        <v>0.01743715999307544</v>
       </c>
       <c r="O219" t="n">
-        <v>0.119106607003825</v>
+        <v>0.1197292597911501</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02325049822220636</v>
+        <v>0.0173643174977712</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1122662534664964</v>
+        <v>0.1205067225170667</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02703573149048841</v>
+        <v>0.03206120202846308</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1202876791243245</v>
+        <v>0.1195210155786724</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05226639763489188</v>
+        <v>0.03405221892307142</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1176244579771786</v>
+        <v>0.1194660180118826</v>
       </c>
       <c r="N220" t="n">
-        <v>0.08712053707318651</v>
+        <v>0.0173643174977712</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1198800265298238</v>
+        <v>0.1205067225170667</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02115011765178368</v>
+        <v>0.01690860868495132</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1129905518759577</v>
+        <v>0.1212841852429832</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02705883348697236</v>
+        <v>0.03173897754390365</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1210637286670621</v>
+        <v>0.1202921189049864</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05177150373910522</v>
+        <v>0.03449337867108693</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1183833254479991</v>
+        <v>0.120236766515185</v>
       </c>
       <c r="N221" t="n">
-        <v>0.08731265911728403</v>
+        <v>0.01690860868495132</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1206534460558227</v>
+        <v>0.1212841852429832</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.0230500417908647</v>
+        <v>0.01687229695887826</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1137148502854189</v>
+        <v>0.1220616479688998</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02688381226862181</v>
+        <v>0.03112507834016204</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1218397782097997</v>
+        <v>0.1210632222313004</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05107329522698664</v>
+        <v>0.03357238704009713</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1191421929188196</v>
+        <v>0.1210075150184875</v>
       </c>
       <c r="N222" t="n">
-        <v>0.08670759240738757</v>
+        <v>0.01687229695887826</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1214268655818215</v>
+        <v>0.1220616479688998</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0209502746218139</v>
+        <v>0.01665701983726942</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1144391486948802</v>
+        <v>0.1228391106948163</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02681070176391474</v>
+        <v>0.03091967759585582</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1226158277525373</v>
+        <v>0.1218343255576145</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05047177798915109</v>
+        <v>0.03397239438296978</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1199010603896401</v>
+        <v>0.12177826352179</v>
       </c>
       <c r="N223" t="n">
-        <v>0.08650532135253564</v>
+        <v>0.01665701983726942</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1222002851078204</v>
+        <v>0.1228391106948163</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02185082012699571</v>
+        <v>0.01634919412188955</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1151634471043415</v>
+        <v>0.1236165734207329</v>
       </c>
       <c r="J224" t="n">
-        <v>0.027039535901329</v>
+        <v>0.03002294848960282</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1233918772952749</v>
+        <v>0.1226054288839285</v>
       </c>
       <c r="L224" t="n">
-        <v>0.04996695791621325</v>
+        <v>0.03457242235303259</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1206599278604606</v>
+        <v>0.1225490120250924</v>
       </c>
       <c r="N224" t="n">
-        <v>0.086605830361767</v>
+        <v>0.01634919412188955</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1229737046338193</v>
+        <v>0.1236165734207329</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02175168228877461</v>
+        <v>0.01614254109319364</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1158877455138027</v>
+        <v>0.1243940361466495</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02697034860934248</v>
+        <v>0.03003506420002078</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1241679268380124</v>
+        <v>0.1233765322102425</v>
       </c>
       <c r="L225" t="n">
-        <v>0.04995884089878799</v>
+        <v>0.03397248481323484</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1214187953312811</v>
+        <v>0.1233197605283949</v>
       </c>
       <c r="N225" t="n">
-        <v>0.08690910384412004</v>
+        <v>0.01614254109319364</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1237471241598181</v>
+        <v>0.1243940361466495</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02165286508951501</v>
+        <v>0.01583712554151898</v>
       </c>
       <c r="G226" t="n">
-        <v>0.116612043923264</v>
+        <v>0.125171498872566</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02690317381643315</v>
+        <v>0.02915619790572732</v>
       </c>
       <c r="K226" t="n">
-        <v>0.12494397638075</v>
+        <v>0.1241476355365565</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04914743282749018</v>
+        <v>0.03417259562652553</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1221776628021016</v>
+        <v>0.1240905090316974</v>
       </c>
       <c r="N226" t="n">
-        <v>0.08611512620863326</v>
+        <v>0.01583712554151898</v>
       </c>
       <c r="O226" t="n">
-        <v>0.124520543685817</v>
+        <v>0.125171498872566</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0205543725115814</v>
+        <v>0.01583301225720289</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1173363423327253</v>
+        <v>0.1259489615984826</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02713804545107883</v>
+        <v>0.02858652278534032</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1257200259234876</v>
+        <v>0.1249187388628705</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04843273959293456</v>
+        <v>0.03387276865585398</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1229365302729221</v>
+        <v>0.1248612575349998</v>
       </c>
       <c r="N227" t="n">
-        <v>0.08612388186434533</v>
+        <v>0.01583301225720289</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1252939632118159</v>
+        <v>0.1259489615984826</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02245620853733825</v>
+        <v>0.0155302660305827</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1180606407421865</v>
+        <v>0.1267264243243991</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02717499744175746</v>
+        <v>0.02832621201747737</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1264960754662252</v>
+        <v>0.1256898421891846</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04791476708573603</v>
+        <v>0.03417301776416914</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1236953977437426</v>
+        <v>0.1256320060383023</v>
       </c>
       <c r="N228" t="n">
-        <v>0.08663535522029492</v>
+        <v>0.0155302660305827</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1260673827378147</v>
+        <v>0.1267264243243991</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02135837714914998</v>
+        <v>0.01522895165199574</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1187849391516478</v>
+        <v>0.1275038870503157</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02731406371694696</v>
+        <v>0.02807543878075633</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1272721250089627</v>
+        <v>0.1264609455154986</v>
       </c>
       <c r="L229" t="n">
-        <v>0.04789352119650933</v>
+        <v>0.03437335681442039</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1244542652145631</v>
+        <v>0.1264027545416048</v>
       </c>
       <c r="N229" t="n">
-        <v>0.08664953068552028</v>
+        <v>0.01522895165199574</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1268408022638136</v>
+        <v>0.1275038870503157</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02126088232938106</v>
+        <v>0.01522913391177934</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1195092375611091</v>
+        <v>0.1282813497762322</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02715527820512519</v>
+        <v>0.02753437625379482</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1280481745517003</v>
+        <v>0.1272320488418126</v>
       </c>
       <c r="L230" t="n">
-        <v>0.04716900781586936</v>
+        <v>0.03377379966955674</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1252131326853836</v>
+        <v>0.1271735030449073</v>
       </c>
       <c r="N230" t="n">
-        <v>0.08596639266906025</v>
+        <v>0.01522913391177934</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1276142217898125</v>
+        <v>0.1282813497762322</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02116372806039594</v>
+        <v>0.01473087760027081</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1202335359705703</v>
+        <v>0.1290588125021488</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02719867483477008</v>
+        <v>0.02740319761521062</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1288242240944379</v>
+        <v>0.1280031521681266</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04644123283443088</v>
+        <v>0.03377436019252739</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1259720001562041</v>
+        <v>0.1279442515482097</v>
       </c>
       <c r="N231" t="n">
-        <v>0.0855859255799532</v>
+        <v>0.01473087760027081</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1283876413158113</v>
+        <v>0.1290588125021488</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02106691832455906</v>
+        <v>0.0148342475078075</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1209578343800316</v>
+        <v>0.1298362752280654</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02734428753435955</v>
+        <v>0.02678207604362148</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1296002736371755</v>
+        <v>0.1287742554944406</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04591020214280878</v>
+        <v>0.03367505224628148</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1267308676270247</v>
+        <v>0.1287150000515122</v>
       </c>
       <c r="N232" t="n">
-        <v>0.08560811382723782</v>
+        <v>0.0148342475078075</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1291610608418102</v>
+        <v>0.1298362752280654</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02197045710423493</v>
+        <v>0.01433930842472669</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1216821327894929</v>
+        <v>0.1306137379539819</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02729215023237146</v>
+        <v>0.02597118471764512</v>
       </c>
       <c r="K233" t="n">
-        <v>0.130376323179913</v>
+        <v>0.1295453588207546</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04517592163161782</v>
+        <v>0.03397588969376825</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1274897350978452</v>
+        <v>0.1294857485548147</v>
       </c>
       <c r="N233" t="n">
-        <v>0.08563294181995251</v>
+        <v>0.01433930842472669</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1299344803678091</v>
+        <v>0.1306137379539819</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02087434838178794</v>
+        <v>0.01424612514136571</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1224064311989541</v>
+        <v>0.1313912006798985</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02724229685728376</v>
+        <v>0.02587069681589915</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1311523727226506</v>
+        <v>0.1303164621470686</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04513839719147289</v>
+        <v>0.03397688639793672</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1282486025686657</v>
+        <v>0.1302564970581171</v>
       </c>
       <c r="N234" t="n">
-        <v>0.08606039396713605</v>
+        <v>0.01424612514136571</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1307078998938079</v>
+        <v>0.1313912006798985</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02077859613958259</v>
+        <v>0.01395476244806196</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1231307296084154</v>
+        <v>0.132168663405815</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02759476133757428</v>
+        <v>0.02518078551700151</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1319284222653882</v>
+        <v>0.1310875654733827</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04469763471298871</v>
+        <v>0.03367805622173614</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1290074700394862</v>
+        <v>0.1310272455614196</v>
       </c>
       <c r="N235" t="n">
-        <v>0.08629045467782687</v>
+        <v>0.01395476244806196</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1314813194198068</v>
+        <v>0.132168663405815</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.0216832043599833</v>
+        <v>0.01396528513515265</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1238550280178767</v>
+        <v>0.1329461261317316</v>
       </c>
       <c r="J236" t="n">
-        <v>0.027649577601721</v>
+        <v>0.02480162399956973</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1327044718081258</v>
+        <v>0.1318586687996967</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0440536400867802</v>
+        <v>0.03447941302811564</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1297663375103067</v>
+        <v>0.131797994064722</v>
       </c>
       <c r="N236" t="n">
-        <v>0.08612310836106346</v>
+        <v>0.01396528513515265</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1322547389458056</v>
+        <v>0.1329461261317316</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01958817702535455</v>
+        <v>0.01367775799297517</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1245793264273379</v>
+        <v>0.1337235888576482</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02760677957820179</v>
+        <v>0.02443338544222171</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1334805213508634</v>
+        <v>0.1326297721260107</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04360641920346212</v>
+        <v>0.03428097068002434</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1305252049811272</v>
+        <v>0.1325687425680245</v>
       </c>
       <c r="N237" t="n">
-        <v>0.08555833942588448</v>
+        <v>0.01367775799297517</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1330281584718045</v>
+        <v>0.1337235888576482</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02149351811806077</v>
+        <v>0.01369224581186684</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1253036248367992</v>
+        <v>0.1345010515835647</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02746640119549454</v>
+        <v>0.02457624302357506</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1342565708936009</v>
+        <v>0.1334008754523247</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04295597795364933</v>
+        <v>0.03418274304041152</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1312840724519477</v>
+        <v>0.133339491071327</v>
       </c>
       <c r="N238" t="n">
-        <v>0.08559613228132845</v>
+        <v>0.01369224581186684</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1338015779978034</v>
+        <v>0.1345010515835647</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02139923162046645</v>
+        <v>0.01320881338216501</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1260279232462605</v>
+        <v>0.1352785143094813</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02772847638207716</v>
+        <v>0.02433036992224752</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1350326204363385</v>
+        <v>0.1341719787786387</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04220232222795667</v>
+        <v>0.03378474397222619</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1320429399227682</v>
+        <v>0.1341102395746294</v>
       </c>
       <c r="N239" t="n">
-        <v>0.08553647133643383</v>
+        <v>0.01320881338216501</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1345749975238022</v>
+        <v>0.1352785143094813</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02030532151493603</v>
+        <v>0.01302752549420694</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1267522216557218</v>
+        <v>0.1360559770353978</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02789303906642757</v>
+        <v>0.02339593931685688</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1358086699790761</v>
+        <v>0.1349430821049527</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04194545791699889</v>
+        <v>0.03378698733841756</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1328018073935887</v>
+        <v>0.1348809880779319</v>
       </c>
       <c r="N240" t="n">
-        <v>0.0855793410002394</v>
+        <v>0.01302752549420694</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1353484170498011</v>
+        <v>0.1360559770353978</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01921179178383393</v>
+        <v>0.01304844693832999</v>
       </c>
       <c r="G241" t="n">
-        <v>0.127476520065183</v>
+        <v>0.1368334397613144</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02766012317702367</v>
+        <v>0.02307312438602083</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1365847195218137</v>
+        <v>0.1357141854312668</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04118539091139087</v>
+        <v>0.03458948700193482</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1335606748644092</v>
+        <v>0.1356517365812344</v>
       </c>
       <c r="N241" t="n">
-        <v>0.08512472568178353</v>
+        <v>0.01304844693832999</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1361218365758</v>
+        <v>0.1368334397613144</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02111864640952466</v>
+        <v>0.01297164250487148</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1282008184746443</v>
+        <v>0.137610902487231</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02782976264234333</v>
+        <v>0.02296209830835708</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1373607690645512</v>
+        <v>0.1364852887575808</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04082212710174743</v>
+        <v>0.03369225682572707</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1343195423352297</v>
+        <v>0.1364224850845369</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08577260979010498</v>
+        <v>0.01297164250487148</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1368952561017988</v>
+        <v>0.137610902487231</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01902588937437265</v>
+        <v>0.01269717698416874</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1289251168841055</v>
+        <v>0.1383883652131475</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02800199139086448</v>
+        <v>0.0228630342624834</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1381368186072888</v>
+        <v>0.1372563920838948</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04005567237868335</v>
+        <v>0.03389531067274354</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1350784098060502</v>
+        <v>0.1371932335878393</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08542297773424207</v>
+        <v>0.01269717698416874</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1376686756277977</v>
+        <v>0.1383883652131475</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02093352466074233</v>
+        <v>0.01242511516655909</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1296494152935668</v>
+        <v>0.1391658279390641</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02807684335106503</v>
+        <v>0.02267610542701753</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1389128681500264</v>
+        <v>0.1380274954102088</v>
       </c>
       <c r="L244" t="n">
-        <v>0.03958603263281352</v>
+        <v>0.0339986624059333</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1358372772768707</v>
+        <v>0.1379639820911418</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08557581392323349</v>
+        <v>0.01242511516655909</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1384420951537965</v>
+        <v>0.1391658279390641</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01884155625099819</v>
+        <v>0.01235552184237985</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1303737137030281</v>
+        <v>0.1399432906649806</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02805435245142285</v>
+        <v>0.02220148498057714</v>
       </c>
       <c r="K245" t="n">
-        <v>0.139688917692764</v>
+        <v>0.1387985987365228</v>
       </c>
       <c r="L245" t="n">
-        <v>0.03861321375475266</v>
+        <v>0.03410232588824558</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1365961447476912</v>
+        <v>0.1387347305944443</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08513110276611774</v>
+        <v>0.01235552184237985</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1392155146797954</v>
+        <v>0.1399432906649806</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0197499881275047</v>
+        <v>0.01218846180196836</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1310980121124893</v>
+        <v>0.1407207533908972</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02813455262041586</v>
+        <v>0.02223934610178002</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1404649672355016</v>
+        <v>0.1395697020628368</v>
       </c>
       <c r="L246" t="n">
-        <v>0.03813722163511568</v>
+        <v>0.03450631498262946</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1373550122185118</v>
+        <v>0.1395054790977467</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08538882867193337</v>
+        <v>0.01218846180196836</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1399889342057943</v>
+        <v>0.1407207533908972</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01965882427262626</v>
+        <v>0.01212399983566192</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1318223105219506</v>
+        <v>0.1414982161168138</v>
       </c>
       <c r="J247" t="n">
-        <v>0.028417477786522</v>
+        <v>0.02148986196924382</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1412410167782391</v>
+        <v>0.1403408053891508</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03775806216451744</v>
+        <v>0.03391064355203416</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1381138796893323</v>
+        <v>0.1402762276010492</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08474897604971909</v>
+        <v>0.01212399983566192</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1407623537317932</v>
+        <v>0.1414982161168138</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01856806866872737</v>
+        <v>0.01196220073379787</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1325466089314119</v>
+        <v>0.1422756788427303</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02820316187821911</v>
+        <v>0.02115320576158639</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1420170663209767</v>
+        <v>0.1411119087154649</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03717574123357265</v>
+        <v>0.03401532545940883</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1388727471601527</v>
+        <v>0.1410469761043517</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08481152930851321</v>
+        <v>0.01196220073379787</v>
       </c>
       <c r="O248" t="n">
-        <v>0.141535773257792</v>
+        <v>0.1422756788427303</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02047772529817245</v>
+        <v>0.01170312928671352</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1332709073408732</v>
+        <v>0.1430531415686469</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02849163882398512</v>
+        <v>0.02132955065742531</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1427931158637143</v>
+        <v>0.1418830120417789</v>
       </c>
       <c r="L249" t="n">
-        <v>0.03679026473289621</v>
+        <v>0.03432037456770254</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1396316146309733</v>
+        <v>0.1418177246076542</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08477647285735451</v>
+        <v>0.01170312928671352</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1423091927837909</v>
+        <v>0.1430531415686469</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01938779814332597</v>
+        <v>0.01134685028474622</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1339952057503344</v>
+        <v>0.1438306042945634</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02848294255229793</v>
+        <v>0.02131906983537843</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1435691654064519</v>
+        <v>0.1426541153680929</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03620163855310288</v>
+        <v>0.03422580473986458</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1403904821017938</v>
+        <v>0.1425884731109566</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08454379110528143</v>
+        <v>0.01134685028474622</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1430826123097897</v>
+        <v>0.1438306042945634</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01829829118655241</v>
+        <v>0.01139342851823326</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1347195041597957</v>
+        <v>0.14460806702048</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02847710699163546</v>
+        <v>0.02062193647406346</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1443452149491894</v>
+        <v>0.1434252186944069</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03500986858480756</v>
+        <v>0.03383162983884402</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1411493495726143</v>
+        <v>0.1433592216142591</v>
       </c>
       <c r="N251" t="n">
-        <v>0.08511346846133255</v>
+        <v>0.01139342851823326</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1438560318357886</v>
+        <v>0.14460806702048</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01920920841021619</v>
+        <v>0.011242928777512</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1354438025692569</v>
+        <v>0.1453855297463965</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02857416607047558</v>
+        <v>0.02093832375209806</v>
       </c>
       <c r="K252" t="n">
-        <v>0.145121264491927</v>
+        <v>0.1441963220207209</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03491496071862499</v>
+        <v>0.03463786372759009</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1419082170434348</v>
+        <v>0.1441299701175616</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08518548933454639</v>
+        <v>0.011242928777512</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1446294513617875</v>
+        <v>0.1453855297463965</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01812055379668177</v>
+        <v>0.01119541585291974</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1361681009787182</v>
+        <v>0.1461629924723131</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02897415371729621</v>
+        <v>0.02046840484810006</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1458973140346646</v>
+        <v>0.1449674253470349</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03391692084517003</v>
+        <v>0.03374452026905184</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1426670845142553</v>
+        <v>0.144900718620864</v>
       </c>
       <c r="N253" t="n">
-        <v>0.08525983813396165</v>
+        <v>0.01119541585291974</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1454028708877863</v>
+        <v>0.1461629924723131</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01903233132831362</v>
+        <v>0.01075095453479381</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1368923993881795</v>
+        <v>0.1469404551982297</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02877710386057525</v>
+        <v>0.02021235294068707</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1466733635774022</v>
+        <v>0.1457385286733489</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03341575485505752</v>
+        <v>0.03395161332617852</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1434259519850758</v>
+        <v>0.1456714671241665</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08543649926861668</v>
+        <v>0.01075095453479381</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1461762904137852</v>
+        <v>0.1469404551982297</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01894454498747619</v>
+        <v>0.01090960961347153</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1376166977976407</v>
+        <v>0.1477179179241462</v>
       </c>
       <c r="J255" t="n">
-        <v>0.0289830504287906</v>
+        <v>0.02027034120847693</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1474494131201398</v>
+        <v>0.146509631999663</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03271146863890229</v>
+        <v>0.0338591567619192</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1441848194558963</v>
+        <v>0.146442215627469</v>
       </c>
       <c r="N255" t="n">
-        <v>0.08491545714755017</v>
+        <v>0.01090960961347153</v>
       </c>
       <c r="O255" t="n">
-        <v>0.146949709939784</v>
+        <v>0.1477179179241462</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01785719875653392</v>
+        <v>0.01077144587929023</v>
       </c>
       <c r="G256" t="n">
-        <v>0.138340996207102</v>
+        <v>0.1484953806500628</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02909202735042017</v>
+        <v>0.0200425428300873</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1482254626628773</v>
+        <v>0.147280735325977</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03260406808731914</v>
+        <v>0.03386716443922311</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1449436869267168</v>
+        <v>0.1472129641307714</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08479669617980062</v>
+        <v>0.01077144587929023</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1477231294657829</v>
+        <v>0.1484953806500628</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01977029661785128</v>
+        <v>0.01043652812258724</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1390652946165633</v>
+        <v>0.1492728433759793</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02940406855394186</v>
+        <v>0.01982913098413594</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1490015122056149</v>
+        <v>0.148051838652291</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03159355909092287</v>
+        <v>0.03407565022103937</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1457025543975373</v>
+        <v>0.1479837126340739</v>
       </c>
       <c r="N257" t="n">
-        <v>0.08468020077440663</v>
+        <v>0.01043652812258724</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1484965489917818</v>
+        <v>0.1492728433759793</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01968384255379273</v>
+        <v>0.01050492113369987</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1397895930260246</v>
+        <v>0.1500503061018959</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02951920796783357</v>
+        <v>0.0196302788492406</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1497775617483525</v>
+        <v>0.148822941978605</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03107994754032833</v>
+        <v>0.03458462797031719</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1464614218683578</v>
+        <v>0.1487544611373763</v>
       </c>
       <c r="N258" t="n">
-        <v>0.08526595534040676</v>
+        <v>0.01050492113369987</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1492699685177806</v>
+        <v>0.1500503061018959</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.0175978405467227</v>
+        <v>0.01027668970296545</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1405138914354858</v>
+        <v>0.1508277688278125</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02943747952057318</v>
+        <v>0.01954615960401895</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1505536112910901</v>
+        <v>0.149594045304919</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03056323932615035</v>
+        <v>0.03469411155000562</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1472202893391784</v>
+        <v>0.1495252096406788</v>
       </c>
       <c r="N259" t="n">
-        <v>0.08535394428683957</v>
+        <v>0.01027668970296545</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1500433880437795</v>
+        <v>0.1508277688278125</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01851229457900566</v>
+        <v>0.009951898620721308</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1412381898449471</v>
+        <v>0.151605231553729</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02945891714063865</v>
+        <v>0.01997694642708878</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1513296608338277</v>
+        <v>0.150365148631233</v>
       </c>
       <c r="L260" t="n">
-        <v>0.02964344033900371</v>
+        <v>0.03470411482305391</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1479791568099988</v>
+        <v>0.1502959581439813</v>
       </c>
       <c r="N260" t="n">
-        <v>0.08524415202274355</v>
+        <v>0.009951898620721308</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1508168075697784</v>
+        <v>0.151605231553729</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01742720863300608</v>
+        <v>0.009930612677304766</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1419624882544084</v>
+        <v>0.1523826942796456</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02968355475650783</v>
+        <v>0.0193228124970678</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1521057103765652</v>
+        <v>0.1511362519575471</v>
       </c>
       <c r="L261" t="n">
-        <v>0.0290205564695033</v>
+        <v>0.03391465165241114</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1487380242808193</v>
+        <v>0.1510667066472837</v>
       </c>
       <c r="N261" t="n">
-        <v>0.08443656295715724</v>
+        <v>0.009930612677304766</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1515902270957772</v>
+        <v>0.1523826942796456</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01834258669108838</v>
+        <v>0.009912896663053138</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1426867866638696</v>
+        <v>0.1531601570055622</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03001142629665865</v>
+        <v>0.01978393099257367</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1528817599193028</v>
+        <v>0.1519073552838611</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02829459360826392</v>
+        <v>0.03372573590102657</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1494968917516399</v>
+        <v>0.1518374551505862</v>
       </c>
       <c r="N262" t="n">
-        <v>0.08493116149911939</v>
+        <v>0.009912896663053138</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1523636466217761</v>
+        <v>0.1531601570055622</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01925843273561705</v>
+        <v>0.00959881536830378</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1434110850733309</v>
+        <v>0.1539376197314787</v>
       </c>
       <c r="J263" t="n">
-        <v>0.030142565689569</v>
+        <v>0.01986047509222422</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1536578094620404</v>
+        <v>0.1526784586101751</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02826555764590033</v>
+        <v>0.0341373814318493</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1502557592224604</v>
+        <v>0.1526082036538887</v>
       </c>
       <c r="N263" t="n">
-        <v>0.08462793205766839</v>
+        <v>0.00959881536830378</v>
       </c>
       <c r="O263" t="n">
-        <v>0.153137066147775</v>
+        <v>0.1539376197314787</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01717475074895652</v>
+        <v>0.009588433583393979</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1441353834827922</v>
+        <v>0.1547150824573953</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02997700686371678</v>
+        <v>0.01925261797463715</v>
       </c>
       <c r="K264" t="n">
-        <v>0.154433859004778</v>
+        <v>0.1534495619364891</v>
       </c>
       <c r="L264" t="n">
-        <v>0.02723345447302739</v>
+        <v>0.03444960210782844</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1510146266932809</v>
+        <v>0.1533789521571912</v>
       </c>
       <c r="N264" t="n">
-        <v>0.08472685904184285</v>
+        <v>0.009588433583393979</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1539104856737738</v>
+        <v>0.1547150824573953</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1312.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1312.xlsx
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8435655349597692</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04217827674798846</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04217827674798846</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06748524279678154</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.06328615717561636</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01512646549221072</v>
+        <v>0.01328615717561636</v>
       </c>
       <c r="B65" t="n">
-        <v>0.009388273691361219</v>
+        <v>0.008246082333996676</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001820696772600994</v>
+        <v>0.003072080997301808</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007774627259165591</v>
+        <v>0.001623659753021342</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.005490104241556742</v>
+        <v>0.004190460021332436</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007711033263140156</v>
+        <v>0.001631344121891361</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.00847931755718967</v>
+        <v>0.01152559945941317</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007707485033024682</v>
+        <v>0.001635041474361989</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001820696772600994</v>
+        <v>0.02871843487634157</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007774627259165591</v>
+        <v>0.002399406024262903</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003934746646924649</v>
+        <v>0.006326741512198267</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001554925451833118</v>
+        <v>0.002748694111332225</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01130980503072762</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001542206652628031</v>
+        <v>0.003258423913043476</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01900000000000002</v>
+        <v>0.0178455774322186</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001814214046822744</v>
+        <v>0.002778898745386384</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.003934746646924649</v>
+        <v>0.03327312158100659</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001554925451833118</v>
+        <v>0.003258909630818235</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005460304225100542</v>
+        <v>0.00759602607877314</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002332388177749677</v>
+        <v>0.004870979259064028</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01536903890937744</v>
+        <v>0.009727946902031277</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002313309978942047</v>
+        <v>0.004894032365674083</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02254643047211335</v>
+        <v>0.02376789131250992</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002312245509907404</v>
+        <v>0.004905124423085968</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.005460304225100542</v>
+        <v>0.04001325267328348</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002332388177749677</v>
+        <v>0.004888364446227352</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.009625472828569154</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003041195652173913</v>
+        <v>0.00649463901208537</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01799999999999999</v>
+        <v>0.01167367470185734</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002715353260869563</v>
+        <v>0.006525376487565445</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02854957556486581</v>
+        <v>0.02726890257232295</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003082994013209873</v>
+        <v>0.006540165897447958</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.04400384163520255</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003041195652173913</v>
+        <v>0.00651781926163647</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003041195652173913</v>
+        <v>0.002748694111332225</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.006326741512198267</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.008104178485934511</v>
+        <v>0.01328615717561636</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003887313629582795</v>
+        <v>0.008246082333996676</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02247981849192271</v>
+        <v>0.01359349020762311</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003855516631570078</v>
+        <v>0.008156720609456807</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03442413329076699</v>
+        <v>0.02973543132080803</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003853742516512341</v>
+        <v>0.008175207371809948</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.008104178485934511</v>
+        <v>0.04831285814884467</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003887313629582795</v>
+        <v>0.008147274077045588</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.009624596029180782</v>
+        <v>0.01242271807566471</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004664776355499355</v>
+        <v>0.009741958518128056</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02557720678405334</v>
+        <v>0.01512646549221072</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004626619957884093</v>
+        <v>0.009775271739130427</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03931668247263331</v>
+        <v>0.03367090081550678</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004624491019814808</v>
+        <v>0.01051104488078541</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.009624596029180782</v>
+        <v>0.05221533613880286</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004664776355499355</v>
+        <v>0.009399299749163875</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01056977358173398</v>
+        <v>0.01559122263402572</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005442239081415914</v>
+        <v>0.0113656182711494</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02862184018139277</v>
+        <v>0.01623962764198275</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.00539772328419811</v>
+        <v>0.01141940885323953</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04407380193328109</v>
+        <v>0.03498190005576088</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005395239523117277</v>
+        <v>0.01144529032053393</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.01056977358173398</v>
+        <v>0.0563657856784191</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005442239081415914</v>
+        <v>0.01140618370786382</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01183158169911406</v>
+        <v>0.01569099238353019</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006219701807332473</v>
+        <v>0.01298927802417074</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.03064480523213803</v>
+        <v>0.0173981491330915</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006168826610512125</v>
+        <v>0.01305075297513089</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04784207049552658</v>
+        <v>0.03742073285551972</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006165988026419746</v>
+        <v>0.01308033179489592</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01183158169911406</v>
+        <v>0.06088207288903835</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006219701807332473</v>
+        <v>0.01303563852327294</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01260189093684093</v>
+        <v>0.01672108204291996</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006997164533249031</v>
+        <v>0.01461293777719208</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03367090081550678</v>
+        <v>0.01870686704988289</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.00725622145442873</v>
+        <v>0.01468209709702225</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05221533613880286</v>
+        <v>0.04023217988230757</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007122541073878748</v>
+        <v>0.0147153732692579</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01260189093684093</v>
+        <v>0.0654051529357994</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006997164533249031</v>
+        <v>0.01466509333868206</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01367257185043459</v>
+        <v>0.01668054633093684</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007774627259165591</v>
+        <v>0.01623659753021342</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03445092556487356</v>
+        <v>0.01976024177138946</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007711033263140156</v>
+        <v>0.01631344121891361</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05332418783673154</v>
+        <v>0.04279260152346581</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007707485033024682</v>
+        <v>0.0163504147436199</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01367257185043459</v>
+        <v>0.0691030195527334</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007774627259165591</v>
+        <v>0.01629454815409118</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01433549499541492</v>
+        <v>0.01956843996632271</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00855208998508215</v>
+        <v>0.01786025728323477</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03565616772868405</v>
+        <v>0.02095273367664356</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008482136589454172</v>
+        <v>0.01794478534080497</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05560867580846618</v>
+        <v>0.04497835816633591</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008478233536327149</v>
+        <v>0.01798545621798188</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01433549499541492</v>
+        <v>0.07274366647387165</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.00855208998508215</v>
+        <v>0.01792400296950029</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01512646549221072</v>
+        <v>0.01838381766781935</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009388273691361219</v>
+        <v>0.01948391703625611</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03653947137049532</v>
+        <v>0.02207880314467774</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009253239915768187</v>
+        <v>0.01957612946269633</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05755269753872549</v>
+        <v>0.04736581019825914</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009248982039629617</v>
+        <v>0.01962049769234387</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01512646549221072</v>
+        <v>0.07609508743324517</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009388273691361219</v>
+        <v>0.01955345778490941</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01545754458511436</v>
+        <v>0.02112573415416859</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01010701543691527</v>
+        <v>0.02110757678927745</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0379005436388922</v>
+        <v>0.02293291055452439</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0100243432420822</v>
+        <v>0.0212074735845877</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05995602904183245</v>
+        <v>0.04993131800657696</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01001973054293209</v>
+        <v>0.02125553916670586</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01545754458511436</v>
+        <v>0.07902527616488519</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01010701543691527</v>
+        <v>0.02118291260031853</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01592653672600462</v>
+        <v>0.02179324414411229</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01088447816283183</v>
+        <v>0.02273123654229879</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03923909168245929</v>
+        <v>0.02370951628521599</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01079544656839622</v>
+        <v>0.02283881770647906</v>
       </c>
       <c r="L79" t="n">
-        <v>0.06151844633211018</v>
+        <v>0.05205124197863079</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01079047904623455</v>
+        <v>0.02289058064106785</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01592653672600462</v>
+        <v>0.08310222640282278</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01088447816283183</v>
+        <v>0.02281236741572765</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01658948905451846</v>
+        <v>0.02238540235639228</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01166194088874839</v>
+        <v>0.02435489629532014</v>
       </c>
       <c r="J80" t="n">
-        <v>0.04065482264978126</v>
+        <v>0.02450308071578497</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01156654989471024</v>
+        <v>0.02447016182837042</v>
       </c>
       <c r="L80" t="n">
-        <v>0.06343972542388177</v>
+        <v>0.05400194250176196</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01156122754953702</v>
+        <v>0.02452562211542984</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01658948905451846</v>
+        <v>0.08499393188108922</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01166194088874839</v>
+        <v>0.02444182223113676</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01714604360992071</v>
+        <v>0.02190126350975036</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01243940361466495</v>
+        <v>0.02597855604834148</v>
       </c>
       <c r="J81" t="n">
-        <v>0.04174744368944275</v>
+        <v>0.02530806422526378</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01233765322102425</v>
+        <v>0.02610150595026178</v>
       </c>
       <c r="L81" t="n">
-        <v>0.06551964233147034</v>
+        <v>0.05555977996331191</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01233197605283949</v>
+        <v>0.02616066358979183</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01714604360992071</v>
+        <v>0.08776838633371553</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01243940361466495</v>
+        <v>0.02607127704654588</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01759584243147606</v>
+        <v>0.0223398823229284</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0132168663405815</v>
+        <v>0.02760221580136282</v>
       </c>
       <c r="J82" t="n">
-        <v>0.04301666195002848</v>
+        <v>0.02581892719268494</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01310875654733826</v>
+        <v>0.02773285007215314</v>
       </c>
       <c r="L82" t="n">
-        <v>0.06725797306919867</v>
+        <v>0.05700111475062197</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01310272455614196</v>
+        <v>0.02779570506415383</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01759584243147606</v>
+        <v>0.08999358349473302</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0132168663405815</v>
+        <v>0.027700731861955</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01843852755844926</v>
+        <v>0.0217003135146682</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01399432906649806</v>
+        <v>0.02922587555438417</v>
       </c>
       <c r="J83" t="n">
-        <v>0.04366218458012311</v>
+        <v>0.02643012999708083</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01387985987365228</v>
+        <v>0.0293641941940445</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06845449365139017</v>
+        <v>0.05850230725103359</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01387347305944443</v>
+        <v>0.02943074653851581</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01843852755844926</v>
+        <v>0.09163751709817258</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01399432906649806</v>
+        <v>0.02933018667736411</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.018773741030105</v>
+        <v>0.02201531488495935</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01477179179241462</v>
+        <v>0.0308495353074055</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0447837187283113</v>
+        <v>0.0268368185083885</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0146509631999663</v>
+        <v>0.03099553831593586</v>
       </c>
       <c r="L84" t="n">
-        <v>0.07020898009236759</v>
+        <v>0.05923971785188809</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01464422156274689</v>
+        <v>0.0310657880128778</v>
       </c>
       <c r="N84" t="n">
-        <v>0.018773741030105</v>
+        <v>0.0929897895914002</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01477179179241462</v>
+        <v>0.03095964149277323</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01940112488570808</v>
+        <v>0.02232140656844443</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01554925451833118</v>
+        <v>0.03247319506042685</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04648097154317768</v>
+        <v>0.02729572736773099</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01542206652628031</v>
+        <v>0.03262688243782723</v>
       </c>
       <c r="L85" t="n">
-        <v>0.07242120840645422</v>
+        <v>0.06026020413986985</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01541497006604936</v>
+        <v>0.03270082948723979</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01940112488570808</v>
+        <v>0.09472037973388947</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01554925451833118</v>
+        <v>0.03258909630818235</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01982032116452317</v>
+        <v>0.0226165969178464</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01632671724424774</v>
+        <v>0.03409685481344819</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04755365017330695</v>
+        <v>0.02764408187015668</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01619316985259433</v>
+        <v>0.03425822655971859</v>
       </c>
       <c r="L86" t="n">
-        <v>0.07439095460797296</v>
+        <v>0.06134753909412347</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01618571856935183</v>
+        <v>0.03433587096160178</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01982032116452317</v>
+        <v>0.09601294936650379</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01632671724424774</v>
+        <v>0.03421855112359146</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02043097190581505</v>
+        <v>0.02489885778994305</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0171041799701643</v>
+        <v>0.03572051456646954</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04830146176728384</v>
+        <v>0.02777954000770962</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01696427317890834</v>
+        <v>0.03588957068160994</v>
       </c>
       <c r="L87" t="n">
-        <v>0.07551799471124682</v>
+        <v>0.0622081496866054</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0169564670726543</v>
+        <v>0.03597091243596377</v>
       </c>
       <c r="N87" t="n">
-        <v>0.02043097190581505</v>
+        <v>0.09715944212298139</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0171041799701643</v>
+        <v>0.03584800593900059</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02073271914884843</v>
+        <v>0.02316616104151217</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01788164269608086</v>
+        <v>0.03734417431949088</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04932411347369295</v>
+        <v>0.02839975977243381</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01773537650522236</v>
+        <v>0.03752091480350131</v>
       </c>
       <c r="L88" t="n">
-        <v>0.07680210473059906</v>
+        <v>0.06243678717546253</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01772721557595677</v>
+        <v>0.03760595391032576</v>
       </c>
       <c r="N88" t="n">
-        <v>0.02073271914884843</v>
+        <v>0.09725180163706015</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01788164269608086</v>
+        <v>0.0374774607544097</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02122520493288804</v>
+        <v>0.02441647852933156</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01865910542199742</v>
+        <v>0.03896783407251223</v>
       </c>
       <c r="J89" t="n">
-        <v>0.05042131244111897</v>
+        <v>0.02850239915637329</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01850647983153637</v>
+        <v>0.03915225892539267</v>
       </c>
       <c r="L89" t="n">
-        <v>0.07864306068035259</v>
+        <v>0.06312820281884168</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01849796407925923</v>
+        <v>0.03924099538468775</v>
       </c>
       <c r="N89" t="n">
-        <v>0.02122520493288804</v>
+        <v>0.0983819715424783</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01865910542199742</v>
+        <v>0.03910691556981882</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02190807129719864</v>
+        <v>0.02564778211017897</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01943656814791398</v>
+        <v>0.04059149382553356</v>
       </c>
       <c r="J90" t="n">
-        <v>0.05119276581814655</v>
+        <v>0.0286851161515721</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01927758315785039</v>
+        <v>0.04078360304728403</v>
       </c>
       <c r="L90" t="n">
-        <v>0.08024063857483049</v>
+        <v>0.06417714787488962</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0192687125825617</v>
+        <v>0.04087603685904974</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02190807129719864</v>
+        <v>0.1001418954729737</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01943656814791398</v>
+        <v>0.04073637038522794</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02228096028104494</v>
+        <v>0.02585804364083222</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02021403087383054</v>
+        <v>0.0422151535785549</v>
       </c>
       <c r="J91" t="n">
-        <v>0.05253818075336045</v>
+        <v>0.02914556875007424</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0200486864841644</v>
+        <v>0.0424149471691754</v>
       </c>
       <c r="L91" t="n">
-        <v>0.08149461442835576</v>
+        <v>0.0645783736017532</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02003946108586417</v>
+        <v>0.04251107833341173</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02228096028104494</v>
+        <v>0.1002235170622846</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02021403087383054</v>
+        <v>0.04236582520063705</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02264351392369167</v>
+        <v>0.02604523497806906</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0209914935997471</v>
+        <v>0.04383881333157625</v>
       </c>
       <c r="J92" t="n">
-        <v>0.05325726439534523</v>
+        <v>0.02948141494392376</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02081978981047842</v>
+        <v>0.04404629129106676</v>
       </c>
       <c r="L92" t="n">
-        <v>0.08340476425525156</v>
+        <v>0.0652266312575791</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02081020958916664</v>
+        <v>0.04414611980777371</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02264351392369167</v>
+        <v>0.1009187799441489</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0209914935997471</v>
+        <v>0.04399528001604617</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02319537426440356</v>
+        <v>0.0252073279786673</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02176895632566365</v>
+        <v>0.04546247308459759</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0539497238926856</v>
+        <v>0.02959031272516464</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02159089313679244</v>
+        <v>0.04567763541295811</v>
       </c>
       <c r="L93" t="n">
-        <v>0.08397086406984083</v>
+        <v>0.06551667210051432</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02158095809246911</v>
+        <v>0.0457811612821357</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02319537426440356</v>
+        <v>0.1026196277523048</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02176895632566365</v>
+        <v>0.04562473483145529</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0237361833424454</v>
+        <v>0.02434229449940473</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02254641905158021</v>
+        <v>0.04708613283761894</v>
       </c>
       <c r="J94" t="n">
-        <v>0.05491526639396627</v>
+        <v>0.02956992008584097</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02236199646310645</v>
+        <v>0.04730897953484948</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0855926898864468</v>
+        <v>0.06584324738870553</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02235170659577158</v>
+        <v>0.0474162027564977</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0237361833424454</v>
+        <v>0.1028180041204903</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02254641905158021</v>
+        <v>0.0472541896468644</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02416558319708183</v>
+        <v>0.02644810639705911</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02332388177749677</v>
+        <v>0.04870979259064027</v>
       </c>
       <c r="J95" t="n">
-        <v>0.05565359904777181</v>
+        <v>0.02971789501799675</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02313309978942047</v>
+        <v>0.04894032365674084</v>
       </c>
       <c r="L95" t="n">
-        <v>0.08687001771939229</v>
+        <v>0.06650110838029957</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02312245509907404</v>
+        <v>0.04905124423085969</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02416558319708183</v>
+        <v>0.1031058526824434</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02332388177749677</v>
+        <v>0.04888364446227352</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02458321586757765</v>
+        <v>0.02652273552840823</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02410134450341333</v>
+        <v>0.05033345234366162</v>
       </c>
       <c r="J96" t="n">
-        <v>0.05686442900268698</v>
+        <v>0.02993189551367596</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02390420311573448</v>
+        <v>0.0505716677786322</v>
       </c>
       <c r="L96" t="n">
-        <v>0.08810262358300053</v>
+        <v>0.06648500633344329</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02389320360237651</v>
+        <v>0.05068628570522167</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02458321586757765</v>
+        <v>0.1040751170719023</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02410134450341333</v>
+        <v>0.05051309927768264</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02478872339319761</v>
+        <v>0.02657231435123272</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02487880722932989</v>
+        <v>0.05195711209668296</v>
       </c>
       <c r="J97" t="n">
-        <v>0.05744746340729642</v>
+        <v>0.03020957956492272</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0246753064420485</v>
+        <v>0.05220301190052356</v>
       </c>
       <c r="L97" t="n">
-        <v>0.08929028349159446</v>
+        <v>0.06658969250628349</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02466395210567898</v>
+        <v>0.05232132717958366</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02478872339319761</v>
+        <v>0.1044306722776057</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02487880722932989</v>
+        <v>0.05214255409309176</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02528174781320637</v>
+        <v>0.02657135532582561</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02565626995524645</v>
+        <v>0.0535807718497043</v>
       </c>
       <c r="J98" t="n">
-        <v>0.05810240941018482</v>
+        <v>0.03025293098442144</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02544640976836252</v>
+        <v>0.05383435602241492</v>
       </c>
       <c r="L98" t="n">
-        <v>0.09063277345949727</v>
+        <v>0.06734180163101358</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02543470060898145</v>
+        <v>0.05395636865394565</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02528174781320637</v>
+        <v>0.1040256678682893</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02565626995524645</v>
+        <v>0.05377200890850087</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0257619311668687</v>
+        <v>0.02555691128505701</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02643373268116301</v>
+        <v>0.05520443160272565</v>
       </c>
       <c r="J99" t="n">
-        <v>0.05912897415993684</v>
+        <v>0.03014990693597301</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02621751309467653</v>
+        <v>0.05546570014430627</v>
       </c>
       <c r="L99" t="n">
-        <v>0.09192986950103182</v>
+        <v>0.06714113596602492</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02620544911228392</v>
+        <v>0.05559141012830765</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0257619311668687</v>
+        <v>0.1043116956078032</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02643373268116301</v>
+        <v>0.05540146372390999</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02592891549344938</v>
+        <v>0.02452594702987394</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02721119540707957</v>
+        <v>0.05682809135574698</v>
       </c>
       <c r="J100" t="n">
-        <v>0.05922686480513717</v>
+        <v>0.03012909434898865</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02698861642099054</v>
+        <v>0.05709704426619764</v>
       </c>
       <c r="L100" t="n">
-        <v>0.09318134763052138</v>
+        <v>0.067310972586447</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02697619761558638</v>
+        <v>0.05722645160266963</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02592891549344938</v>
+        <v>0.1040273155296866</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02721119540707957</v>
+        <v>0.05703091853931912</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02658234283221307</v>
+        <v>0.02647953145024294</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02798865813299612</v>
+        <v>0.05845175110876834</v>
       </c>
       <c r="J101" t="n">
-        <v>0.06009578849437039</v>
+        <v>0.02998956979968576</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02775971974730456</v>
+        <v>0.058728388388089</v>
       </c>
       <c r="L101" t="n">
-        <v>0.09428698386228884</v>
+        <v>0.06703794223923776</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02774694611888886</v>
+        <v>0.05886149307703162</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02658234283221307</v>
+        <v>0.103779300174841</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02798865813299612</v>
+        <v>0.05866037335472823</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02672185522242451</v>
+        <v>0.02641873343613051</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02876612085891268</v>
+        <v>0.06007541086178967</v>
       </c>
       <c r="J102" t="n">
-        <v>0.06083545237622129</v>
+        <v>0.02993256759379685</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02853082307361858</v>
+        <v>0.06035973250998036</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09454655421065739</v>
+        <v>0.06692481116271917</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02851769462219132</v>
+        <v>0.06049653455139361</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02672185522242451</v>
+        <v>0.103371895480619</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02876612085891268</v>
+        <v>0.06028982817013735</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0270470947033485</v>
+        <v>0.02534462187750315</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02954358358482925</v>
+        <v>0.06169907061481101</v>
       </c>
       <c r="J103" t="n">
-        <v>0.06174556359927449</v>
+        <v>0.02975932203705453</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02930192639993259</v>
+        <v>0.06199107663187173</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0959598346899499</v>
+        <v>0.06657434559521316</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02928844312549379</v>
+        <v>0.06213157602575561</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0270470947033485</v>
+        <v>0.1037093473843734</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02954358358482925</v>
+        <v>0.06191928298554647</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02735770331424969</v>
+        <v>0.0262582656643274</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03032104631074581</v>
+        <v>0.06332273036783236</v>
       </c>
       <c r="J104" t="n">
-        <v>0.06222582931211462</v>
+        <v>0.02997106743519133</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03007302972624661</v>
+        <v>0.06362242075376309</v>
       </c>
       <c r="L104" t="n">
-        <v>0.09702660131448959</v>
+        <v>0.06678931177504174</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03005919162879626</v>
+        <v>0.06376661750011758</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02735770331424969</v>
+        <v>0.1028959018234572</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03032104631074581</v>
+        <v>0.06354873780095557</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0278533230943929</v>
+        <v>0.02416073368656976</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03109850903666236</v>
+        <v>0.06494639012085369</v>
       </c>
       <c r="J105" t="n">
-        <v>0.06277595666332642</v>
+        <v>0.02966903809393984</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03084413305256063</v>
+        <v>0.06525376487565446</v>
       </c>
       <c r="L105" t="n">
-        <v>0.09694663009859944</v>
+        <v>0.0659724759405268</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03082994013209873</v>
+        <v>0.06540165897447958</v>
       </c>
       <c r="N105" t="n">
-        <v>0.0278533230943929</v>
+        <v>0.1021358047352228</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03109850903666236</v>
+        <v>0.06517819261636471</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02803359608304279</v>
+        <v>0.02505309483419677</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03187597176257893</v>
+        <v>0.06657004987387505</v>
       </c>
       <c r="J106" t="n">
-        <v>0.06329565280149452</v>
+        <v>0.02945446831903262</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03161523637887464</v>
+        <v>0.06688510899754581</v>
       </c>
       <c r="L106" t="n">
-        <v>0.09791969705660253</v>
+        <v>0.06592660432999028</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0316006886354012</v>
+        <v>0.06703670044884158</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02803359608304279</v>
+        <v>0.1022333020570233</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03187597176257893</v>
+        <v>0.06680764743177382</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02839816431946413</v>
+        <v>0.0239364179971749</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03265343448849548</v>
+        <v>0.06819370962689639</v>
       </c>
       <c r="J107" t="n">
-        <v>0.06348462487520357</v>
+        <v>0.02962859241620219</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03238633970518865</v>
+        <v>0.06851645311943717</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09934557820282192</v>
+        <v>0.06605446318175426</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03237143713870366</v>
+        <v>0.06867174192320356</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02839816431946413</v>
+        <v>0.1016926397262112</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03265343448849548</v>
+        <v>0.06843710224718293</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02864666984292162</v>
+        <v>0.02381177206547072</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03343089721441204</v>
+        <v>0.06981736937991773</v>
       </c>
       <c r="J108" t="n">
-        <v>0.06424258003303832</v>
+        <v>0.02949264469118118</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03315744303150267</v>
+        <v>0.07014779724132854</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1000240495515806</v>
+        <v>0.06515881873414059</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03314218564200613</v>
+        <v>0.07030678339756555</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02864666984292162</v>
+        <v>0.1015180636801394</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03343089721441204</v>
+        <v>0.07006655706259206</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02867875469268005</v>
+        <v>0.0256802259290507</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0342083599403286</v>
+        <v>0.07144102913293908</v>
       </c>
       <c r="J109" t="n">
-        <v>0.06416922542358336</v>
+        <v>0.02924785944970212</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03392854635781669</v>
+        <v>0.07177914136321989</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1000548871172017</v>
+        <v>0.06524243722547118</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0339129341453086</v>
+        <v>0.07194182487192753</v>
       </c>
       <c r="N109" t="n">
-        <v>0.02867875469268005</v>
+        <v>0.1009138198561607</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0342083599403286</v>
+        <v>0.07169601187800118</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0289940609080041</v>
+        <v>0.02354284847788138</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03498582266624516</v>
+        <v>0.0730646888859604</v>
       </c>
       <c r="J110" t="n">
-        <v>0.06476426819542339</v>
+        <v>0.02899547099749757</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0346996496841307</v>
+        <v>0.07341048548511125</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1010378669140082</v>
+        <v>0.0647080848940681</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03468368264861107</v>
+        <v>0.07357686634628953</v>
       </c>
       <c r="N110" t="n">
-        <v>0.0289940609080041</v>
+        <v>0.1005841541916278</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03498582266624516</v>
+        <v>0.07332546669341028</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02899223052815854</v>
+        <v>0.02440070860192928</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03576328539216172</v>
+        <v>0.07468834863898176</v>
       </c>
       <c r="J111" t="n">
-        <v>0.06542741549714307</v>
+        <v>0.02893671364030009</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03547075301044472</v>
+        <v>0.07504182960700262</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1011727649563233</v>
+        <v>0.06415852797825325</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03545443115191354</v>
+        <v>0.07521190782065151</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02899223052815854</v>
+        <v>0.09953331262389348</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03576328539216172</v>
+        <v>0.0749549215088194</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02927290559240808</v>
+        <v>0.02525487519116087</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03654074811807827</v>
+        <v>0.0763120083920031</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0657583744773271</v>
+        <v>0.02867282168384226</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03624185633675873</v>
+        <v>0.07667317372889397</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1017593572584699</v>
+        <v>0.0638965327163486</v>
       </c>
       <c r="M112" t="n">
-        <v>0.036225179655216</v>
+        <v>0.0768469492950135</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02927290559240808</v>
+        <v>0.09856554109031046</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03654074811807827</v>
+        <v>0.07658437632422853</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02963572814001746</v>
+        <v>0.02510641713554272</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03731821084399484</v>
+        <v>0.07793566814502445</v>
       </c>
       <c r="J113" t="n">
-        <v>0.06615685228456011</v>
+        <v>0.02870502943385662</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03701295966307275</v>
+        <v>0.07830451785078534</v>
       </c>
       <c r="L113" t="n">
-        <v>0.102697419834771</v>
+        <v>0.06362486534667608</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03699592815851847</v>
+        <v>0.0784819907693755</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02963572814001746</v>
+        <v>0.09868508552823152</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03731821084399484</v>
+        <v>0.07821383113963763</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02968034021025141</v>
+        <v>0.02295640332504136</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0380956735699114</v>
+        <v>0.07955932789804579</v>
       </c>
       <c r="J114" t="n">
-        <v>0.06642255606742681</v>
+        <v>0.02833457119607577</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03778406298938677</v>
+        <v>0.0799358619726767</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1024867286995499</v>
+        <v>0.06334629210755768</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03776667666182094</v>
+        <v>0.08011703224373749</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02968034021025141</v>
+        <v>0.09839619187500953</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0380956735699114</v>
+        <v>0.07984328595504675</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02970638384237467</v>
+        <v>0.02380590264962322</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03887313629582795</v>
+        <v>0.08118298765106713</v>
       </c>
       <c r="J115" t="n">
-        <v>0.06665519297451186</v>
+        <v>0.02816268127623223</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03855516631570078</v>
+        <v>0.08156720609456806</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1027270598671295</v>
+        <v>0.06266357923731533</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03853742516512341</v>
+        <v>0.08175207371809948</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02970638384237467</v>
+        <v>0.09710310606799716</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03887313629582795</v>
+        <v>0.08147274077045588</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03001350107565198</v>
+        <v>0.02365598399925489</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03965059902174452</v>
+        <v>0.08280664740408847</v>
       </c>
       <c r="J116" t="n">
-        <v>0.06635447015439991</v>
+        <v>0.0281905939800586</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03932626964201479</v>
+        <v>0.08319855021645943</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1029181893518327</v>
+        <v>0.06227949297427099</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03930817366842588</v>
+        <v>0.08338711519246146</v>
       </c>
       <c r="N116" t="n">
-        <v>0.03001350107565198</v>
+        <v>0.09681007404454717</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03965059902174452</v>
+        <v>0.08310219558586499</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03000133394934806</v>
+        <v>0.02350771626390286</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04042806174766107</v>
+        <v>0.08443030715710981</v>
       </c>
       <c r="J117" t="n">
-        <v>0.06662009475567565</v>
+        <v>0.02791954361328743</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04009737296832881</v>
+        <v>0.08482989433835079</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1030598931679829</v>
+        <v>0.06249679955674659</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04007892217172834</v>
+        <v>0.08502215666682346</v>
       </c>
       <c r="N117" t="n">
-        <v>0.03000133394934806</v>
+        <v>0.09562134174201231</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04042806174766107</v>
+        <v>0.0847316504012741</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03016952450272765</v>
+        <v>0.02235013281597979</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04120552447357764</v>
+        <v>0.08605396691013116</v>
       </c>
       <c r="J118" t="n">
-        <v>0.06715177392692376</v>
+        <v>0.02774975225578132</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04086847629464283</v>
+        <v>0.08646123846024215</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1038519473299029</v>
+        <v>0.06151826522306417</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04084967067503081</v>
+        <v>0.08665719814118544</v>
       </c>
       <c r="N118" t="n">
-        <v>0.03016952450272765</v>
+        <v>0.09573148172042417</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04120552447357764</v>
+        <v>0.08636110521668323</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02991771477505549</v>
+        <v>0.02217096292250972</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04198298719949419</v>
+        <v>0.0876776266631525</v>
       </c>
       <c r="J119" t="n">
-        <v>0.06714921481672889</v>
+        <v>0.02746141051451413</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04163957962095684</v>
+        <v>0.08809258258213351</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1035941278519159</v>
+        <v>0.06161719190707424</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04162041917833328</v>
+        <v>0.08829223961554743</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02991771477505549</v>
+        <v>0.09466740894777137</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04198298719949419</v>
+        <v>0.08799056003209234</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03025293098442144</v>
+        <v>0.02297364764146095</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04276044992541075</v>
+        <v>0.08930128641617384</v>
       </c>
       <c r="J120" t="n">
-        <v>0.06734180163101358</v>
+        <v>0.02714946724374244</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04241068294727086</v>
+        <v>0.08972392670402488</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1044306722776057</v>
+        <v>0.06126060379814527</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04239116768163575</v>
+        <v>0.08992728108990941</v>
       </c>
       <c r="N120" t="n">
-        <v>0.03025293098442144</v>
+        <v>0.09362437998094891</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04276044992541075</v>
+        <v>0.08962001484750146</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02995254148385897</v>
+        <v>0.02176166954411436</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04353791265132731</v>
+        <v>0.09092494616919518</v>
       </c>
       <c r="J121" t="n">
-        <v>0.06724021034634886</v>
+        <v>0.02691794395908591</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04318178627358488</v>
+        <v>0.09135527082591623</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1036279720335126</v>
+        <v>0.06075729876478952</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04316191618493822</v>
+        <v>0.09156232256427141</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02995254148385897</v>
+        <v>0.09361622859139124</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04353791265132731</v>
+        <v>0.09124946966291059</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03013283653042019</v>
+        <v>0.02253851120175089</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04431537537724387</v>
+        <v>0.09254860592221652</v>
       </c>
       <c r="J122" t="n">
-        <v>0.06713929850392392</v>
+        <v>0.02687086217616426</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04395288959989889</v>
+        <v>0.09298661494780759</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1040075482497791</v>
+        <v>0.05971628954212285</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04393266468824068</v>
+        <v>0.09319736403863339</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03013283653042019</v>
+        <v>0.09195678855053269</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04431537537724387</v>
+        <v>0.09287892447831969</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02998476331846694</v>
+        <v>0.02330765518565144</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04509283810316043</v>
+        <v>0.09417226567523787</v>
       </c>
       <c r="J123" t="n">
-        <v>0.06702712767307173</v>
+        <v>0.02651224341059721</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0447239929262129</v>
+        <v>0.09461795906969896</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1034907947158084</v>
+        <v>0.05934658886526109</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04470341319154315</v>
+        <v>0.09483240551299539</v>
       </c>
       <c r="N123" t="n">
-        <v>0.02998476331846694</v>
+        <v>0.09165989362980764</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04509283810316043</v>
+        <v>0.09450837929372881</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02991027824647695</v>
+        <v>0.02307258406709692</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04587030082907699</v>
+        <v>0.09579592542825921</v>
       </c>
       <c r="J124" t="n">
-        <v>0.06700504919461825</v>
+        <v>0.02624610917800445</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04549509625252692</v>
+        <v>0.09624930319159032</v>
       </c>
       <c r="L124" t="n">
-        <v>0.104081169902038</v>
+        <v>0.05855720946932003</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04547416169484562</v>
+        <v>0.09646744698735739</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02991027824647695</v>
+        <v>0.09023937760065059</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04587030082907699</v>
+        <v>0.09613783410913794</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0298113377129279</v>
+        <v>0.02083678041736824</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04664776355499355</v>
+        <v>0.09741958518128055</v>
       </c>
       <c r="J125" t="n">
-        <v>0.06707328978644284</v>
+        <v>0.02597648099400569</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04626619957884094</v>
+        <v>0.09788064731348167</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1031849893239656</v>
+        <v>0.05805716408941558</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04624491019814809</v>
+        <v>0.09810248846171937</v>
       </c>
       <c r="N125" t="n">
-        <v>0.0298113377129279</v>
+        <v>0.09010907423449577</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04664776355499355</v>
+        <v>0.09776728892454704</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02978989811629752</v>
+        <v>0.02260372680774628</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04742522628091011</v>
+        <v>0.0990432449343019</v>
       </c>
       <c r="J126" t="n">
-        <v>0.06683207616642481</v>
+        <v>0.02560738037422065</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04703730290515495</v>
+        <v>0.09951199143537304</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1033085684970887</v>
+        <v>0.05735546546066358</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04701565870145056</v>
+        <v>0.09973752993608136</v>
       </c>
       <c r="N126" t="n">
-        <v>0.02978989811629752</v>
+        <v>0.0892828173027776</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04742522628091011</v>
+        <v>0.09939674373995616</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02944791585506348</v>
+        <v>0.022376905809512</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04820268900682666</v>
+        <v>0.1006669046873232</v>
       </c>
       <c r="J127" t="n">
-        <v>0.06708163505244363</v>
+        <v>0.02554282883426899</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04780840623146897</v>
+        <v>0.1011433355572644</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1024582229369048</v>
+        <v>0.05706112631817992</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04778640720475302</v>
+        <v>0.1013725714104433</v>
       </c>
       <c r="N127" t="n">
-        <v>0.02944791585506348</v>
+        <v>0.08777444057693046</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04820268900682666</v>
+        <v>0.1010261985553653</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02958734732770352</v>
+        <v>0.02015979999394626</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04898015173274323</v>
+        <v>0.1022905644403446</v>
       </c>
       <c r="J128" t="n">
-        <v>0.06692219316237855</v>
+        <v>0.02508684788977045</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04857950955778299</v>
+        <v>0.1027746796791558</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1023402681589115</v>
+        <v>0.05608315939708036</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04855715570805549</v>
+        <v>0.1030076128848053</v>
       </c>
       <c r="N128" t="n">
-        <v>0.02958734732770352</v>
+        <v>0.08709777782838879</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04898015173274323</v>
+        <v>0.1026556533707744</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02931014893269533</v>
+        <v>0.01994386924048762</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04975761445865978</v>
+        <v>0.1039142241933659</v>
       </c>
       <c r="J129" t="n">
-        <v>0.06665397721410898</v>
+        <v>0.02504294466862422</v>
       </c>
       <c r="K129" t="n">
-        <v>0.049350612884097</v>
+        <v>0.1044060238010471</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1014610196786061</v>
+        <v>0.05593057743248075</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04932790421135796</v>
+        <v>0.1046426543591673</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02931014893269533</v>
+        <v>0.08595937702720496</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04975761445865978</v>
+        <v>0.1042851081861835</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02911827706851663</v>
+        <v>0.02070789866018377</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05053507718457634</v>
+        <v>0.1055378839463873</v>
       </c>
       <c r="J130" t="n">
-        <v>0.0668772139255143</v>
+        <v>0.02468756564859649</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05012171621041101</v>
+        <v>0.1060373679229385</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1005267930114864</v>
+        <v>0.05527710384742668</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05009865271466043</v>
+        <v>0.1062776958335293</v>
       </c>
       <c r="N130" t="n">
-        <v>0.02911827706851663</v>
+        <v>0.08556577893759887</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05053507718457634</v>
+        <v>0.1059145630015926</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02871368813364511</v>
+        <v>0.01945603117082526</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0513125399104929</v>
+        <v>0.1071615436994086</v>
       </c>
       <c r="J131" t="n">
-        <v>0.06639213001447383</v>
+        <v>0.02431028237149313</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05089281953672503</v>
+        <v>0.1076687120448298</v>
       </c>
       <c r="L131" t="n">
-        <v>0.09954390367304972</v>
+        <v>0.05477191705150522</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0508694012179629</v>
+        <v>0.1079127373078913</v>
       </c>
       <c r="N131" t="n">
-        <v>0.02871368813364511</v>
+        <v>0.084499820941423</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0513125399104929</v>
+        <v>0.1075440178170017</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02879833852655847</v>
+        <v>0.02019325207422093</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05209000263640946</v>
+        <v>0.10878520345243</v>
       </c>
       <c r="J132" t="n">
-        <v>0.06639895219886696</v>
+        <v>0.02401685163810181</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05166392286303904</v>
+        <v>0.1093000561667212</v>
       </c>
       <c r="L132" t="n">
-        <v>0.09951866717879376</v>
+        <v>0.05372674328910981</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05164014972126536</v>
+        <v>0.1095477787822533</v>
       </c>
       <c r="N132" t="n">
-        <v>0.02879833852655847</v>
+        <v>0.08298130608653831</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05209000263640946</v>
+        <v>0.1091734726324109</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02847418464573442</v>
+        <v>0.01992454667217963</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05286746536232602</v>
+        <v>0.1104088632054513</v>
       </c>
       <c r="J133" t="n">
-        <v>0.06649790719657309</v>
+        <v>0.02381303024921028</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05243502618935306</v>
+        <v>0.1109314002886125</v>
       </c>
       <c r="L133" t="n">
-        <v>0.09845739904421591</v>
+        <v>0.05335448429319903</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05241089822456783</v>
+        <v>0.1111828202566153</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02847418464573442</v>
+        <v>0.08233003742080575</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05286746536232602</v>
+        <v>0.11080292744782</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0280431828896507</v>
+        <v>0.01865490026651022</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05364492808824257</v>
+        <v>0.1120325229584726</v>
       </c>
       <c r="J134" t="n">
-        <v>0.06618922172547148</v>
+        <v>0.02340457500560625</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05320612951566708</v>
+        <v>0.1125627444105039</v>
       </c>
       <c r="L134" t="n">
-        <v>0.09746641478481383</v>
+        <v>0.05276804179673161</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0531816467278703</v>
+        <v>0.1128178617309773</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0280431828896507</v>
+        <v>0.08146581799208635</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05364492808824257</v>
+        <v>0.1124323822632291</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02800728965678496</v>
+        <v>0.01838929815902152</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05442239081415914</v>
+        <v>0.113656182711494</v>
       </c>
       <c r="J135" t="n">
-        <v>0.06607312250344158</v>
+        <v>0.02309724270807742</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05397723284198109</v>
+        <v>0.1141940885323953</v>
       </c>
       <c r="L135" t="n">
-        <v>0.09645202991608492</v>
+        <v>0.0517803175326661</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05395239523117277</v>
+        <v>0.1144529032053393</v>
       </c>
       <c r="N135" t="n">
-        <v>0.02800728965678496</v>
+        <v>0.08060845084824092</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05442239081415914</v>
+        <v>0.1140618370786382</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02776846134561495</v>
+        <v>0.01913272565152239</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05519985354007569</v>
+        <v>0.1152798424645153</v>
       </c>
       <c r="J136" t="n">
-        <v>0.06614983624836268</v>
+        <v>0.02279679015741153</v>
       </c>
       <c r="K136" t="n">
-        <v>0.0547483361682951</v>
+        <v>0.1158254326542866</v>
       </c>
       <c r="L136" t="n">
-        <v>0.09582055995352673</v>
+        <v>0.05140421323396116</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05472314373447524</v>
+        <v>0.1160879446797012</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02776846134561495</v>
+        <v>0.07937773903713047</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05519985354007569</v>
+        <v>0.1156912918940473</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02742865435461836</v>
+        <v>0.01889016804582166</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05597731626599225</v>
+        <v>0.1169035022175367</v>
       </c>
       <c r="J137" t="n">
-        <v>0.06571958967811425</v>
+        <v>0.02270897415439624</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05551943949460911</v>
+        <v>0.117456776776178</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0947783204126369</v>
+        <v>0.05075263063357541</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05549389223777771</v>
+        <v>0.1177229861540632</v>
       </c>
       <c r="N137" t="n">
-        <v>0.02742865435461836</v>
+        <v>0.07819348560661582</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05597731626599225</v>
+        <v>0.1173207467094565</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0272898250822729</v>
+        <v>0.0196666106437282</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05675477899190881</v>
+        <v>0.118527161970558</v>
       </c>
       <c r="J138" t="n">
-        <v>0.06548260951057555</v>
+        <v>0.02233955149981932</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05629054282092314</v>
+        <v>0.1190881208980694</v>
       </c>
       <c r="L138" t="n">
-        <v>0.09443162680891282</v>
+        <v>0.05003847146446749</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05626464074108018</v>
+        <v>0.1193580276284252</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0272898250822729</v>
+        <v>0.07737549360455803</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05675477899190881</v>
+        <v>0.1189502015248656</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02705392992705627</v>
+        <v>0.01946703874705084</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05753224171782537</v>
+        <v>0.1201508217235793</v>
       </c>
       <c r="J139" t="n">
-        <v>0.06573912246362595</v>
+        <v>0.02209427899446847</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05706164614723716</v>
+        <v>0.1207194650199607</v>
       </c>
       <c r="L139" t="n">
-        <v>0.09398679465785215</v>
+        <v>0.04947463745959593</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05703538924438264</v>
+        <v>0.1209930691027872</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02705392992705627</v>
+        <v>0.07614356607881811</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05753224171782537</v>
+        <v>0.1205796563402747</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02692292528744616</v>
+        <v>0.01829643765759843</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05830970444374194</v>
+        <v>0.1217744814766007</v>
       </c>
       <c r="J140" t="n">
-        <v>0.06518935525514488</v>
+        <v>0.02207891343913139</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05783274947355117</v>
+        <v>0.1223508091418521</v>
       </c>
       <c r="L140" t="n">
-        <v>0.09325013947495231</v>
+        <v>0.04867403035191953</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05780613774768511</v>
+        <v>0.1226281105771492</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02692292528744616</v>
+        <v>0.07541750607725684</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05830970444374194</v>
+        <v>0.1222091111556838</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02649876756192031</v>
+        <v>0.01915979267717981</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0590871671696585</v>
+        <v>0.123398141229622</v>
       </c>
       <c r="J141" t="n">
-        <v>0.06543353460301163</v>
+        <v>0.02179921163459581</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05860385279986519</v>
+        <v>0.1239821532637435</v>
       </c>
       <c r="L141" t="n">
-        <v>0.09192797677571085</v>
+        <v>0.04844955187439676</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05857688625098758</v>
+        <v>0.1242631520515112</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02649876756192031</v>
+        <v>0.07491711664773532</v>
       </c>
       <c r="O141" t="n">
-        <v>0.0590871671696585</v>
+        <v>0.1238385659710929</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02628341314895641</v>
+        <v>0.01806208910760382</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05986462989557505</v>
+        <v>0.1250218009826434</v>
       </c>
       <c r="J142" t="n">
-        <v>0.06517188722510561</v>
+        <v>0.02166093038164942</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05937495612617921</v>
+        <v>0.1256134973856348</v>
       </c>
       <c r="L142" t="n">
-        <v>0.09082662207562531</v>
+        <v>0.04791410375998637</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05934763475429004</v>
+        <v>0.1258981935258732</v>
       </c>
       <c r="N142" t="n">
-        <v>0.02628341314895641</v>
+        <v>0.07506220083811427</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05986462989557505</v>
+        <v>0.125468020786502</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02627881844703217</v>
+        <v>0.01700831225067932</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06064209262149162</v>
+        <v>0.1266454607356647</v>
       </c>
       <c r="J143" t="n">
-        <v>0.06470463983930613</v>
+        <v>0.02166982648107996</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06014605945249322</v>
+        <v>0.1272448415075262</v>
       </c>
       <c r="L143" t="n">
-        <v>0.09025239089019321</v>
+        <v>0.04818058774164688</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06011838325759251</v>
+        <v>0.1275332350002352</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02627881844703217</v>
+        <v>0.07397256169625477</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06064209262149162</v>
+        <v>0.1270974756019111</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02608693985462529</v>
+        <v>0.01699981160277125</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06141955534740817</v>
+        <v>0.1282691204886861</v>
       </c>
       <c r="J144" t="n">
-        <v>0.06493201916349262</v>
+        <v>0.02153165673367512</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06091716277880723</v>
+        <v>0.1288761856294175</v>
       </c>
       <c r="L144" t="n">
-        <v>0.0900115987349121</v>
+        <v>0.04766190555233693</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06088913176089499</v>
+        <v>0.1291682764745972</v>
       </c>
       <c r="N144" t="n">
-        <v>0.02608693985462529</v>
+        <v>0.07446800227001782</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06141955534740817</v>
+        <v>0.1287269304173203</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02590973377021345</v>
+        <v>0.01700647139993823</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06219701807332473</v>
+        <v>0.1298927802417074</v>
       </c>
       <c r="J145" t="n">
-        <v>0.06445425191554438</v>
+        <v>0.02143383397594054</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06168826610512125</v>
+        <v>0.1305075297513089</v>
       </c>
       <c r="L145" t="n">
-        <v>0.08911056112527943</v>
+        <v>0.04755244915581355</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06165988026419746</v>
+        <v>0.1308033179489592</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02590973377021345</v>
+        <v>0.07428190226304199</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06219701807332473</v>
+        <v>0.1303563852327294</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02564915659227443</v>
+        <v>0.01902018489018931</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06297448079924128</v>
+        <v>0.1315164399947287</v>
       </c>
       <c r="J146" t="n">
-        <v>0.06457156481334081</v>
+        <v>0.02154504710718244</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06245936943143526</v>
+        <v>0.1321388738732003</v>
       </c>
       <c r="L146" t="n">
-        <v>0.08775559357679291</v>
+        <v>0.04777255856402904</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06243062876749992</v>
+        <v>0.1324383594233212</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02564915659227443</v>
+        <v>0.07392439886809221</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06297448079924128</v>
+        <v>0.1319858400481385</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02550716471928585</v>
+        <v>0.01804058575536355</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06375194352515785</v>
+        <v>0.1331400997477501</v>
       </c>
       <c r="J147" t="n">
-        <v>0.06398418457476127</v>
+        <v>0.02156418126251072</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06323047275774928</v>
+        <v>0.1337702179950916</v>
       </c>
       <c r="L147" t="n">
-        <v>0.08735301160494979</v>
+        <v>0.04781063282991158</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0632013772708024</v>
+        <v>0.1340734008976832</v>
       </c>
       <c r="N147" t="n">
-        <v>0.02550716471928585</v>
+        <v>0.07419397582566917</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06375194352515785</v>
+        <v>0.1336152948635476</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02528571454972546</v>
+        <v>0.01906730767730005</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06452940625107441</v>
+        <v>0.1347637595007714</v>
       </c>
       <c r="J148" t="n">
-        <v>0.06389233791768509</v>
+        <v>0.02149081343430058</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06400157608406329</v>
+        <v>0.135401562116983</v>
       </c>
       <c r="L148" t="n">
-        <v>0.08740913072524792</v>
+        <v>0.04776572393882306</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06397212577410487</v>
+        <v>0.1357084423720451</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02528571454972546</v>
+        <v>0.07478917801502938</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06452940625107441</v>
+        <v>0.1352447496789567</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02518676248207098</v>
+        <v>0.01809998433783785</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06530686897699096</v>
+        <v>0.1363874192537928</v>
       </c>
       <c r="J149" t="n">
-        <v>0.06409625155999168</v>
+        <v>0.02142452061492711</v>
       </c>
       <c r="K149" t="n">
-        <v>0.0647726794103773</v>
+        <v>0.1370329062388743</v>
       </c>
       <c r="L149" t="n">
-        <v>0.08672641104285045</v>
+        <v>0.04793688387612538</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06474287427740733</v>
+        <v>0.1373434838464071</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02518676248207098</v>
+        <v>0.07500855031542986</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06530686897699096</v>
+        <v>0.1368742044943659</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02511112271950459</v>
+        <v>0.01713824941881605</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06608433170290752</v>
+        <v>0.1380110790068141</v>
       </c>
       <c r="J150" t="n">
-        <v>0.06379615221956034</v>
+        <v>0.02146487979676547</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06554378273669133</v>
+        <v>0.1386642503607657</v>
       </c>
       <c r="L150" t="n">
-        <v>0.08577236539489919</v>
+        <v>0.04782316462718048</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06551362278070978</v>
+        <v>0.1389785253207691</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02511112271950459</v>
+        <v>0.07495063760612725</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06608433170290752</v>
+        <v>0.138503659309775</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02504425766370974</v>
+        <v>0.0181817366020737</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06686179442882408</v>
+        <v>0.1396347387598355</v>
       </c>
       <c r="J151" t="n">
-        <v>0.06349226661427046</v>
+        <v>0.02161146797219077</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06631488606300534</v>
+        <v>0.1402955944826571</v>
       </c>
       <c r="L151" t="n">
-        <v>0.08523727911736506</v>
+        <v>0.04812361817735011</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06628437128401225</v>
+        <v>0.1406135667951311</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02504425766370974</v>
+        <v>0.07471398476637847</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06686179442882408</v>
+        <v>0.1401331141251841</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02488107178157173</v>
+        <v>0.01723007956944989</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06763925715474065</v>
+        <v>0.1412583985128568</v>
       </c>
       <c r="J152" t="n">
-        <v>0.06318482146200144</v>
+        <v>0.02186386213357817</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06708598938931935</v>
+        <v>0.1419269386045484</v>
       </c>
       <c r="L152" t="n">
-        <v>0.0851199573641358</v>
+        <v>0.0486372965119963</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06705511978731472</v>
+        <v>0.1422486082694931</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02488107178157173</v>
+        <v>0.07549713667544028</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06763925715474065</v>
+        <v>0.1417625689405932</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02502139556660993</v>
+        <v>0.01828291200278368</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0684167198806572</v>
+        <v>0.1428820582658782</v>
       </c>
       <c r="J153" t="n">
-        <v>0.06287404348063261</v>
+        <v>0.0219216392733028</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06785709271563338</v>
+        <v>0.1435582827264398</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08511920528909894</v>
+        <v>0.04856325161648087</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06782586829061719</v>
+        <v>0.1438836497438551</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02502139556660993</v>
+        <v>0.07469863821256945</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0684167198806572</v>
+        <v>0.1433920237560024</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02476505951234377</v>
+        <v>0.01733986758391416</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06919418260657376</v>
+        <v>0.1445057180188995</v>
       </c>
       <c r="J154" t="n">
-        <v>0.06296015938804331</v>
+        <v>0.02168437638373982</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06862819604194739</v>
+        <v>0.1451896268483312</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08453382804614235</v>
+        <v>0.04890053547616571</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06859661679391967</v>
+        <v>0.1455186912182171</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02476505951234377</v>
+        <v>0.07591703425702284</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06919418260657376</v>
+        <v>0.1450214785714115</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02481189411229259</v>
+        <v>0.01740057999468037</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06997164533249031</v>
+        <v>0.1461293777719208</v>
       </c>
       <c r="J155" t="n">
-        <v>0.0626433959021129</v>
+        <v>0.02175165045726435</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06939929936826141</v>
+        <v>0.1468209709702225</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08456263078915355</v>
+        <v>0.04884820007641275</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06936736529722214</v>
+        <v>0.1471537326925791</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02481189411229259</v>
+        <v>0.07515086968805723</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06997164533249031</v>
+        <v>0.1466509333868206</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02496172985997584</v>
+        <v>0.01946745156220763</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07074910805840688</v>
+        <v>0.1477530375249421</v>
       </c>
       <c r="J156" t="n">
-        <v>0.06232397974072082</v>
+        <v>0.02182303848625153</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07017040269457542</v>
+        <v>0.1484523150921139</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08420441867202039</v>
+        <v>0.04920529740258384</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07013811380052461</v>
+        <v>0.148788774166941</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02496172985997584</v>
+        <v>0.07639868938492927</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07074910805840688</v>
+        <v>0.1482803882022297</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02471439724891288</v>
+        <v>0.01958296541387134</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07152657078432344</v>
+        <v>0.1493766972779635</v>
       </c>
       <c r="J157" t="n">
-        <v>0.06240213762174635</v>
+        <v>0.02222029028118239</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07094150602088944</v>
+        <v>0.1500836592140052</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08295799684863037</v>
+        <v>0.04939469735338731</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07090886230382708</v>
+        <v>0.150423815641303</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02471439724891288</v>
+        <v>0.07676102856101541</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07152657078432344</v>
+        <v>0.1499098430176388</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0248697267726231</v>
+        <v>0.01775319308033976</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07230403351023999</v>
+        <v>0.1510003570309849</v>
       </c>
       <c r="J158" t="n">
-        <v>0.06187809626306887</v>
+        <v>0.02238504375773977</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07171260934720346</v>
+        <v>0.1517150033358966</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08342217047287132</v>
+        <v>0.04932753670085396</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07167961080712955</v>
+        <v>0.152058857115665</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0248697267726231</v>
+        <v>0.0763555191412647</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07230403351023999</v>
+        <v>0.1515392978330479</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02472754892462592</v>
+        <v>0.01996707630047488</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07308149623615655</v>
+        <v>0.1526240167840062</v>
       </c>
       <c r="J159" t="n">
-        <v>0.06145208238256775</v>
+        <v>0.022506347182635</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07248371267351747</v>
+        <v>0.1533463474577879</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08299574469863075</v>
+        <v>0.04959368498395997</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07245035931043201</v>
+        <v>0.153693898590027</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02472754892462592</v>
+        <v>0.07763936493477025</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07308149623615655</v>
+        <v>0.1531687526484571</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.0244876941984407</v>
+        <v>0.01921355681313871</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0738589589620731</v>
+        <v>0.1542476765370275</v>
       </c>
       <c r="J160" t="n">
-        <v>0.06122432269812236</v>
+        <v>0.02257143097663881</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07325481599983148</v>
+        <v>0.1549776915796793</v>
       </c>
       <c r="L160" t="n">
-        <v>0.0821775246797965</v>
+        <v>0.05046452392889572</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07322110781373448</v>
+        <v>0.155328940064389</v>
       </c>
       <c r="N160" t="n">
-        <v>0.0244876941984407</v>
+        <v>0.07806863935835384</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0738589589620731</v>
+        <v>0.1547982074638662</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02454999308758679</v>
+        <v>0.02048157635719325</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07463642168798967</v>
+        <v>0.1558713362900489</v>
       </c>
       <c r="J161" t="n">
-        <v>0.06109504392761206</v>
+        <v>0.02316752556052185</v>
       </c>
       <c r="K161" t="n">
-        <v>0.0740259193261455</v>
+        <v>0.1566090357015707</v>
       </c>
       <c r="L161" t="n">
-        <v>0.08256631557025629</v>
+        <v>0.05101143526185159</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07399185631703693</v>
+        <v>0.156963981538751</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02454999308758679</v>
+        <v>0.07969941582883738</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07463642168798967</v>
+        <v>0.1564276622792753</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02451427608558367</v>
+        <v>0.0207600766715005</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07541388441390624</v>
+        <v>0.1574949960430702</v>
       </c>
       <c r="J162" t="n">
-        <v>0.06116447278891615</v>
+        <v>0.02318186135505487</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07479702265245951</v>
+        <v>0.158240379823462</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08206092252389763</v>
+        <v>0.05170580070901792</v>
       </c>
       <c r="M162" t="n">
-        <v>0.0747626048203394</v>
+        <v>0.158599023013113</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02451427608558367</v>
+        <v>0.08078776776304258</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07541388441390624</v>
+        <v>0.1580571170946844</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02438037368595068</v>
+        <v>0.02003799949492245</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0761913471398228</v>
+        <v>0.1591186557960916</v>
       </c>
       <c r="J163" t="n">
-        <v>0.06063283599991412</v>
+        <v>0.02360166878100857</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07556812597877353</v>
+        <v>0.1598717239453534</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08126015069460829</v>
+        <v>0.05261900199658509</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07553335332364187</v>
+        <v>0.160234064487475</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02438037368595068</v>
+        <v>0.08198976857779122</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0761913471398228</v>
+        <v>0.1596865719100935</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02454811638220719</v>
+        <v>0.0193042865663211</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07696880986573935</v>
+        <v>0.1607423155491129</v>
       </c>
       <c r="J164" t="n">
-        <v>0.06030036027848523</v>
+        <v>0.02411417825915366</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07633922930508755</v>
+        <v>0.1615030680672448</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08176280523627599</v>
+        <v>0.05292242085074339</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07630410182694435</v>
+        <v>0.161869105961837</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02454811638220719</v>
+        <v>0.08246149168990535</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07696880986573935</v>
+        <v>0.1613160267255026</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02451733466787265</v>
+        <v>0.01954787962455844</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07774627259165591</v>
+        <v>0.1623659753021343</v>
       </c>
       <c r="J165" t="n">
-        <v>0.06006727234250886</v>
+        <v>0.02430662021026082</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07711033263140156</v>
+        <v>0.1631344121891361</v>
       </c>
       <c r="L165" t="n">
-        <v>0.0804676913027883</v>
+        <v>0.0535874389976832</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07707485033024682</v>
+        <v>0.163504147436199</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02451733466787265</v>
+        <v>0.08335901051620659</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07774627259165591</v>
+        <v>0.1629454815409118</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0245878590364664</v>
+        <v>0.02175853870705868</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07852373531757247</v>
+        <v>0.1639896350551556</v>
       </c>
       <c r="J166" t="n">
-        <v>0.06033379890986437</v>
+        <v>0.02436622505510082</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07788143595771557</v>
+        <v>0.1647657563110275</v>
       </c>
       <c r="L166" t="n">
-        <v>0.08067361404803308</v>
+        <v>0.0543854381635949</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07784559883354929</v>
+        <v>0.165139188910561</v>
       </c>
       <c r="N166" t="n">
-        <v>0.0245878590364664</v>
+        <v>0.0850383984735168</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07852373531757247</v>
+        <v>0.1645749363563208</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02435951998150784</v>
+        <v>0.02095329489356131</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07930119804348904</v>
+        <v>0.1656132948081769</v>
       </c>
       <c r="J167" t="n">
-        <v>0.06000016669843114</v>
+        <v>0.0246930225644556</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07865253928402959</v>
+        <v>0.1663971004329189</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08047937862589777</v>
+        <v>0.05510165496850658</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07861634733685176</v>
+        <v>0.1667742303849229</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02435951998150784</v>
+        <v>0.08601487355313558</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07930119804348904</v>
+        <v>0.16620439117173</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0245321479965164</v>
+        <v>0.02214328111663072</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08007866076940559</v>
+        <v>0.1672369545611983</v>
       </c>
       <c r="J168" t="n">
-        <v>0.05976660242608853</v>
+        <v>0.02491279044342952</v>
       </c>
       <c r="K168" t="n">
-        <v>0.0794236426103436</v>
+        <v>0.1680284445548102</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07958379019027023</v>
+        <v>0.05579464640867252</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07938709584015423</v>
+        <v>0.1684092718592849</v>
       </c>
       <c r="N168" t="n">
-        <v>0.0245321479965164</v>
+        <v>0.08667051874403725</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08007866076940559</v>
+        <v>0.1678338459871391</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02450557357501143</v>
+        <v>0.02032884817759319</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08085612349532215</v>
+        <v>0.1688606143142196</v>
       </c>
       <c r="J169" t="n">
-        <v>0.05923333281071591</v>
+        <v>0.0250272961289177</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08019474593665761</v>
+        <v>0.1696597886767016</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07948565389503803</v>
+        <v>0.0557756741790594</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08015784434345669</v>
+        <v>0.1700443133336469</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02450557357501143</v>
+        <v>0.08690819642569336</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08085612349532215</v>
+        <v>0.1694633008025482</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02427962721051231</v>
+        <v>0.02151034687777498</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0816335862212387</v>
+        <v>0.170484274067241</v>
       </c>
       <c r="J170" t="n">
-        <v>0.05950058457019261</v>
+        <v>0.02553694471040696</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08096584926297164</v>
+        <v>0.1712911327985929</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07908377489408908</v>
+        <v>0.0561456461374473</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08092859284675916</v>
+        <v>0.1716793548080089</v>
       </c>
       <c r="N170" t="n">
-        <v>0.02427962721051231</v>
+        <v>0.0882293000815319</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0816335862212387</v>
+        <v>0.1710927556179573</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02425413939653846</v>
+        <v>0.02268812801850238</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08241104894715527</v>
+        <v>0.1721079338202623</v>
       </c>
       <c r="J171" t="n">
-        <v>0.05906858442239799</v>
+        <v>0.02574214127738414</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08173695258928566</v>
+        <v>0.1729224769204843</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07937695834131075</v>
+        <v>0.05710547014161629</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08169934135006163</v>
+        <v>0.1733143962823709</v>
       </c>
       <c r="N171" t="n">
-        <v>0.02425413939653846</v>
+        <v>0.08873522319498089</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08241104894715527</v>
+        <v>0.1727222104333665</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02412894062660927</v>
+        <v>0.02086254240110165</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08318851167307183</v>
+        <v>0.1737315935732837</v>
       </c>
       <c r="J172" t="n">
-        <v>0.05883755908521146</v>
+        <v>0.02574329091933605</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08250805591559968</v>
+        <v>0.1745538210423757</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07916400939059093</v>
+        <v>0.05715605404934643</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08247008985336408</v>
+        <v>0.1749494377567329</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02412894062660927</v>
+        <v>0.08952735924946803</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08318851167307183</v>
+        <v>0.1743516652487755</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02420386139424409</v>
+        <v>0.02103394082689905</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08396597439898838</v>
+        <v>0.175355253326305</v>
       </c>
       <c r="J173" t="n">
-        <v>0.05840773527651236</v>
+        <v>0.02614079872574956</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08327915924191369</v>
+        <v>0.176185165164267</v>
       </c>
       <c r="L173" t="n">
-        <v>0.0780437331958172</v>
+        <v>0.05749830571841771</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08324083835666655</v>
+        <v>0.1765844792310949</v>
       </c>
       <c r="N173" t="n">
-        <v>0.02420386139424409</v>
+        <v>0.08990710172842137</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08396597439898838</v>
+        <v>0.1759811200641847</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02407873219296237</v>
+        <v>0.02320267409722088</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08474343712490494</v>
+        <v>0.1769789130793263</v>
       </c>
       <c r="J174" t="n">
-        <v>0.05817933971418002</v>
+        <v>0.02633506978611143</v>
       </c>
       <c r="K174" t="n">
-        <v>0.0840502625682277</v>
+        <v>0.1778165092861584</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07871493491087728</v>
+        <v>0.05793313300661027</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08401158685996903</v>
+        <v>0.1782195207054569</v>
       </c>
       <c r="N174" t="n">
-        <v>0.02407873219296237</v>
+        <v>0.08997584411526893</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08474343712490494</v>
+        <v>0.1776105748795938</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02415338351628345</v>
+        <v>0.0213690930133934</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08552089985082149</v>
+        <v>0.1786025728323477</v>
       </c>
       <c r="J175" t="n">
-        <v>0.05775275009512448</v>
+        <v>0.02622650918990851</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08482136589454171</v>
+        <v>0.1794478534080498</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07747641968965885</v>
+        <v>0.05856144377170411</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0847823353632715</v>
+        <v>0.1798545621798188</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02415338351628345</v>
+        <v>0.09093497989343852</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08552089985082149</v>
+        <v>0.1792400296950029</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02432764585772676</v>
+        <v>0.02253354837674287</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08629836257673806</v>
+        <v>0.180226232585369</v>
       </c>
       <c r="J176" t="n">
-        <v>0.05782816841054508</v>
+        <v>0.02661552202662765</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08559246922085573</v>
+        <v>0.1810791975299411</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07782699268604965</v>
+        <v>0.05878414587147932</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08555308386657397</v>
+        <v>0.1814896036541808</v>
       </c>
       <c r="N176" t="n">
-        <v>0.02432764585772676</v>
+        <v>0.09178590254635804</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08629836257673806</v>
+        <v>0.180869484510412</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02430134971081166</v>
+        <v>0.02269639098859554</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08707582530265462</v>
+        <v>0.1818498923383904</v>
       </c>
       <c r="J177" t="n">
-        <v>0.05790460550671633</v>
+        <v>0.02670251338575563</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08636357254716975</v>
+        <v>0.1827105416518325</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07676545905393722</v>
+        <v>0.05920214716371597</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08632383236987644</v>
+        <v>0.1831246451285428</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02430134971081166</v>
+        <v>0.09243000555745545</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08707582530265462</v>
+        <v>0.1824989393258212</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02427432556905755</v>
+        <v>0.02386299816303337</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08785328802857117</v>
+        <v>0.1834735520914117</v>
       </c>
       <c r="J178" t="n">
-        <v>0.05768099257698098</v>
+        <v>0.02678952982686475</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08713467587348377</v>
+        <v>0.1843418857737238</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07699062394720929</v>
+        <v>0.05971751419397239</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08709458087317891</v>
+        <v>0.1847596866029048</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02427432556905755</v>
+        <v>0.09337709348692064</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08785328802857117</v>
+        <v>0.1841283941412303</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02394640392598384</v>
+        <v>0.02403890020567091</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08863075075448773</v>
+        <v>0.185097211844433</v>
       </c>
       <c r="J179" t="n">
-        <v>0.05705626081468171</v>
+        <v>0.02698718286169551</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08790577919979778</v>
+        <v>0.1859732298956152</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07650129251975368</v>
+        <v>0.06045375852288662</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08786532937648137</v>
+        <v>0.1863947280772668</v>
       </c>
       <c r="N179" t="n">
-        <v>0.02394640392598384</v>
+        <v>0.09346196562652132</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08863075075448773</v>
+        <v>0.1857578489566394</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02391741527510988</v>
+        <v>0.0232182584405121</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08940821348040429</v>
+        <v>0.1867208715974544</v>
       </c>
       <c r="J180" t="n">
-        <v>0.05662934141316131</v>
+        <v>0.02719159434343392</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08867688252611179</v>
+        <v>0.1876045740175065</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0757962699254579</v>
+        <v>0.06080811277734355</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08863607787978384</v>
+        <v>0.1880297695516288</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02391741527510988</v>
+        <v>0.09406775420155777</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08940821348040429</v>
+        <v>0.1873873037720485</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02418719010995507</v>
+        <v>0.0243950467194898</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09018567620632086</v>
+        <v>0.1883445313504757</v>
       </c>
       <c r="J181" t="n">
-        <v>0.05639916556576247</v>
+        <v>0.02759580554916413</v>
       </c>
       <c r="K181" t="n">
-        <v>0.0894479858524258</v>
+        <v>0.1892359181393979</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07607436131820966</v>
+        <v>0.06096498156189623</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08940682638308631</v>
+        <v>0.1896648110259908</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02418719010995507</v>
+        <v>0.09497052162446429</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09018567620632086</v>
+        <v>0.1890167585874576</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02385555892403883</v>
+        <v>0.02456323889453697</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09096313893223741</v>
+        <v>0.1899681911034971</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0564646644658279</v>
+        <v>0.0276928577559703</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09021908917873982</v>
+        <v>0.1908672622612892</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07493437185189683</v>
+        <v>0.06150876948109774</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09017757488638878</v>
+        <v>0.1912998525003528</v>
       </c>
       <c r="N182" t="n">
-        <v>0.02385555892403883</v>
+        <v>0.09634633030767514</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09096313893223741</v>
+        <v>0.1906462134028667</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02392235221088053</v>
+        <v>0.02371680881758642</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09174060165815398</v>
+        <v>0.1915918508565184</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0562247693067004</v>
+        <v>0.0278757922409366</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09099019250505384</v>
+        <v>0.1924986063831806</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07507510668040679</v>
+        <v>0.06212388113950135</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09094832338969124</v>
+        <v>0.1929348939747148</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02392235221088053</v>
+        <v>0.09597124266362489</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09174060165815398</v>
+        <v>0.1922756682182759</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02378740046399958</v>
+        <v>0.0238497303405711</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09251806438407054</v>
+        <v>0.1932155106095398</v>
       </c>
       <c r="J184" t="n">
-        <v>0.05617841128172263</v>
+        <v>0.02823765028114719</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09176129583136786</v>
+        <v>0.194129950505072</v>
       </c>
       <c r="L184" t="n">
-        <v>0.0746953709576274</v>
+        <v>0.06219472114166005</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09171907189299371</v>
+        <v>0.1945699354490767</v>
       </c>
       <c r="N184" t="n">
-        <v>0.02378740046399958</v>
+        <v>0.09752132110474793</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09251806438407054</v>
+        <v>0.193905123033685</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02405053417691536</v>
+        <v>0.02495597731542386</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09329552710998709</v>
+        <v>0.1948391703625611</v>
       </c>
       <c r="J185" t="n">
-        <v>0.05592452158423736</v>
+        <v>0.02817147315368618</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09253239915768188</v>
+        <v>0.1957612946269633</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07339396983744628</v>
+        <v>0.062805694092127</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09248982039629618</v>
+        <v>0.1962049769234387</v>
       </c>
       <c r="N185" t="n">
-        <v>0.02405053417691536</v>
+        <v>0.09747262804347867</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09329552710998709</v>
+        <v>0.1955345778490941</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02381158384314722</v>
+        <v>0.02503095192013215</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09407298983590366</v>
+        <v>0.1964628301155825</v>
       </c>
       <c r="J186" t="n">
-        <v>0.05536203140758728</v>
+        <v>0.02827030213563778</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0933035024839959</v>
+        <v>0.1973926387488547</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07286970847375118</v>
+        <v>0.06334120459545528</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09326056889959865</v>
+        <v>0.1978400183978007</v>
       </c>
       <c r="N186" t="n">
-        <v>0.02381158384314722</v>
+        <v>0.09830122631380539</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09407298983590366</v>
+        <v>0.1971640326645032</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02377037995621462</v>
+        <v>0.02509569356383066</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09485045256182022</v>
+        <v>0.1980864898686038</v>
       </c>
       <c r="J187" t="n">
-        <v>0.05508987194511511</v>
+        <v>0.02824510167598564</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09407460581030991</v>
+        <v>0.1990239828707461</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07262136386830259</v>
+        <v>0.06351150288995824</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09403131740290112</v>
+        <v>0.1994750598721627</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02377037995621462</v>
+        <v>0.09845809223738039</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09485045256182022</v>
+        <v>0.1987934874799123</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02372675300963689</v>
+        <v>0.02515902818681645</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09562791528773677</v>
+        <v>0.1997101496216251</v>
       </c>
       <c r="J188" t="n">
-        <v>0.05510697439016368</v>
+        <v>0.02831813589139487</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09484570913662392</v>
+        <v>0.2006553269926374</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07229514901844736</v>
+        <v>0.06347506857901983</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09480206590620359</v>
+        <v>0.2011101013465247</v>
       </c>
       <c r="N188" t="n">
-        <v>0.02372675300963689</v>
+        <v>0.0985094130727025</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09562791528773677</v>
+        <v>0.2004229422953215</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02388053349693345</v>
+        <v>0.0252209336120492</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09640537801365333</v>
+        <v>0.2013338093746465</v>
       </c>
       <c r="J189" t="n">
-        <v>0.05481226993607563</v>
+        <v>0.02858953667585085</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09561681246293793</v>
+        <v>0.2022866711145288</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07154843367441382</v>
+        <v>0.0633349916803598</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09557281440950605</v>
+        <v>0.2027451428208867</v>
       </c>
       <c r="N189" t="n">
-        <v>0.02388053349693345</v>
+        <v>0.09885510072621073</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09640537801365333</v>
+        <v>0.2020523971107306</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02373155191162368</v>
+        <v>0.02528138766248857</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09718284073956988</v>
+        <v>0.2029574691276678</v>
       </c>
       <c r="J190" t="n">
-        <v>0.0546046897761937</v>
+        <v>0.02845927842031161</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09638791578925195</v>
+        <v>0.2039180152364202</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07048963429625082</v>
+        <v>0.06349121480081257</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09634356291280852</v>
+        <v>0.2043801842952487</v>
       </c>
       <c r="N190" t="n">
-        <v>0.02373155191162368</v>
+        <v>0.09879506710434327</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09718284073956988</v>
+        <v>0.2036818519261397</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02367963874722699</v>
+        <v>0.02534036816109422</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09796030346548645</v>
+        <v>0.2045811288806892</v>
       </c>
       <c r="J191" t="n">
-        <v>0.05428316510386064</v>
+        <v>0.0288273355157352</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09715901911556597</v>
+        <v>0.2055493593583115</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06982716734400712</v>
+        <v>0.06414368054721256</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09711431141611099</v>
+        <v>0.2060152257696107</v>
       </c>
       <c r="N191" t="n">
-        <v>0.02367963874722699</v>
+        <v>0.09882922411353884</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09796030346548645</v>
+        <v>0.2053113067415488</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02352462449726274</v>
+        <v>0.02439785293082583</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09873776619140301</v>
+        <v>0.2062047886337105</v>
       </c>
       <c r="J192" t="n">
-        <v>0.05394662711241915</v>
+        <v>0.02869368235307966</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09793012244187999</v>
+        <v>0.2071807034802029</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06866944927773139</v>
+        <v>0.06399233152639422</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09788505991941346</v>
+        <v>0.2076502672439726</v>
       </c>
       <c r="N192" t="n">
-        <v>0.02352462449726274</v>
+        <v>0.09955748366023609</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09873776619140301</v>
+        <v>0.2069407615569579</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02366633965525038</v>
+        <v>0.02345381979464309</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09951522891731956</v>
+        <v>0.2078284483867318</v>
       </c>
       <c r="J193" t="n">
-        <v>0.053594006995212</v>
+        <v>0.02895829332330301</v>
       </c>
       <c r="K193" t="n">
-        <v>0.098701225768194</v>
+        <v>0.2088120476020942</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06682489655747242</v>
+        <v>0.06393711034519198</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09865580842271593</v>
+        <v>0.2092853087183346</v>
       </c>
       <c r="N193" t="n">
-        <v>0.02366633965525038</v>
+        <v>0.09917975765087361</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09951522891731956</v>
+        <v>0.208570216372367</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02360461471470923</v>
+        <v>0.02550824657550566</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1002926916432361</v>
+        <v>0.2094521081397532</v>
       </c>
       <c r="J194" t="n">
-        <v>0.05282423594558186</v>
+        <v>0.02872114281736329</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09947232909450801</v>
+        <v>0.2104433917239856</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06640192564327918</v>
+        <v>0.06397795961044025</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09942655692601839</v>
+        <v>0.2109203501926966</v>
       </c>
       <c r="N194" t="n">
-        <v>0.02360461471470923</v>
+        <v>0.09989595799189005</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1002926916432361</v>
+        <v>0.2101996711877762</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0235392801691587</v>
+        <v>0.02456111109637321</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1010701543691527</v>
+        <v>0.2110757678927745</v>
       </c>
       <c r="J195" t="n">
-        <v>0.05243624515687151</v>
+        <v>0.02888220522621854</v>
       </c>
       <c r="K195" t="n">
-        <v>0.100243432420822</v>
+        <v>0.2120747358458769</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06430895299520017</v>
+        <v>0.06461482192897353</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1001973054293209</v>
+        <v>0.2125553916670586</v>
       </c>
       <c r="N195" t="n">
-        <v>0.0235392801691587</v>
+        <v>0.09990599658972382</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1010701543691527</v>
+        <v>0.2118291260031853</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02317016651211819</v>
+        <v>0.02361239118020542</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1018476170950692</v>
+        <v>0.2126994276457959</v>
       </c>
       <c r="J196" t="n">
-        <v>0.05232896582242366</v>
+        <v>0.02904145494082679</v>
       </c>
       <c r="K196" t="n">
-        <v>0.101014535747136</v>
+        <v>0.2137060799677684</v>
       </c>
       <c r="L196" t="n">
-        <v>0.0637543950732844</v>
+        <v>0.06484763990762613</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1009680539326233</v>
+        <v>0.2141904331414206</v>
       </c>
       <c r="N196" t="n">
-        <v>0.02317016651211819</v>
+        <v>0.1000097853508137</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1018476170950692</v>
+        <v>0.2134585808185944</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02319710423710708</v>
+        <v>0.02566206464996196</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1026250798209858</v>
+        <v>0.2143230873988172</v>
       </c>
       <c r="J197" t="n">
-        <v>0.05150132913558103</v>
+        <v>0.02899886635214609</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1017856390734501</v>
+        <v>0.2153374240896597</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06174666833758058</v>
+        <v>0.06447635615323261</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1017388024359258</v>
+        <v>0.2158254746157826</v>
       </c>
       <c r="N197" t="n">
-        <v>0.02319710423710708</v>
+        <v>0.1002072361815982</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1026250798209858</v>
+        <v>0.2150880356340035</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02331624409962819</v>
+        <v>0.02571010932860249</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1034025425469024</v>
+        <v>0.2159467471518386</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0510522662896864</v>
+        <v>0.02915441385113446</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1025567423997641</v>
+        <v>0.2169687682115511</v>
       </c>
       <c r="L198" t="n">
-        <v>0.0603941892481375</v>
+        <v>0.06460091327262732</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1025095509392283</v>
+        <v>0.2174605160901446</v>
       </c>
       <c r="N198" t="n">
-        <v>0.02331624409962819</v>
+        <v>0.1002982609885159</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1034025425469024</v>
+        <v>0.2167174904494126</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02320644065676872</v>
+        <v>0.02575650303908671</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1041800052728189</v>
+        <v>0.2175704069048599</v>
       </c>
       <c r="J199" t="n">
-        <v>0.05058070847808244</v>
+        <v>0.02930807182874995</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1033278457260781</v>
+        <v>0.2186001123334424</v>
       </c>
       <c r="L199" t="n">
-        <v>0.0595053742650038</v>
+        <v>0.06492125387264477</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1032802994425307</v>
+        <v>0.2190955575645066</v>
       </c>
       <c r="N199" t="n">
-        <v>0.02320644065676872</v>
+        <v>0.1007827716780054</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1041800052728189</v>
+        <v>0.2183469452648217</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02276623940688301</v>
+        <v>0.02380122360437426</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1049574679987355</v>
+        <v>0.2191940666578812</v>
       </c>
       <c r="J200" t="n">
-        <v>0.05028558689411186</v>
+        <v>0.02915981467595057</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1040989490523921</v>
+        <v>0.2202314564553338</v>
       </c>
       <c r="L200" t="n">
-        <v>0.0573886398482284</v>
+        <v>0.06513732056011931</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1040510479458332</v>
+        <v>0.2207305990388686</v>
       </c>
       <c r="N200" t="n">
-        <v>0.02276623940688301</v>
+        <v>0.1004606801565054</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1049574679987355</v>
+        <v>0.2199764000802308</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02269790375423346</v>
+        <v>0.02384424884742482</v>
       </c>
       <c r="G201" t="n">
-        <v>0.105734930724652</v>
+        <v>0.2208177264109026</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04996583273111749</v>
+        <v>0.0294096167836944</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1048700523787061</v>
+        <v>0.2218628005772251</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05545240245786004</v>
+        <v>0.06484905594188545</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1048217964491357</v>
+        <v>0.2223656405132306</v>
       </c>
       <c r="N201" t="n">
-        <v>0.02269790375423346</v>
+        <v>0.1007318983304544</v>
       </c>
       <c r="O201" t="n">
-        <v>0.105734930724652</v>
+        <v>0.22160585489564</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02240369710308251</v>
+        <v>0.02388555659119809</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1065123934505686</v>
+        <v>0.2224413861639239</v>
       </c>
       <c r="J202" t="n">
-        <v>0.04907745371172015</v>
+        <v>0.02915745254293943</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1056411557050201</v>
+        <v>0.2234941446991165</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05400507855394748</v>
+        <v>0.06515640262477757</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1055925449524381</v>
+        <v>0.2240006819875925</v>
       </c>
       <c r="N202" t="n">
-        <v>0.02240369710308251</v>
+        <v>0.100696338106291</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1065123934505686</v>
+        <v>0.2232353097110491</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02228588285769256</v>
+        <v>0.02592512465865371</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1072898561764851</v>
+        <v>0.2240650459169453</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04843065689282153</v>
+        <v>0.02940329634464373</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1064122590313342</v>
+        <v>0.2251254888210079</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05285508459653954</v>
+        <v>0.0651593032156301</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1063632934557406</v>
+        <v>0.2256357234619545</v>
       </c>
       <c r="N203" t="n">
-        <v>0.02228588285769256</v>
+        <v>0.1012539113904539</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1072898561764851</v>
+        <v>0.2248647645264582</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.022246724422326</v>
+        <v>0.02396293087275138</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1080673189024017</v>
+        <v>0.2256887056699666</v>
       </c>
       <c r="J204" t="n">
-        <v>0.04735074123472466</v>
+        <v>0.0295471225797653</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1071833623576482</v>
+        <v>0.2267568329428992</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05121083704568491</v>
+        <v>0.06575770032127751</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1071340419590431</v>
+        <v>0.2272707649363165</v>
       </c>
       <c r="N204" t="n">
-        <v>0.022246724422326</v>
+        <v>0.1018045300893815</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1080673189024017</v>
+        <v>0.2264942193418673</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02188848520124526</v>
+        <v>0.02599895305645077</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1088447816283183</v>
+        <v>0.2273123654229879</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04569346782746234</v>
+        <v>0.02958890563926223</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1079544656839622</v>
+        <v>0.2283881770647906</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05018075236143249</v>
+        <v>0.06585153654855422</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1079047904623455</v>
+        <v>0.2289058064106785</v>
       </c>
       <c r="N205" t="n">
-        <v>0.02188848520124526</v>
+        <v>0.1012481061095125</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1088447816283183</v>
+        <v>0.2281236741572765</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02141342859871277</v>
+        <v>0.02503316903271152</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1096222443542348</v>
+        <v>0.2289360251760093</v>
       </c>
       <c r="J206" t="n">
-        <v>0.04431459776106719</v>
+        <v>0.02942861991409247</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1087255690102762</v>
+        <v>0.2300195211866819</v>
       </c>
       <c r="L206" t="n">
-        <v>0.0477732470038309</v>
+        <v>0.0654407545042946</v>
       </c>
       <c r="M206" t="n">
-        <v>0.108675538965648</v>
+        <v>0.2305408478850405</v>
       </c>
       <c r="N206" t="n">
-        <v>0.02141342859871277</v>
+        <v>0.1016845513572855</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1096222443542348</v>
+        <v>0.2297531289726856</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02142381801899088</v>
+        <v>0.02606555662449334</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1103997070801514</v>
+        <v>0.2305596849290306</v>
       </c>
       <c r="J207" t="n">
-        <v>0.04296989212557215</v>
+        <v>0.02936623979521416</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1094966723365902</v>
+        <v>0.2316508653085733</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04659673743292914</v>
+        <v>0.06552529679533317</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1094462874689505</v>
+        <v>0.2321758893594025</v>
       </c>
       <c r="N207" t="n">
-        <v>0.02142381801899088</v>
+        <v>0.1016137777391391</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1103997070801514</v>
+        <v>0.2313825837880946</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02112191686634206</v>
+        <v>0.02409609365475587</v>
       </c>
       <c r="G208" t="n">
-        <v>0.111177169806068</v>
+        <v>0.232183344682052</v>
       </c>
       <c r="J208" t="n">
-        <v>0.04181511201100988</v>
+        <v>0.02970173967358528</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1102677756629042</v>
+        <v>0.2332822094304647</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04505964010877583</v>
+        <v>0.06610510602850436</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1102170359722529</v>
+        <v>0.2338109308337645</v>
       </c>
       <c r="N208" t="n">
-        <v>0.02112191686634206</v>
+        <v>0.1015356971615119</v>
       </c>
       <c r="O208" t="n">
-        <v>0.111177169806068</v>
+        <v>0.2330120386035038</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0207099885450287</v>
+        <v>0.0241247579464588</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1119546325319845</v>
+        <v>0.2338070044350734</v>
       </c>
       <c r="J209" t="n">
-        <v>0.04010601850741313</v>
+        <v>0.02943509394016387</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1110388789892182</v>
+        <v>0.234913553552356</v>
       </c>
       <c r="L209" t="n">
-        <v>0.04377037149141971</v>
+        <v>0.06598012481064253</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1109877844755554</v>
+        <v>0.2354459723081265</v>
       </c>
       <c r="N209" t="n">
-        <v>0.0207099885450287</v>
+        <v>0.1019502215308425</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1119546325319845</v>
+        <v>0.2346414934189129</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02039029645931319</v>
+        <v>0.0251515273225618</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1127320952579011</v>
+        <v>0.2354306641880947</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03929837270481465</v>
+        <v>0.02956627698590794</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1118099823155323</v>
+        <v>0.2365448976742474</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04313734804090963</v>
+        <v>0.06605029574858221</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1117585329788579</v>
+        <v>0.2370810137824885</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02039029645931319</v>
+        <v>0.1018572627535694</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1127320952579011</v>
+        <v>0.236270948234322</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01986510401345798</v>
+        <v>0.02517637960602456</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1135095579838176</v>
+        <v>0.237054323941116</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03814793569324726</v>
+        <v>0.02959526320177559</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1125810856418463</v>
+        <v>0.2381762417961387</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04096898621729433</v>
+        <v>0.06621556144915777</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1125292814821604</v>
+        <v>0.2387160552568505</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01986510401345798</v>
+        <v>0.1027567327361314</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1135095579838176</v>
+        <v>0.2379004030497311</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01973667461172542</v>
+        <v>0.02419929261980674</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1142870207097342</v>
+        <v>0.2386779836941374</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03701046856274368</v>
+        <v>0.02982202697872481</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1133521889681603</v>
+        <v>0.2398075859180301</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04027370248062262</v>
+        <v>0.06617586451920363</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1133000299854628</v>
+        <v>0.2403510967312125</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01973667461172542</v>
+        <v>0.1022485433849669</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1142870207097342</v>
+        <v>0.2395298578651402</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01940727165837798</v>
+        <v>0.02422024418686801</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1150644834356507</v>
+        <v>0.2403016434471587</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03633533427938637</v>
+        <v>0.02984654270771364</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1141232922944743</v>
+        <v>0.2414389300399215</v>
       </c>
       <c r="L213" t="n">
-        <v>0.03955991329094333</v>
+        <v>0.06623114756555426</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1140707784887653</v>
+        <v>0.2419861382055744</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01940727165837798</v>
+        <v>0.1021326066065145</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1150644834356507</v>
+        <v>0.2411593126805494</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01907915855767807</v>
+        <v>0.02423921213016804</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1158419461615673</v>
+        <v>0.24192530320018</v>
       </c>
       <c r="J214" t="n">
-        <v>0.0353596818303992</v>
+        <v>0.02966878477970011</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1148943956207883</v>
+        <v>0.2430702741618128</v>
       </c>
       <c r="L214" t="n">
-        <v>0.03783603510830513</v>
+        <v>0.06588135319504407</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1148415269920677</v>
+        <v>0.2436211796799364</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01907915855767807</v>
+        <v>0.102108834307213</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1158419461615673</v>
+        <v>0.2427887674959585</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01855459871388807</v>
+        <v>0.02625617427266648</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1166194088874839</v>
+        <v>0.2435489629532014</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03509114241190567</v>
+        <v>0.02968872758564231</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1156654989471023</v>
+        <v>0.2447016182837042</v>
       </c>
       <c r="L215" t="n">
-        <v>0.03711048439275688</v>
+        <v>0.06652642401450748</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1156122754953702</v>
+        <v>0.2452562211542984</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01855459871388807</v>
+        <v>0.1028771383935007</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1166194088874839</v>
+        <v>0.2444182223113676</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01843585553127038</v>
+        <v>0.02627110843732305</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1173968716134004</v>
+        <v>0.2451726227062227</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03452988920252351</v>
+        <v>0.02960634551649821</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1164366022734163</v>
+        <v>0.2463329624055955</v>
       </c>
       <c r="L216" t="n">
-        <v>0.03679167760434732</v>
+        <v>0.06626630263077898</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1163830239986727</v>
+        <v>0.2468912626286604</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01843585553127038</v>
+        <v>0.1029374307718164</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1173968716134004</v>
+        <v>0.2460476771267767</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01812519241408746</v>
+        <v>0.02528399244709742</v>
       </c>
       <c r="G217" t="n">
-        <v>0.118174334339317</v>
+        <v>0.246796282459244</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03417609538087044</v>
+        <v>0.02992161296322586</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1172077055997304</v>
+        <v>0.2479643065274869</v>
       </c>
       <c r="L217" t="n">
-        <v>0.03548803120312521</v>
+        <v>0.06650093165069298</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1171537725019752</v>
+        <v>0.2485263041030224</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01812519241408746</v>
+        <v>0.1027896233485987</v>
       </c>
       <c r="O217" t="n">
-        <v>0.118174334339317</v>
+        <v>0.2476771319421859</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01782487276660166</v>
+        <v>0.02529480412494921</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1189517970652335</v>
+        <v>0.2484199422122654</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03332993412556415</v>
+        <v>0.02963450431678333</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1179788089260444</v>
+        <v>0.2495956506493782</v>
       </c>
       <c r="L218" t="n">
-        <v>0.03480796164913935</v>
+        <v>0.06613025368108386</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1179245210052776</v>
+        <v>0.2501613455773844</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01782487276660166</v>
+        <v>0.1024336280302861</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1189517970652335</v>
+        <v>0.249306586757595</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01743715999307544</v>
+        <v>0.02630352129383814</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1197292597911501</v>
+        <v>0.2500436019652867</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03309157861522249</v>
+        <v>0.02984499396812862</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1187499122523584</v>
+        <v>0.2512269947712696</v>
       </c>
       <c r="L219" t="n">
-        <v>0.03485988540243851</v>
+        <v>0.06645421132878615</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1186952695085801</v>
+        <v>0.2517963870517463</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01743715999307544</v>
+        <v>0.1033693567233173</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1197292597911501</v>
+        <v>0.2509360415730041</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0173643174977712</v>
+        <v>0.02631012177672386</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1205067225170667</v>
+        <v>0.2516672617183081</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03206120202846308</v>
+        <v>0.02975305630821976</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1195210155786724</v>
+        <v>0.252858338893161</v>
       </c>
       <c r="L220" t="n">
-        <v>0.03405221892307142</v>
+        <v>0.06637274720063416</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1194660180118826</v>
+        <v>0.2534314285261083</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0173643174977712</v>
+        <v>0.1031967213341308</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1205067225170667</v>
+        <v>0.2525654963884132</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01690860868495132</v>
+        <v>0.02531458339656607</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1212841852429832</v>
+        <v>0.2532909214713294</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03173897754390365</v>
+        <v>0.02985866572801482</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1202921189049864</v>
+        <v>0.2544896830150524</v>
       </c>
       <c r="L221" t="n">
-        <v>0.03449337867108693</v>
+        <v>0.06628580390346245</v>
       </c>
       <c r="M221" t="n">
-        <v>0.120236766515185</v>
+        <v>0.2550664700004703</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01690860868495132</v>
+        <v>0.1024156337691652</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1212841852429832</v>
+        <v>0.2541949512038223</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01687229695887826</v>
+        <v>0.02431688397632441</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1220616479688998</v>
+        <v>0.2549145812243508</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03112507834016204</v>
+        <v>0.02996179661847181</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1210632222313004</v>
+        <v>0.2561210271369437</v>
       </c>
       <c r="L222" t="n">
-        <v>0.03357238704009713</v>
+        <v>0.0665933240441054</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1210075150184875</v>
+        <v>0.2567015114748323</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01687229695887826</v>
+        <v>0.1032260059348591</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1220616479688998</v>
+        <v>0.2558244060192315</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01665701983726942</v>
+        <v>0.02531040912523781</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1228391106948163</v>
+        <v>0.2565382409773721</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03091967759585582</v>
+        <v>0.0296600109805287</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1218343255576145</v>
+        <v>0.257752371258835</v>
       </c>
       <c r="L223" t="n">
-        <v>0.03397239438296978</v>
+        <v>0.06659311470870902</v>
       </c>
       <c r="M223" t="n">
-        <v>0.12177826352179</v>
+        <v>0.2583365529491943</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01665701983726942</v>
+        <v>0.1030159913217781</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1228391106948163</v>
+        <v>0.2574538608346406</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01634919412188955</v>
+        <v>0.02424805957439499</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1236165734207329</v>
+        <v>0.2581619007303935</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03002294848960282</v>
+        <v>0.02980263669572823</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1226054288839285</v>
+        <v>0.2593837153807264</v>
       </c>
       <c r="L224" t="n">
-        <v>0.03457242235303259</v>
+        <v>0.06658031535547018</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1225490120250924</v>
+        <v>0.2599715944235563</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01634919412188955</v>
+        <v>0.1022062529004655</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1236165734207329</v>
+        <v>0.2590833156500497</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01614254109319364</v>
+        <v>0.02412623174616324</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1243940361466495</v>
+        <v>0.2597855604834148</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03003506420002078</v>
+        <v>0.02947539889028203</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1233765322102425</v>
+        <v>0.2610150595026178</v>
       </c>
       <c r="L225" t="n">
-        <v>0.03397248481323484</v>
+        <v>0.06580967852872907</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1233197605283949</v>
+        <v>0.2616066358979183</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01614254109319364</v>
+        <v>0.1027571832093391</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1243940361466495</v>
+        <v>0.2607127704654588</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01583712554151898</v>
+        <v>0.0239518391861082</v>
       </c>
       <c r="G226" t="n">
-        <v>0.125171498872566</v>
+        <v>0.2614092202364361</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02915619790572732</v>
+        <v>0.02948628101355467</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1241476355365565</v>
+        <v>0.2626464036245092</v>
       </c>
       <c r="L226" t="n">
-        <v>0.03417259562652553</v>
+        <v>0.06579909616805235</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1240905090316974</v>
+        <v>0.2632416773722803</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01583712554151898</v>
+        <v>0.1019962448332085</v>
       </c>
       <c r="O226" t="n">
-        <v>0.125171498872566</v>
+        <v>0.2623422252808679</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01583301225720289</v>
+        <v>0.02573179543979558</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1259489615984826</v>
+        <v>0.2630328799894575</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02858652278534032</v>
+        <v>0.02904326651491083</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1249187388628705</v>
+        <v>0.2642777477464005</v>
       </c>
       <c r="L227" t="n">
-        <v>0.03387276865585398</v>
+        <v>0.06536646021300666</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1248612575349998</v>
+        <v>0.2648767188466423</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01583301225720289</v>
+        <v>0.1007509003568828</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1259489615984826</v>
+        <v>0.263971680096277</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0155302660305827</v>
+        <v>0.02347301405279098</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1267264243243991</v>
+        <v>0.2646565397424789</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02832621201747737</v>
+        <v>0.02895433884371508</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1256898421891846</v>
+        <v>0.2659090918682919</v>
       </c>
       <c r="L228" t="n">
-        <v>0.03417301776416914</v>
+        <v>0.06462966260315869</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1256320060383023</v>
+        <v>0.2665117603210043</v>
       </c>
       <c r="N228" t="n">
-        <v>0.0155302660305827</v>
+        <v>0.1001486123651715</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1267264243243991</v>
+        <v>0.2656011349116861</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01522895165199574</v>
+        <v>0.02518240857066008</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1275038870503157</v>
+        <v>0.2662801994955002</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02807543878075633</v>
+        <v>0.02852748144933206</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1264609455154986</v>
+        <v>0.2675404359901832</v>
       </c>
       <c r="L229" t="n">
-        <v>0.03437335681442039</v>
+        <v>0.06360659527807505</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1264027545416048</v>
+        <v>0.2681468017953663</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01522895165199574</v>
+        <v>0.09901684344288392</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1275038870503157</v>
+        <v>0.2672305897270953</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01522913391177934</v>
+        <v>0.02386689253896855</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1282813497762322</v>
+        <v>0.2679038592485215</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02753437625379482</v>
+        <v>0.02817067778112642</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1272320488418126</v>
+        <v>0.2691717801120746</v>
       </c>
       <c r="L230" t="n">
-        <v>0.03377379966955674</v>
+        <v>0.06271515017732252</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1271735030449073</v>
+        <v>0.2697818432697283</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01522913391177934</v>
+        <v>0.09708305617482932</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1282813497762322</v>
+        <v>0.2688600445425044</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01473087760027081</v>
+        <v>0.02353337950328203</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1290588125021488</v>
+        <v>0.2695275190015429</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02740319761521062</v>
+        <v>0.02779191128846271</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1280031521681266</v>
+        <v>0.270803124233966</v>
       </c>
       <c r="L231" t="n">
-        <v>0.03377436019252739</v>
+        <v>0.0618732192404676</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1279442515482097</v>
+        <v>0.2714168847440903</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01473087760027081</v>
+        <v>0.09557471314581706</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1290588125021488</v>
+        <v>0.2704894993579135</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.0148342475078075</v>
+        <v>0.0241887830091662</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1298362752280654</v>
+        <v>0.2711511787545642</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02678207604362148</v>
+        <v>0.02749916542070564</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1287742554944406</v>
+        <v>0.2724344683558573</v>
       </c>
       <c r="L232" t="n">
-        <v>0.03367505224628148</v>
+        <v>0.06119869440707706</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1287150000515122</v>
+        <v>0.2730519262184523</v>
       </c>
       <c r="N232" t="n">
-        <v>0.0148342475078075</v>
+        <v>0.0943192769406565</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1298362752280654</v>
+        <v>0.2721189541733226</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01433930842472669</v>
+        <v>0.02384001660218671</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1306137379539819</v>
+        <v>0.2727748385075855</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02597118471764512</v>
+        <v>0.02720042362721981</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1295453588207546</v>
+        <v>0.2740658124777487</v>
       </c>
       <c r="L233" t="n">
-        <v>0.03397588969376825</v>
+        <v>0.06030946761671752</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1294857485548147</v>
+        <v>0.2746869676928143</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01433930842472669</v>
+        <v>0.09314421014415702</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1306137379539819</v>
+        <v>0.2737484089887317</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01424612514136571</v>
+        <v>0.02249399382790919</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1313912006798985</v>
+        <v>0.2743984982606069</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02587069681589915</v>
+        <v>0.02660366935736981</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1303164621470686</v>
+        <v>0.2756971565996401</v>
       </c>
       <c r="L234" t="n">
-        <v>0.03397688639793672</v>
+        <v>0.05942343080895565</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1302564970581171</v>
+        <v>0.2763220091671763</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01424612514136571</v>
+        <v>0.0924769753411277</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1313912006798985</v>
+        <v>0.2753778638041409</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01395476244806196</v>
+        <v>0.02115762823189934</v>
       </c>
       <c r="G235" t="n">
-        <v>0.132168663405815</v>
+        <v>0.2760221580136282</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02518078551700151</v>
+        <v>0.02641688606052027</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1310875654733827</v>
+        <v>0.2773285007215314</v>
       </c>
       <c r="L235" t="n">
-        <v>0.03367805622173614</v>
+        <v>0.05885847592335811</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1310272455614196</v>
+        <v>0.2779570506415382</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01395476244806196</v>
+        <v>0.09034503511637815</v>
       </c>
       <c r="O235" t="n">
-        <v>0.132168663405815</v>
+        <v>0.27700731861955</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01396528513515265</v>
+        <v>0.02083783335972279</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1329461261317316</v>
+        <v>0.2776458177666495</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02480162399956973</v>
+        <v>0.02584805718603582</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1318586687996967</v>
+        <v>0.2789598448434227</v>
       </c>
       <c r="L236" t="n">
-        <v>0.03447941302811564</v>
+        <v>0.05783249489949158</v>
       </c>
       <c r="M236" t="n">
-        <v>0.131797994064722</v>
+        <v>0.2795920921159002</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01396528513515265</v>
+        <v>0.08947585205471764</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1329461261317316</v>
+        <v>0.2786367734349591</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01367775799297517</v>
+        <v>0.02154152275694522</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1337235888576482</v>
+        <v>0.2792694775196709</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02443338544222171</v>
+        <v>0.02570516618328109</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1326297721260107</v>
+        <v>0.2805911889653142</v>
       </c>
       <c r="L237" t="n">
-        <v>0.03428097068002434</v>
+        <v>0.0571633796769227</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1325687425680245</v>
+        <v>0.2812271335902622</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01367775799297517</v>
+        <v>0.08819688874095544</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1337235888576482</v>
+        <v>0.2802662282503682</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01369224581186684</v>
+        <v>0.02126672206011378</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1345010515835647</v>
+        <v>0.2808931372726923</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02457624302357506</v>
+        <v>0.02538932819082643</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1334008754523247</v>
+        <v>0.2822225330872055</v>
       </c>
       <c r="L238" t="n">
-        <v>0.03418274304041152</v>
+        <v>0.05595670066889394</v>
       </c>
       <c r="M238" t="n">
-        <v>0.133339491071327</v>
+        <v>0.2828621750646242</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01369224581186684</v>
+        <v>0.0874093487704421</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1345010515835647</v>
+        <v>0.2818956830657773</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01320881338216501</v>
+        <v>0.02199225423273035</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1352785143094813</v>
+        <v>0.2825167970257136</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02433036992224752</v>
+        <v>0.02477550619437253</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1341719787786387</v>
+        <v>0.2838538772090969</v>
       </c>
       <c r="L239" t="n">
-        <v>0.03378474397222619</v>
+        <v>0.05525671474188493</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1341102395746294</v>
+        <v>0.2844972165389862</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01320881338216501</v>
+        <v>0.08552719476502663</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1352785143094813</v>
+        <v>0.2835251378811864</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01302752549420694</v>
+        <v>0.0217167473810619</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1360559770353978</v>
+        <v>0.284140456778735</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02339593931685688</v>
+        <v>0.02446049225863919</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1349430821049527</v>
+        <v>0.2854852213309882</v>
       </c>
       <c r="L240" t="n">
-        <v>0.03378698733841756</v>
+        <v>0.05495406596212632</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1348809880779319</v>
+        <v>0.2861322580133482</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01302752549420694</v>
+        <v>0.08524093392036325</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1360559770353978</v>
+        <v>0.2851545926965955</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01304844693832999</v>
+        <v>0.0214401851266626</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1368334397613144</v>
+        <v>0.2857641165317563</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02307312438602083</v>
+        <v>0.02434426747053883</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1357141854312668</v>
+        <v>0.2871165654528796</v>
       </c>
       <c r="L241" t="n">
-        <v>0.03458948700193482</v>
+        <v>0.05394871194294978</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1356517365812344</v>
+        <v>0.2877672994877101</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01304844693832999</v>
+        <v>0.08435050117656984</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1368334397613144</v>
+        <v>0.2867840475120047</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01297164250487148</v>
+        <v>0.01916255109108662</v>
       </c>
       <c r="G242" t="n">
-        <v>0.137610902487231</v>
+        <v>0.2873877762847776</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02296209830835708</v>
+        <v>0.02402681291698383</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1364852887575808</v>
+        <v>0.2887479095747709</v>
       </c>
       <c r="L242" t="n">
-        <v>0.03369225682572707</v>
+        <v>0.05314061029768694</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1364224850845369</v>
+        <v>0.2894023409620721</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01297164250487148</v>
+        <v>0.08265583147376493</v>
       </c>
       <c r="O242" t="n">
-        <v>0.137610902487231</v>
+        <v>0.2884135023274138</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01269717698416874</v>
+        <v>0.01988382889588813</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1383883652131475</v>
+        <v>0.2890114360377989</v>
       </c>
       <c r="J243" t="n">
-        <v>0.0228630342624834</v>
+        <v>0.02360810968488659</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1372563920838948</v>
+        <v>0.2903792536966623</v>
       </c>
       <c r="L243" t="n">
-        <v>0.03389531067274354</v>
+        <v>0.05262971863966948</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1371932335878393</v>
+        <v>0.2910373824364341</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01269717698416874</v>
+        <v>0.08115685975206655</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1383883652131475</v>
+        <v>0.2900429571428229</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01242511516655909</v>
+        <v>0.02060400216262133</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1391658279390641</v>
+        <v>0.2906350957908203</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02267610542701753</v>
+        <v>0.02338813886115956</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1380274954102088</v>
+        <v>0.2920105978185537</v>
       </c>
       <c r="L244" t="n">
-        <v>0.0339986624059333</v>
+        <v>0.05231599458222908</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1379639820911418</v>
+        <v>0.2926724239107961</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01242511516655909</v>
+        <v>0.08005352095159279</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1391658279390641</v>
+        <v>0.291672411958232</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01235552184237985</v>
+        <v>0.01832305451284037</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1399432906649806</v>
+        <v>0.2922587555438416</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02220148498057714</v>
+        <v>0.02306688153271508</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1387985987365228</v>
+        <v>0.293641941940445</v>
       </c>
       <c r="L245" t="n">
-        <v>0.03410232588824558</v>
+        <v>0.0510993957386974</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1387347305944443</v>
+        <v>0.2943074653851581</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01235552184237985</v>
+        <v>0.07904575001246189</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1399432906649806</v>
+        <v>0.2933018667736411</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01218846180196836</v>
+        <v>0.01904096956809946</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1407207533908972</v>
+        <v>0.293882415296863</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02223934610178002</v>
+        <v>0.02274431878646559</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1395697020628368</v>
+        <v>0.2952732860623364</v>
       </c>
       <c r="L246" t="n">
-        <v>0.03450631498262946</v>
+        <v>0.05067987972240612</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1395054790977467</v>
+        <v>0.2959425068595201</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01218846180196836</v>
+        <v>0.07783348187479205</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1407207533908972</v>
+        <v>0.2949313215890503</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01212399983566192</v>
+        <v>0.01975773094995274</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1414982161168138</v>
+        <v>0.2955060750498843</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02148986196924382</v>
+        <v>0.02232043170932346</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1403408053891508</v>
+        <v>0.2969046301842277</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03391064355203416</v>
+        <v>0.0499574041466869</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1402762276010492</v>
+        <v>0.2975775483338821</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01212399983566192</v>
+        <v>0.07701665147870151</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1414982161168138</v>
+        <v>0.2965607764044594</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01196220073379787</v>
+        <v>0.0194733222799544</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1422756788427303</v>
+        <v>0.2971297348029057</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02115320576158639</v>
+        <v>0.02199520138820112</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1411119087154649</v>
+        <v>0.2985359743061191</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03401532545940883</v>
+        <v>0.04893192662487142</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1410469761043517</v>
+        <v>0.2992125898082441</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01196220073379787</v>
+        <v>0.07579519376430832</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1422756788427303</v>
+        <v>0.2981902312198685</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01170312928671352</v>
+        <v>0.01918772717965863</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1430531415686469</v>
+        <v>0.298753394555927</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02132955065742531</v>
+        <v>0.02186860891001093</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1418830120417789</v>
+        <v>0.3001673184280105</v>
       </c>
       <c r="L249" t="n">
-        <v>0.03432037456770254</v>
+        <v>0.04860340477029135</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1418177246076542</v>
+        <v>0.3008476312826061</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01170312928671352</v>
+        <v>0.07456904367173078</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1430531415686469</v>
+        <v>0.2998196860352776</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01134685028474622</v>
+        <v>0.01890092927061959</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1438306042945634</v>
+        <v>0.3003770543089484</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02131906983537843</v>
+        <v>0.02154063536166534</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1426541153680929</v>
+        <v>0.3017986625499018</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03422580473986458</v>
+        <v>0.04737179619627835</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1425884731109566</v>
+        <v>0.3024826727569681</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01134685028474622</v>
+        <v>0.07423813614108699</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1438306042945634</v>
+        <v>0.3014491408506867</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01139342851823326</v>
+        <v>0.01761291217439147</v>
       </c>
       <c r="G251" t="n">
-        <v>0.14460806702048</v>
+        <v>0.3020007140619697</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02062193647406346</v>
+        <v>0.02101126183007671</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1434252186944069</v>
+        <v>0.3034300066717932</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03383162983884402</v>
+        <v>0.04723705851616408</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1433592216142591</v>
+        <v>0.30411771423133</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01139342851823326</v>
+        <v>0.07320240611249507</v>
       </c>
       <c r="O251" t="n">
-        <v>0.14460806702048</v>
+        <v>0.3030785956660959</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.011242928777512</v>
+        <v>0.01632365951252843</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1453855297463965</v>
+        <v>0.3036243738149911</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02093832375209806</v>
+        <v>0.02078046940215748</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1441963220207209</v>
+        <v>0.3050613507936846</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03463786372759009</v>
+        <v>0.04639914934328029</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1441299701175616</v>
+        <v>0.305752755705692</v>
       </c>
       <c r="N252" t="n">
-        <v>0.011242928777512</v>
+        <v>0.07136178852607339</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1453855297463965</v>
+        <v>0.304708050481505</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01119541585291974</v>
+        <v>0.01603315490658467</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1461629924723131</v>
+        <v>0.3052480335680124</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02046840484810006</v>
+        <v>0.02044823916482003</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1449674253470349</v>
+        <v>0.3066926949155759</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03374452026905184</v>
+        <v>0.04515802629095855</v>
       </c>
       <c r="M253" t="n">
-        <v>0.144900718620864</v>
+        <v>0.307387797180054</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01119541585291974</v>
+        <v>0.07091621832193989</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1461629924723131</v>
+        <v>0.3063375052969141</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01075095453479381</v>
+        <v>0.01774138197811435</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1469404551982297</v>
+        <v>0.3068716933210338</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02021235294068707</v>
+        <v>0.01991455220497676</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1457385286733489</v>
+        <v>0.3083240390374672</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03395161332617852</v>
+        <v>0.04461364697253054</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1456714671241665</v>
+        <v>0.309022838654416</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01075095453479381</v>
+        <v>0.06956563044021297</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1469404551982297</v>
+        <v>0.3079669601123232</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01090960961347153</v>
+        <v>0.01744832434867164</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1477179179241462</v>
+        <v>0.3084953530740551</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02027034120847693</v>
+        <v>0.01967938960954006</v>
       </c>
       <c r="K255" t="n">
-        <v>0.146509631999663</v>
+        <v>0.3099553831593587</v>
       </c>
       <c r="L255" t="n">
-        <v>0.0338591567619192</v>
+        <v>0.04396596900132804</v>
       </c>
       <c r="M255" t="n">
-        <v>0.146442215627469</v>
+        <v>0.310657880128778</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01090960961347153</v>
+        <v>0.06790995982101067</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1477179179241462</v>
+        <v>0.3095964149277323</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01077144587929023</v>
+        <v>0.01715396563981073</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1484953806500628</v>
+        <v>0.3101190128270764</v>
       </c>
       <c r="J256" t="n">
-        <v>0.0200425428300873</v>
+        <v>0.01934273246542235</v>
       </c>
       <c r="K256" t="n">
-        <v>0.147280735325977</v>
+        <v>0.31158672728125</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03386716443922311</v>
+        <v>0.04301494999068264</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1472129641307714</v>
+        <v>0.31229292160314</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01077144587929023</v>
+        <v>0.0673491414044512</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1484953806500628</v>
+        <v>0.3112258697431414</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01043652812258724</v>
+        <v>0.01485828947308578</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1492728433759793</v>
+        <v>0.3117426725800978</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01982913098413594</v>
+        <v>0.01900456185953606</v>
       </c>
       <c r="K257" t="n">
-        <v>0.148051838652291</v>
+        <v>0.3132180714031413</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03407565022103937</v>
+        <v>0.04266054755392598</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1479837126340739</v>
+        <v>0.313927963077502</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01043652812258724</v>
+        <v>0.06628311013065269</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1492728433759793</v>
+        <v>0.3128553245585505</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01050492113369987</v>
+        <v>0.015561279470051</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1500503061018959</v>
+        <v>0.3133663323331191</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0196302788492406</v>
+        <v>0.01856485887879354</v>
       </c>
       <c r="K258" t="n">
-        <v>0.148822941978605</v>
+        <v>0.3148494155250327</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03458462797031719</v>
+        <v>0.04160271930438977</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1487544611373763</v>
+        <v>0.315563004551864</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01050492113369987</v>
+        <v>0.06441180093973348</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1500503061018959</v>
+        <v>0.3144847793739597</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01027668970296545</v>
+        <v>0.01626291925226053</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1508277688278125</v>
+        <v>0.3149899920861405</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01954615960401895</v>
+        <v>0.01832360461010718</v>
       </c>
       <c r="K259" t="n">
-        <v>0.149594045304919</v>
+        <v>0.3164807596469241</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03469411155000562</v>
+        <v>0.04094142285540572</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1495252096406788</v>
+        <v>0.317198046026226</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01027668970296545</v>
+        <v>0.06333514877181151</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1508277688278125</v>
+        <v>0.3161142341893688</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.009951898620721308</v>
+        <v>0.01396319244126857</v>
       </c>
       <c r="G260" t="n">
-        <v>0.151605231553729</v>
+        <v>0.3166136518391618</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01997694642708878</v>
+        <v>0.01798078014038942</v>
       </c>
       <c r="K260" t="n">
-        <v>0.150365148631233</v>
+        <v>0.3181121037688155</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03470411482305391</v>
+        <v>0.03987661582030544</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1502959581439813</v>
+        <v>0.318833087500588</v>
       </c>
       <c r="N260" t="n">
-        <v>0.009951898620721308</v>
+        <v>0.06175308856700518</v>
       </c>
       <c r="O260" t="n">
-        <v>0.151605231553729</v>
+        <v>0.317743689004778</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.009930612677304766</v>
+        <v>0.01566208265862929</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1523826942796456</v>
+        <v>0.3182373115921832</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0193228124970678</v>
+        <v>0.01783636655655269</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1511362519575471</v>
+        <v>0.3197434478907068</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03391465165241114</v>
+        <v>0.03920825581242063</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1510667066472837</v>
+        <v>0.32046812897495</v>
       </c>
       <c r="N261" t="n">
-        <v>0.009930612677304766</v>
+        <v>0.06146555526543263</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1523826942796456</v>
+        <v>0.319373143820187</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.009912896663053138</v>
+        <v>0.01335957352589687</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1531601570055622</v>
+        <v>0.3198609713452045</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01978393099257367</v>
+        <v>0.01729034494550928</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1519073552838611</v>
+        <v>0.3213747920125982</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03372573590102657</v>
+        <v>0.03893630044508289</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1518374551505862</v>
+        <v>0.322103170449312</v>
       </c>
       <c r="N262" t="n">
-        <v>0.009912896663053138</v>
+        <v>0.05947248380721187</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1531601570055622</v>
+        <v>0.3210025986355961</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.00959881536830378</v>
+        <v>0.01305564866462548</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1539376197314787</v>
+        <v>0.3214846310982258</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01986047509222422</v>
+        <v>0.01714269639417174</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1526784586101751</v>
+        <v>0.3230061361344895</v>
       </c>
       <c r="L263" t="n">
-        <v>0.0341373814318493</v>
+        <v>0.03796070733162407</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1526082036538887</v>
+        <v>0.3237382119236739</v>
       </c>
       <c r="N263" t="n">
-        <v>0.00959881536830378</v>
+        <v>0.05847380913246131</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1539376197314787</v>
+        <v>0.3226320534510053</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.009588433583393979</v>
+        <v>0.01375029169636929</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1547150824573953</v>
+        <v>0.3231082908512471</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01925261797463715</v>
+        <v>0.01659340198945235</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1534495619364891</v>
+        <v>0.3246374802563809</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03444960210782844</v>
+        <v>0.03698143408537563</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1533789521571912</v>
+        <v>0.3253732533980359</v>
       </c>
       <c r="N264" t="n">
-        <v>0.009588433583393979</v>
+        <v>0.05696946618129894</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1547150824573953</v>
+        <v>0.3242615082664144</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1312.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1312.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8435655349597692</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04217827674798846</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04217827674798846</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06748524279678154</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06328615717561636</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01328615717561636</v>
+        <v>0.01512646549221072</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008246082333996676</v>
+        <v>0.009388273691361219</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.003072080997301808</v>
+        <v>0.001319936952011401</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001623659753021342</v>
+        <v>0.0004985684211248609</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004190460021332436</v>
+        <v>0.001319936952011401</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001631344121891361</v>
+        <v>0.0004985684211248609</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01152559945941317</v>
+        <v>0.007780794897187721</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001635041474361989</v>
+        <v>0.0009974250470883509</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.02871843487634157</v>
+        <v>0.01203513351962859</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.002399406024262903</v>
+        <v>0.0009985018301988694</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006326741512198267</v>
+        <v>0.002606056733914459</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002748694111332225</v>
+        <v>0.0009971368422497218</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.002606056733914459</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003258423913043476</v>
+        <v>0.0009971368422497218</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.0178455774322186</v>
+        <v>0.01346836032620272</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.002778898745386384</v>
+        <v>0.00177315666086404</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03327312158100659</v>
+        <v>0.02819628151495357</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003258909630818235</v>
+        <v>0.002474759271305872</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00759602607877314</v>
+        <v>0.003839534913318114</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004870979259064028</v>
+        <v>0.001495705263374583</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.009727946902031277</v>
+        <v>0.003839534913318114</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004894032365674083</v>
+        <v>0.001495705263374583</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02376789131250992</v>
+        <v>0.01978647100024924</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004905124423085968</v>
+        <v>0.002992275141265053</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.04001325267328348</v>
+        <v>0.03223584443379962</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004888364446227352</v>
+        <v>0.002995505490596608</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.009625472828569154</v>
+        <v>0.005001547057831283</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00649463901208537</v>
+        <v>0.001994273684499444</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01167367470185734</v>
+        <v>0.005001547057831283</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006525376487565445</v>
+        <v>0.001994273684499444</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02726890257232295</v>
+        <v>0.02497764089579457</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006540165897447958</v>
+        <v>0.003989700188353404</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.04400384163520255</v>
+        <v>0.03848036970456076</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00651781926163647</v>
+        <v>0.003994007320795478</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002748694111332225</v>
+        <v>0.003258423913043476</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006326741512198267</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01328615717561636</v>
+        <v>0.006073268735062899</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008246082333996676</v>
+        <v>0.002492842105624304</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01359349020762311</v>
+        <v>0.006073268735062899</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008156720609456807</v>
+        <v>0.002492842105624304</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02973543132080803</v>
+        <v>0.02951592593537528</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008175207371809948</v>
+        <v>0.004987125235441756</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04831285814884467</v>
+        <v>0.04458283094156762</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008147274077045588</v>
+        <v>0.004992509150994347</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01242271807566471</v>
+        <v>0.007035875512621893</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009741958518128056</v>
+        <v>0.002991410526749165</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01512646549221072</v>
+        <v>0.007035875512621893</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009775271739130427</v>
+        <v>0.002991410526749165</v>
       </c>
       <c r="L71" s="172" t="n">
         <v>0.03367090081550678</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.01051104488078541</v>
+        <v>0.006332702360228711</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.05221533613880286</v>
+        <v>0.05009989203538567</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009399299749163875</v>
+        <v>0.005991010981193217</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01559122263402572</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.0113656182711494</v>
+        <v>0.003258423913043476</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01623962764198275</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01141940885323953</v>
+        <v>0.003258423913043476</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03498190005576088</v>
+        <v>0.03465923785682784</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01144529032053393</v>
+        <v>0.006981975329618456</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.0563657856784191</v>
+        <v>0.05221533613880286</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01140618370786382</v>
+        <v>0.006546982199221878</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01569099238353019</v>
+        <v>0.008711935011515223</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01298927802417074</v>
+        <v>0.003988547368998887</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.0173981491330915</v>
+        <v>0.008711935011515223</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01305075297513089</v>
+        <v>0.003988547368998887</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03742073285551972</v>
+        <v>0.03729910670517805</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01308033179489592</v>
+        <v>0.007979400376706807</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.06088207288903835</v>
+        <v>0.05617864615002749</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01303563852327294</v>
+        <v>0.007988014641590956</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01672108204291996</v>
+        <v>0.009526047208334637</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01461293777719208</v>
+        <v>0.004487115790123748</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01870686704988289</v>
+        <v>0.009526047208334637</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01468209709702225</v>
+        <v>0.004487115790123748</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04023217988230757</v>
+        <v>0.03898021589562259</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.0147153732692579</v>
+        <v>0.008976825423795159</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.0654051529357994</v>
+        <v>0.0600671879699346</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01466509333868206</v>
+        <v>0.008986516471789824</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01668054633093684</v>
+        <v>0.01031959405283509</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01623659753021342</v>
+        <v>0.004985684211248609</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01976024177138946</v>
+        <v>0.01031959405283509</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01631344121891361</v>
+        <v>0.004985684211248609</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04279260152346581</v>
+        <v>0.04149987458364915</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.0163504147436199</v>
+        <v>0.009974250470883511</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.0691030195527334</v>
+        <v>0.06358270902762569</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01629454815409118</v>
+        <v>0.009985018301988694</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01956843996632271</v>
+        <v>0.01108422871608476</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01786025728323477</v>
+        <v>0.005484252632373471</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02095273367664356</v>
+        <v>0.01108422871608476</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01794478534080497</v>
+        <v>0.005484252632373471</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04497835816633591</v>
+        <v>0.04375539192474565</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01798545621798188</v>
+        <v>0.01097167551797186</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07274366647387165</v>
+        <v>0.0663195597959923</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01792400296950029</v>
+        <v>0.01098352013218756</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01838381766781935</v>
+        <v>0.01181160436915179</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01948391703625611</v>
+        <v>0.005982821053498331</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02207880314467774</v>
+        <v>0.01181160436915179</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01957612946269633</v>
+        <v>0.005982821053498331</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04736581019825914</v>
+        <v>0.04564407707439982</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01962049769234387</v>
+        <v>0.01196910056506021</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07609508743324517</v>
+        <v>0.06957209074792609</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01955345778490941</v>
+        <v>0.01198202196238643</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02112573415416859</v>
+        <v>0.01249337418310433</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02110757678927745</v>
+        <v>0.006481389474623191</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02293291055452439</v>
+        <v>0.01249337418310433</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0212074735845877</v>
+        <v>0.006481389474623191</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04993131800657696</v>
+        <v>0.04706323918809951</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02125553916670586</v>
+        <v>0.01296652561214856</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07902527616488519</v>
+        <v>0.0718346523563187</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02118291260031853</v>
+        <v>0.0129805237925853</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02179324414411229</v>
+        <v>0.01312119132901059</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02273123654229879</v>
+        <v>0.006979957895748053</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02370951628521599</v>
+        <v>0.01312119132901059</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02283881770647906</v>
+        <v>0.006979957895748053</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05205124197863079</v>
+        <v>0.04901018742133254</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02289058064106785</v>
+        <v>0.01396395065923691</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08310222640282278</v>
+        <v>0.07550159509406174</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02281236741572765</v>
+        <v>0.01397902562278417</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02238540235639228</v>
+        <v>0.01368670897793868</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02435489629532014</v>
+        <v>0.007478526316872913</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02450308071578497</v>
+        <v>0.01368670897793868</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02447016182837042</v>
+        <v>0.007478526316872913</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05400194250176196</v>
+        <v>0.05088223092958663</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02452562211542984</v>
+        <v>0.01496137570632527</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08499393188108922</v>
+        <v>0.07766726943404684</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02444182223113676</v>
+        <v>0.01497752745298304</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02190126350975036</v>
+        <v>0.01418158030095677</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02597855604834148</v>
+        <v>0.007977094737997775</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02530806422526378</v>
+        <v>0.01418158030095677</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02610150595026178</v>
+        <v>0.007977094737997775</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05555977996331191</v>
+        <v>0.05297667886834972</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02616066358979183</v>
+        <v>0.01595880075341361</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08776838633371553</v>
+        <v>0.08082602584916554</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02607127704654588</v>
+        <v>0.01597602928318191</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0223398823229284</v>
+        <v>0.01459745846913306</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02760221580136282</v>
+        <v>0.008475663159122635</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02581892719268494</v>
+        <v>0.01459745846913306</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02773285007215314</v>
+        <v>0.008475663159122635</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05700111475062197</v>
+        <v>0.05399084039310956</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02779570506415383</v>
+        <v>0.01695622580050197</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08999358349473302</v>
+        <v>0.08307221481230964</v>
       </c>
       <c r="O82" t="n">
-        <v>0.027700731861955</v>
+        <v>0.01697453111338078</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0217003135146682</v>
+        <v>0.01492599665353568</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02922587555438417</v>
+        <v>0.008974231580247495</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02643012999708083</v>
+        <v>0.01492599665353568</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0293641941940445</v>
+        <v>0.008974231580247495</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05850230725103359</v>
+        <v>0.05612202465935395</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02943074653851581</v>
+        <v>0.01795365084759032</v>
       </c>
       <c r="N83" t="n">
-        <v>0.09163751709817258</v>
+        <v>0.08550018679637056</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02933018667736411</v>
+        <v>0.01797303294357965</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02201531488495935</v>
+        <v>0.01512646549221072</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0308495353074055</v>
+        <v>0.009388273691361219</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0268368185083885</v>
+        <v>0.01512646549221072</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03099553831593586</v>
+        <v>0.009388273691361219</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05923971785188809</v>
+        <v>0.05696754082257066</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0310657880128778</v>
+        <v>0.01895107589467867</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0929897895914002</v>
+        <v>0.08820429227424009</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03095964149277323</v>
+        <v>0.01897153477377852</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02232140656844443</v>
+        <v>0.01535808865551778</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03247319506042685</v>
+        <v>0.009971368422497217</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02729572736773099</v>
+        <v>0.01535808865551778</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03262688243782723</v>
+        <v>0.009971368422497217</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06026020413986985</v>
+        <v>0.05842469803824757</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03270082948723979</v>
+        <v>0.01994850094176702</v>
       </c>
       <c r="N85" t="n">
-        <v>0.09472037973388947</v>
+        <v>0.09047888171880974</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03258909630818235</v>
+        <v>0.01997003660397739</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0226165969178464</v>
+        <v>0.01555299606675542</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03409685481344819</v>
+        <v>0.01046993684362208</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02764408187015668</v>
+        <v>0.01555299606675542</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03425822655971859</v>
+        <v>0.01046993684362208</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06134753909412347</v>
+        <v>0.05989080546187248</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03433587096160178</v>
+        <v>0.02094592598885537</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09601294936650379</v>
+        <v>0.09241830560297126</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03421855112359146</v>
+        <v>0.02096853843417626</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02489885778994305</v>
+        <v>0.01574502040711775</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03572051456646954</v>
+        <v>0.01096850526474694</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02777954000770962</v>
+        <v>0.01574502040711775</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03588957068160994</v>
+        <v>0.01096850526474694</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0622081496866054</v>
+        <v>0.06106317224893315</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03597091243596377</v>
+        <v>0.02194335103594372</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09715944212298139</v>
+        <v>0.09361691439961617</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03584800593900059</v>
+        <v>0.02196704026437513</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02316616104151217</v>
+        <v>0.01593417200381506</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03734417431949088</v>
+        <v>0.0114670736858718</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02839975977243381</v>
+        <v>0.01593417200381506</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03752091480350131</v>
+        <v>0.0114670736858718</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06243678717546253</v>
+        <v>0.06233910755491745</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03760595391032576</v>
+        <v>0.02294077608303207</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09725180163706015</v>
+        <v>0.09616905858163616</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0374774607544097</v>
+        <v>0.022965542094574</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02441647852933156</v>
+        <v>0.01612046118405765</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03896783407251223</v>
+        <v>0.01196564210699666</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02850239915637329</v>
+        <v>0.01612046118405765</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03915225892539267</v>
+        <v>0.01196564210699666</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06312820281884168</v>
+        <v>0.06291592053531311</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03924099538468775</v>
+        <v>0.02393820113012042</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0983819715424783</v>
+        <v>0.09676908862192274</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03910691556981882</v>
+        <v>0.02396404392477287</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02564778211017897</v>
+        <v>0.01630389827505578</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04059149382553356</v>
+        <v>0.01246421052812152</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0286851161515721</v>
+        <v>0.01630389827505578</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04078360304728403</v>
+        <v>0.01246421052812152</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06417714787488962</v>
+        <v>0.06429092034560802</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04087603685904974</v>
+        <v>0.02493562617720877</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1001418954729737</v>
+        <v>0.09821135499336769</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04073637038522794</v>
+        <v>0.02496254575497173</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02585804364083222</v>
+        <v>0.01648449360401975</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0422151535785549</v>
+        <v>0.01296277894924638</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02914556875007424</v>
+        <v>0.01648449360401975</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0424149471691754</v>
+        <v>0.01296277894924638</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0645783736017532</v>
+        <v>0.06496141614128997</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04251107833341173</v>
+        <v>0.02593305122429713</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1002235170622846</v>
+        <v>0.1003902081688626</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04236582520063705</v>
+        <v>0.0259610475851706</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02604523497806906</v>
+        <v>0.0166622574981598</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04383881333157625</v>
+        <v>0.01346134737037124</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02948141494392376</v>
+        <v>0.0166622574981598</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04404629129106676</v>
+        <v>0.01346134737037124</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0652266312575791</v>
+        <v>0.06552471707784671</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04414611980777371</v>
+        <v>0.02693047627138548</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1009187799441489</v>
+        <v>0.1009999986212989</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04399528001604617</v>
+        <v>0.02695954941536948</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.0252073279786673</v>
+        <v>0.01683720028468627</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04546247308459759</v>
+        <v>0.01395991579149611</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02959031272516464</v>
+        <v>0.01683720028468627</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04567763541295811</v>
+        <v>0.01395991579149611</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06551667210051432</v>
+        <v>0.0659781323107661</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0457811612821357</v>
+        <v>0.02792790131847383</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1026196277523048</v>
+        <v>0.1024350768235684</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04562473483145529</v>
+        <v>0.02795805124556834</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02434229449940473</v>
+        <v>0.01700933229080942</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04708613283761894</v>
+        <v>0.01445848421262097</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02956992008584097</v>
+        <v>0.01700933229080942</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04730897953484948</v>
+        <v>0.01445848421262097</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06584324738870553</v>
+        <v>0.06671897099553595</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0474162027564977</v>
+        <v>0.02892532636556218</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1028180041204903</v>
+        <v>0.1032897932485628</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0472541896468644</v>
+        <v>0.02895655307576721</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02644810639705911</v>
+        <v>0.01717866384373949</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04870979259064027</v>
+        <v>0.01495705263374583</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02971789501799675</v>
+        <v>0.01717866384373949</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04894032365674084</v>
+        <v>0.01495705263374583</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06650110838029957</v>
+        <v>0.06654454228764406</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04905124423085969</v>
+        <v>0.02992275141265053</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1031058526824434</v>
+        <v>0.1038584983691736</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04888364446227352</v>
+        <v>0.02995505490596609</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02652273552840823</v>
+        <v>0.01734520527068682</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05033345234366162</v>
+        <v>0.01545562105487069</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02993189551367596</v>
+        <v>0.01734520527068682</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0505716677786322</v>
+        <v>0.01545562105487069</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06648500633344329</v>
+        <v>0.06734180163101358</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05068628570522167</v>
+        <v>0.03092017645973888</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1040751170719023</v>
+        <v>0.1036355426582924</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05051309927768264</v>
+        <v>0.03095355673616495</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02657231435123272</v>
+        <v>0.01750896689886165</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05195711209668296</v>
+        <v>0.01595418947599555</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03020957956492272</v>
+        <v>0.01750896689886165</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05220301190052356</v>
+        <v>0.01595418947599555</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06658969250628349</v>
+        <v>0.06703911931582632</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05232132717958366</v>
+        <v>0.03191760150682723</v>
       </c>
       <c r="N97" t="n">
         <v>0.1044306722776057</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05214255409309176</v>
+        <v>0.03195205856636382</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02657135532582561</v>
+        <v>0.01766995905547429</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0535807718497043</v>
+        <v>0.01645275789712041</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03025293098442144</v>
+        <v>0.01766995905547429</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05383435602241492</v>
+        <v>0.01645275789712041</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06734180163101358</v>
+        <v>0.06713338202807856</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05395636865394565</v>
+        <v>0.03291502655391559</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1040256678682893</v>
+        <v>0.1044208186872445</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05377200890850087</v>
+        <v>0.03295056039656269</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02555691128505701</v>
+        <v>0.01782819206773499</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05520443160272565</v>
+        <v>0.01695132631824527</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03014990693597301</v>
+        <v>0.01782819206773499</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05546570014430627</v>
+        <v>0.01695132631824527</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06714113596602492</v>
+        <v>0.06669962575993268</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05559141012830765</v>
+        <v>0.03391245160100393</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1043116956078032</v>
+        <v>0.1038637994702106</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05540146372390999</v>
+        <v>0.03394906222676156</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02452594702987394</v>
+        <v>0.01798367626285406</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05682809135574698</v>
+        <v>0.01744989473937013</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03012909434898865</v>
+        <v>0.01798367626285406</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05709704426619764</v>
+        <v>0.01744989473937013</v>
       </c>
       <c r="L100" t="n">
-        <v>0.067310972586447</v>
+        <v>0.06674169933429688</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05722645160266963</v>
+        <v>0.03490987664809229</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1040273155296866</v>
+        <v>0.1036590389341181</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05703091853931912</v>
+        <v>0.03494756405696043</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02647953145024294</v>
+        <v>0.01813642196804177</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05845175110876834</v>
+        <v>0.01794846316049499</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02998956979968576</v>
+        <v>0.01813642196804177</v>
       </c>
       <c r="K101" t="n">
-        <v>0.058728388388089</v>
+        <v>0.01794846316049499</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06703794223923776</v>
+        <v>0.06686136439664644</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05886149307703162</v>
+        <v>0.03590730169518064</v>
       </c>
       <c r="N101" t="n">
-        <v>0.103779300174841</v>
+        <v>0.1033100127484156</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05866037335472823</v>
+        <v>0.0359460658871593</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02641873343613051</v>
+        <v>0.01828643951050839</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06007541086178967</v>
+        <v>0.01844703158161986</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02993256759379685</v>
+        <v>0.01828643951050839</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06035973250998036</v>
+        <v>0.01844703158161986</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06692481116271917</v>
+        <v>0.0670603825924565</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06049653455139361</v>
+        <v>0.03690472674226899</v>
       </c>
       <c r="N102" t="n">
-        <v>0.103371895480619</v>
+        <v>0.102920196582552</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06028982817013735</v>
+        <v>0.03694456771735816</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02534462187750315</v>
+        <v>0.0184337392174642</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06169907061481101</v>
+        <v>0.01894560000274471</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02975932203705453</v>
+        <v>0.0184337392174642</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06199107663187173</v>
+        <v>0.01894560000274471</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06657434559521316</v>
+        <v>0.06654051556720222</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06213157602575561</v>
+        <v>0.03790215178935734</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1037093473843734</v>
+        <v>0.1026930661059758</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06191928298554647</v>
+        <v>0.03794306954755704</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.0262582656643274</v>
+        <v>0.01857833141611952</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06332273036783236</v>
+        <v>0.01944416842386958</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02997106743519133</v>
+        <v>0.01857833141611952</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06362242075376309</v>
+        <v>0.01944416842386958</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06678931177504174</v>
+        <v>0.06670352496635878</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06376661750011758</v>
+        <v>0.03889957683644569</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1028959018234572</v>
+        <v>0.1032320969881357</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06354873780095557</v>
+        <v>0.03894157137775591</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02416073368656976</v>
+        <v>0.01872022643368458</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06494639012085369</v>
+        <v>0.01994273684499443</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02966903809393984</v>
+        <v>0.01872022643368458</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06525376487565446</v>
+        <v>0.01994273684499443</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0659724759405268</v>
+        <v>0.06625117243540135</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06540165897447958</v>
+        <v>0.03989700188353405</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1021358047352228</v>
+        <v>0.1028407648984802</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06517819261636471</v>
+        <v>0.03994007320795478</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02505309483419677</v>
+        <v>0.0188594345973697</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06657004987387505</v>
+        <v>0.0204413052661193</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02945446831903262</v>
+        <v>0.0188594345973697</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06688510899754581</v>
+        <v>0.0204413052661193</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06592660432999028</v>
+        <v>0.06588521961980512</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06703670044884158</v>
+        <v>0.04089442693062239</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1022333020570233</v>
+        <v>0.1021225455064582</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06680764743177382</v>
+        <v>0.04093857503815364</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0239364179971749</v>
+        <v>0.01899596623438513</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06819370962689639</v>
+        <v>0.02093987368724416</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02962859241620219</v>
+        <v>0.01899596623438513</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06851645311943717</v>
+        <v>0.02093987368724416</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06605446318175426</v>
+        <v>0.0661074281650452</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06867174192320356</v>
+        <v>0.04189185197771075</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1016926397262112</v>
+        <v>0.1017809144815183</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06843710224718293</v>
+        <v>0.04193707686835252</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02381177206547072</v>
+        <v>0.01912983167194118</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06981736937991773</v>
+        <v>0.02143844210836902</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02949264469118118</v>
+        <v>0.01912983167194118</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07014779724132854</v>
+        <v>0.02143844210836902</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06515881873414059</v>
+        <v>0.06581955971659686</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07030678339756555</v>
+        <v>0.0428892770247991</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1015180636801394</v>
+        <v>0.1013193474931089</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07006655706259206</v>
+        <v>0.04293557869855139</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.0256802259290507</v>
+        <v>0.0192610412372481</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07144102913293908</v>
+        <v>0.02193701052949388</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02924785944970212</v>
+        <v>0.0192610412372481</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07177914136321989</v>
+        <v>0.02193701052949388</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06524243722547118</v>
+        <v>0.06542337591993516</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07194182487192753</v>
+        <v>0.04388670207188744</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1009138198561607</v>
+        <v>0.1017413202106791</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07169601187800118</v>
+        <v>0.04393408052875025</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02354284847788138</v>
+        <v>0.01938960525751621</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0730646888859604</v>
+        <v>0.02243557895061874</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02899547099749757</v>
+        <v>0.01938960525751621</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07341048548511125</v>
+        <v>0.02243557895061874</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0647080848940681</v>
+        <v>0.06542063842053539</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07357686634628953</v>
+        <v>0.0448841271189758</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1005841541916278</v>
+        <v>0.1011503083036772</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07332546669341028</v>
+        <v>0.04493258235894913</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02440070860192928</v>
+        <v>0.01951553405995576</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07468834863898176</v>
+        <v>0.0229341473717436</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02893671364030009</v>
+        <v>0.01951553405995576</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07504182960700262</v>
+        <v>0.0229341473717436</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06415852797825325</v>
+        <v>0.0650131088638726</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07521190782065151</v>
+        <v>0.04588155216606415</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09953331262389348</v>
+        <v>0.1002497874415521</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0749549215088194</v>
+        <v>0.04593108418914799</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02525487519116087</v>
+        <v>0.01963883797177703</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0763120083920031</v>
+        <v>0.02343271579286846</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02867282168384226</v>
+        <v>0.01963883797177703</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07667317372889397</v>
+        <v>0.02343271579286846</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0638965327163486</v>
+        <v>0.06530254889542206</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0768469492950135</v>
+        <v>0.0468789772131525</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09856554109031046</v>
+        <v>0.09974323329375223</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07658437632422853</v>
+        <v>0.04692958601934686</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02510641713554272</v>
+        <v>0.0197595273201903</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07793566814502445</v>
+        <v>0.02393128421399332</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02870502943385662</v>
+        <v>0.0197595273201903</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07830451785078534</v>
+        <v>0.02393128421399332</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06362486534667608</v>
+        <v>0.0644907201606589</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0784819907693755</v>
+        <v>0.04787640226024085</v>
       </c>
       <c r="N113" t="n">
-        <v>0.09868508552823152</v>
+        <v>0.09913412152972639</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07821383113963763</v>
+        <v>0.04792808784954573</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02295640332504136</v>
+        <v>0.01987761243240588</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07955932789804579</v>
+        <v>0.02442985263511818</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02833457119607577</v>
+        <v>0.01987761243240588</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0799358619726767</v>
+        <v>0.02442985263511818</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06334629210755768</v>
+        <v>0.0645793843050583</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08011703224373749</v>
+        <v>0.0488738273073292</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09839619187500953</v>
+        <v>0.09942592781892318</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07984328595504675</v>
+        <v>0.0489265896797446</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02380590264962322</v>
+        <v>0.01999310363563404</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08118298765106713</v>
+        <v>0.02492842105624304</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02816268127623223</v>
+        <v>0.01999310363563404</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08156720609456806</v>
+        <v>0.02492842105624304</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06266357923731533</v>
+        <v>0.06437030297409543</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08175207371809948</v>
+        <v>0.04987125235441755</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09710310606799716</v>
+        <v>0.09892212783079135</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08147274077045588</v>
+        <v>0.04992509150994347</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02365598399925489</v>
+        <v>0.02010601125708504</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08280664740408847</v>
+        <v>0.02542698947736791</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0281905939800586</v>
+        <v>0.02010601125708504</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08319855021645943</v>
+        <v>0.02542698947736791</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06227949297427099</v>
+        <v>0.06426523781324542</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08338711519246146</v>
+        <v>0.0508686774015059</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09681007404454717</v>
+        <v>0.09812619723477944</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08310219558586499</v>
+        <v>0.05092359334014234</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02350771626390286</v>
+        <v>0.02021634562396918</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08443030715710981</v>
+        <v>0.02592555789849276</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02791954361328743</v>
+        <v>0.02021634562396918</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08482989433835079</v>
+        <v>0.02592555789849276</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06249679955674659</v>
+        <v>0.06386595046798352</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08502215666682346</v>
+        <v>0.05186610244859426</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09562134174201231</v>
+        <v>0.09774161170033618</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0847316504012741</v>
+        <v>0.05192209517034121</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02235013281597979</v>
+        <v>0.02032411706349674</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08605396691013116</v>
+        <v>0.02642412631961763</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02774975225578132</v>
+        <v>0.02032411706349674</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08646123846024215</v>
+        <v>0.02642412631961763</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06151826522306417</v>
+        <v>0.06387420258378484</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08665719814118544</v>
+        <v>0.05286352749568261</v>
       </c>
       <c r="N118" t="n">
-        <v>0.09573148172042417</v>
+        <v>0.09717184689691027</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08636110521668323</v>
+        <v>0.05292059700054007</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02217096292250972</v>
+        <v>0.02042933590287797</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0876776266631525</v>
+        <v>0.02692269474074249</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02746141051451413</v>
+        <v>0.02042933590287797</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08809258258213351</v>
+        <v>0.02692269474074249</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06161719190707424</v>
+        <v>0.06359175580612458</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08829223961554743</v>
+        <v>0.05386095254277096</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09466740894777137</v>
+        <v>0.09742037849395024</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08799056003209234</v>
+        <v>0.05391909883073896</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02297364764146095</v>
+        <v>0.02053201246932321</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08930128641617384</v>
+        <v>0.02742126316186735</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02714946724374244</v>
+        <v>0.02053201246932321</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08972392670402488</v>
+        <v>0.02742126316186735</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06126060379814527</v>
+        <v>0.06332037178047789</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08992728108990941</v>
+        <v>0.0548583775898593</v>
       </c>
       <c r="N120" t="n">
-        <v>0.09362437998094891</v>
+        <v>0.09669068216090487</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08962001484750146</v>
+        <v>0.05491760066093782</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02176166954411436</v>
+        <v>0.02063215709004269</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09092494616919518</v>
+        <v>0.02791983158299221</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02691794395908591</v>
+        <v>0.02063215709004269</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09135527082591623</v>
+        <v>0.02791983158299221</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06075729876478952</v>
+        <v>0.06346181215232</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09156232256427141</v>
+        <v>0.05585580263694765</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09361622859139124</v>
+        <v>0.09658623356722273</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09124946966291059</v>
+        <v>0.05591610249113668</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02253851120175089</v>
+        <v>0.02072978009224671</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09254860592221652</v>
+        <v>0.02841840000411707</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02687086217616426</v>
+        <v>0.02072978009224671</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09298661494780759</v>
+        <v>0.02841840000411707</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05971628954212285</v>
+        <v>0.06341783856712599</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09319736403863339</v>
+        <v>0.05685322768403601</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09195678855053269</v>
+        <v>0.09671050838235251</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09287892447831969</v>
+        <v>0.05691460432133556</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02330765518565144</v>
+        <v>0.02082489180314556</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09417226567523787</v>
+        <v>0.02891696842524193</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02651224341059721</v>
+        <v>0.02082489180314556</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09461795906969896</v>
+        <v>0.02891696842524193</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05934658886526109</v>
+        <v>0.0630902126703711</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09483240551299539</v>
+        <v>0.05785065273112436</v>
       </c>
       <c r="N123" t="n">
-        <v>0.09165989362980764</v>
+        <v>0.0960669822757429</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09450837929372881</v>
+        <v>0.05791310615153442</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02307258406709692</v>
+        <v>0.02091750254994949</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09579592542825921</v>
+        <v>0.02941553684636679</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02624610917800445</v>
+        <v>0.02091750254994949</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09624930319159032</v>
+        <v>0.02941553684636679</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05855720946932003</v>
+        <v>0.06288069610753047</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09646744698735739</v>
+        <v>0.05884807777821272</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09023937760065059</v>
+        <v>0.09645913091684249</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09613783410913794</v>
+        <v>0.05891160798173329</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02083678041736824</v>
+        <v>0.02100762265986884</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09741958518128055</v>
+        <v>0.02991410526749165</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02597648099400569</v>
+        <v>0.02100762265986884</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09788064731348167</v>
+        <v>0.02991410526749165</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05805716408941558</v>
+        <v>0.06309072075397035</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09810248846171937</v>
+        <v>0.05984550282530107</v>
       </c>
       <c r="N125" t="n">
-        <v>0.09010907423449577</v>
+        <v>0.09589040479304661</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09776728892454704</v>
+        <v>0.05991010981193217</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02260372680774628</v>
+        <v>0.02109526246011383</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0990432449343019</v>
+        <v>0.03041267368861651</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02560738037422065</v>
+        <v>0.02109526246011383</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09951199143537304</v>
+        <v>0.03041267368861651</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05735546546066358</v>
+        <v>0.06290901582908662</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09973752993608136</v>
+        <v>0.06084292787238941</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0892828173027776</v>
+        <v>0.09594086612102054</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09939674373995616</v>
+        <v>0.06090861164213104</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.022376905809512</v>
+        <v>0.02118043227789476</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1006669046873232</v>
+        <v>0.03091124210974138</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02554282883426899</v>
+        <v>0.02118043227789476</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1011433355572644</v>
+        <v>0.03091124210974138</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05706112631817992</v>
+        <v>0.06282932598960392</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1013725714104433</v>
+        <v>0.06184035291947776</v>
       </c>
       <c r="N127" t="n">
-        <v>0.08777444057693046</v>
+        <v>0.09599147267233776</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1010261985553653</v>
+        <v>0.0619071134723299</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02015979999394626</v>
+        <v>0.02126314244042192</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1022905644403446</v>
+        <v>0.03140981053086624</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02508684788977045</v>
+        <v>0.02126314244042192</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1027746796791558</v>
+        <v>0.03140981053086624</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05608315939708036</v>
+        <v>0.06235165702049977</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1030076128848053</v>
+        <v>0.06283777796656612</v>
       </c>
       <c r="N128" t="n">
-        <v>0.08709777782838879</v>
+        <v>0.09564274364658049</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1026556533707744</v>
+        <v>0.06290561530252878</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01994386924048762</v>
+        <v>0.02134340327490558</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1039142241933659</v>
+        <v>0.0319083789519911</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02504294466862422</v>
+        <v>0.02134340327490558</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1044060238010471</v>
+        <v>0.0319083789519911</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05593057743248075</v>
+        <v>0.06267601470675171</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1046426543591673</v>
+        <v>0.06383520301365446</v>
       </c>
       <c r="N129" t="n">
-        <v>0.08595937702720496</v>
+        <v>0.09559519824333068</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1042851081861835</v>
+        <v>0.06390411713272764</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02070789866018377</v>
+        <v>0.02142122510855606</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1055378839463873</v>
+        <v>0.03240694737311596</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02468756564859649</v>
+        <v>0.02142122510855606</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1060373679229385</v>
+        <v>0.03240694737311596</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05527710384742668</v>
+        <v>0.06260240483333718</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1062776958335293</v>
+        <v>0.06483262806074282</v>
       </c>
       <c r="N130" t="n">
-        <v>0.08556577893759887</v>
+        <v>0.09534935566217057</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1059145630015926</v>
+        <v>0.06490261896292651</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01945603117082526</v>
+        <v>0.02149661826858355</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1071615436994086</v>
+        <v>0.03290551579424082</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02431028237149313</v>
+        <v>0.02149661826858355</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1076687120448298</v>
+        <v>0.03290551579424082</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05477191705150522</v>
+        <v>0.06233083318523364</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1079127373078913</v>
+        <v>0.06583005310783117</v>
       </c>
       <c r="N131" t="n">
-        <v>0.084499820941423</v>
+        <v>0.09450573510268234</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1075440178170017</v>
+        <v>0.06590112079312538</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02019325207422093</v>
+        <v>0.02156959308219844</v>
       </c>
       <c r="G132" t="n">
-        <v>0.10878520345243</v>
+        <v>0.03340408421536568</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02401685163810181</v>
+        <v>0.02156959308219844</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1093000561667212</v>
+        <v>0.03340408421536568</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05372674328910981</v>
+        <v>0.06226130554741863</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1095477787822533</v>
+        <v>0.06682747815491952</v>
       </c>
       <c r="N132" t="n">
-        <v>0.08298130608653831</v>
+        <v>0.09506485576444806</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1091734726324109</v>
+        <v>0.06689962262332425</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01992454667217963</v>
+        <v>0.02164015987661093</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1104088632054513</v>
+        <v>0.03390265263649054</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02381303024921028</v>
+        <v>0.02164015987661093</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1109314002886125</v>
+        <v>0.03390265263649054</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05335448429319903</v>
+        <v>0.06229382770486958</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1111828202566153</v>
+        <v>0.06782490320200786</v>
       </c>
       <c r="N133" t="n">
-        <v>0.08233003742080575</v>
+        <v>0.09412723684704982</v>
       </c>
       <c r="O133" t="n">
-        <v>0.11080292744782</v>
+        <v>0.06789812445352311</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01865490026651022</v>
+        <v>0.02170832897903135</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1120325229584726</v>
+        <v>0.0344012210576154</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02340457500560625</v>
+        <v>0.02170832897903135</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1125627444105039</v>
+        <v>0.0344012210576154</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05276804179673161</v>
+        <v>0.06192840544256403</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1128178617309773</v>
+        <v>0.06882232824909622</v>
       </c>
       <c r="N134" t="n">
-        <v>0.08146581799208635</v>
+        <v>0.09439339755006987</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1124323822632291</v>
+        <v>0.06889662628372199</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01838929815902152</v>
+        <v>0.02177411071666996</v>
       </c>
       <c r="G135" t="n">
-        <v>0.113656182711494</v>
+        <v>0.03489978947874026</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02309724270807742</v>
+        <v>0.02177411071666996</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1141940885323953</v>
+        <v>0.03489978947874026</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0517803175326661</v>
+        <v>0.06206504454547948</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1144529032053393</v>
+        <v>0.06981975329618458</v>
       </c>
       <c r="N135" t="n">
-        <v>0.08060845084824092</v>
+        <v>0.09476385707309026</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1140618370786382</v>
+        <v>0.06989512811392086</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01913272565152239</v>
+        <v>0.02183751541673704</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1152798424645153</v>
+        <v>0.03539835789986513</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02279679015741153</v>
+        <v>0.02183751541673704</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1158254326542866</v>
+        <v>0.03539835789986513</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05140421323396116</v>
+        <v>0.06180375079859332</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1160879446797012</v>
+        <v>0.07081717834327292</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07937773903713047</v>
+        <v>0.09413913461569307</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1156912918940473</v>
+        <v>0.07089362994411973</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01889016804582166</v>
+        <v>0.02189855340644287</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1169035022175367</v>
+        <v>0.03589692632098998</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02270897415439624</v>
+        <v>0.02189855340644287</v>
       </c>
       <c r="K137" t="n">
-        <v>0.117456776776178</v>
+        <v>0.03589692632098998</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05075263063357541</v>
+        <v>0.06164452998688313</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1177229861540632</v>
+        <v>0.07181460339036128</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07819348560661582</v>
+        <v>0.09461974937746048</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1173207467094565</v>
+        <v>0.07189213177431859</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0196666106437282</v>
+        <v>0.02195723501299773</v>
       </c>
       <c r="G138" t="n">
-        <v>0.118527161970558</v>
+        <v>0.03639549474211484</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02233955149981932</v>
+        <v>0.02195723501299773</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1190881208980694</v>
+        <v>0.03639549474211484</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05003847146446749</v>
+        <v>0.06198738789532632</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1193580276284252</v>
+        <v>0.07281202843744963</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07737549360455803</v>
+        <v>0.09440622055797471</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1189502015248656</v>
+        <v>0.07289063360451746</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01946703874705084</v>
+        <v>0.02201357056361192</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1201508217235793</v>
+        <v>0.03689406316323971</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02209427899446847</v>
+        <v>0.02201357056361192</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1207194650199607</v>
+        <v>0.03689406316323971</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04947463745959593</v>
+        <v>0.06163233030890045</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1209930691027872</v>
+        <v>0.07380945348453798</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07614356607881811</v>
+        <v>0.09359906735681767</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1205796563402747</v>
+        <v>0.07388913543471633</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01829643765759843</v>
+        <v>0.02206757038549571</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1217744814766007</v>
+        <v>0.03739263158436457</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02207891343913139</v>
+        <v>0.02206757038549571</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1223508091418521</v>
+        <v>0.03739263158436457</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04867403035191953</v>
+        <v>0.061479363012583</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1226281105771492</v>
+        <v>0.07480687853162632</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07541750607725684</v>
+        <v>0.09389880897357172</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1222091111556838</v>
+        <v>0.07488763726491521</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01915979267717981</v>
+        <v>0.02211924480585935</v>
       </c>
       <c r="G141" t="n">
-        <v>0.123398141229622</v>
+        <v>0.03789120000548943</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02179921163459581</v>
+        <v>0.02211924480585935</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1239821532637435</v>
+        <v>0.03789120000548943</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04844955187439676</v>
+        <v>0.06202849179135139</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1242631520515112</v>
+        <v>0.07580430357871468</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07491711664773532</v>
+        <v>0.09410596460781895</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1238385659710929</v>
+        <v>0.07588613909511407</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01806208910760382</v>
+        <v>0.02216860415191318</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1250218009826434</v>
+        <v>0.03838976842661429</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02166093038164942</v>
+        <v>0.02216860415191318</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1256134973856348</v>
+        <v>0.03838976842661429</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04791410375998637</v>
+        <v>0.06137972243018316</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1258981935258732</v>
+        <v>0.07680172862580303</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07506220083811427</v>
+        <v>0.09412105345914135</v>
       </c>
       <c r="O142" t="n">
-        <v>0.125468020786502</v>
+        <v>0.07688464092531294</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01700831225067932</v>
+        <v>0.02221565875086744</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1266454607356647</v>
+        <v>0.03888833684773915</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02166982648107996</v>
+        <v>0.02221565875086744</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1272448415075262</v>
+        <v>0.03888833684773915</v>
       </c>
       <c r="L143" t="n">
-        <v>0.04818058774164688</v>
+        <v>0.06153306071405576</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1275332350002352</v>
+        <v>0.07779915367289138</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07397256169625477</v>
+        <v>0.09314459472712122</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1270974756019111</v>
+        <v>0.07788314275551182</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01699981160277125</v>
+        <v>0.02226041892993241</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1282691204886861</v>
+        <v>0.03938690526886401</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02153165673367512</v>
+        <v>0.02226041892993241</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1288761856294175</v>
+        <v>0.03938690526886401</v>
       </c>
       <c r="L144" t="n">
-        <v>0.04766190555233693</v>
+        <v>0.06168851242794671</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1291682764745972</v>
+        <v>0.07879657871997973</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07446800227001782</v>
+        <v>0.09387710761134049</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1287269304173203</v>
+        <v>0.07888164458571068</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01700647139993823</v>
+        <v>0.02230289501631841</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1298927802417074</v>
+        <v>0.03988547368998887</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02143383397594054</v>
+        <v>0.02230289501631841</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1305075297513089</v>
+        <v>0.03988547368998887</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04755244915581355</v>
+        <v>0.0613460833568335</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1308033179489592</v>
+        <v>0.07979400376706809</v>
       </c>
       <c r="N145" t="n">
-        <v>0.07428190226304199</v>
+        <v>0.09291911131138147</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1303563852327294</v>
+        <v>0.07988014641590956</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01902018489018931</v>
+        <v>0.02234309733723566</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1315164399947287</v>
+        <v>0.04038404211111374</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02154504710718244</v>
+        <v>0.02234309733723566</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1321388738732003</v>
+        <v>0.04038404211111374</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04777255856402904</v>
+        <v>0.06150577928569362</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1324383594233212</v>
+        <v>0.08079142881415642</v>
       </c>
       <c r="N146" t="n">
-        <v>0.07392439886809221</v>
+        <v>0.09287112502682621</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1319858400481385</v>
+        <v>0.08087864824610842</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01804058575536355</v>
+        <v>0.02238103621989447</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1331400997477501</v>
+        <v>0.04088261053223859</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02156418126251072</v>
+        <v>0.02238103621989447</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1337702179950916</v>
+        <v>0.04088261053223859</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04781063282991158</v>
+        <v>0.0615676059995045</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1340734008976832</v>
+        <v>0.08178885386124478</v>
       </c>
       <c r="N147" t="n">
-        <v>0.07419397582566917</v>
+        <v>0.09363366795725692</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1336152948635476</v>
+        <v>0.08187715007630729</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01906730767730005</v>
+        <v>0.02241672199150516</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1347637595007714</v>
+        <v>0.04138117895336346</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02149081343430058</v>
+        <v>0.02241672199150516</v>
       </c>
       <c r="K148" t="n">
-        <v>0.135401562116983</v>
+        <v>0.04138117895336346</v>
       </c>
       <c r="L148" t="n">
-        <v>0.04776572393882306</v>
+        <v>0.06153156928324363</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1357084423720451</v>
+        <v>0.08278627890833314</v>
       </c>
       <c r="N148" t="n">
-        <v>0.07478917801502938</v>
+        <v>0.09340725930225552</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1352447496789567</v>
+        <v>0.08287565190650617</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01809998433783785</v>
+        <v>0.02245016497927796</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1363874192537928</v>
+        <v>0.04187974737448832</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02142452061492711</v>
+        <v>0.02245016497927796</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1370329062388743</v>
+        <v>0.04187974737448832</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04793688387612538</v>
+        <v>0.06119767492188857</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1373434838464071</v>
+        <v>0.08378370395542149</v>
       </c>
       <c r="N149" t="n">
-        <v>0.07500855031542986</v>
+        <v>0.09289241826140449</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1368742044943659</v>
+        <v>0.08387415373670504</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01713824941881605</v>
+        <v>0.02248137551042316</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1380110790068141</v>
+        <v>0.04237831579561318</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02146487979676547</v>
+        <v>0.02248137551042316</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1386642503607657</v>
+        <v>0.04237831579561318</v>
       </c>
       <c r="L150" t="n">
-        <v>0.04782316462718048</v>
+        <v>0.06146590590947318</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1389785253207691</v>
+        <v>0.08478112900250984</v>
       </c>
       <c r="N150" t="n">
-        <v>0.07495063760612725</v>
+        <v>0.0934898294587802</v>
       </c>
       <c r="O150" t="n">
-        <v>0.138503659309775</v>
+        <v>0.08487265556690389</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0181817366020737</v>
+        <v>0.02251036391215104</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1396347387598355</v>
+        <v>0.04287688421673803</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02161146797219077</v>
+        <v>0.02251036391215104</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1402955944826571</v>
+        <v>0.04287688421673803</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04812361817735011</v>
+        <v>0.06163602087885664</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1406135667951311</v>
+        <v>0.08577855404959819</v>
       </c>
       <c r="N151" t="n">
-        <v>0.07471398476637847</v>
+        <v>0.09330266175364627</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1401331141251841</v>
+        <v>0.08587115739710277</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01723007956944989</v>
+        <v>0.0225371405116719</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1412583985128568</v>
+        <v>0.0433754526378629</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02186386213357817</v>
+        <v>0.0225371405116719</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1419269386045484</v>
+        <v>0.0433754526378629</v>
       </c>
       <c r="L152" t="n">
-        <v>0.0486372965119963</v>
+        <v>0.06140787072798212</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1422486082694931</v>
+        <v>0.08677597909668654</v>
       </c>
       <c r="N152" t="n">
-        <v>0.07549713667544028</v>
+        <v>0.09383127439467381</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1417625689405932</v>
+        <v>0.08686965922730164</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01828291200278368</v>
+        <v>0.02256171563619602</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1428820582658782</v>
+        <v>0.04387402105898777</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0219216392733028</v>
+        <v>0.02256171563619602</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1435582827264398</v>
+        <v>0.04387402105898777</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04856325161648087</v>
+        <v>0.0612813511983199</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1438836497438551</v>
+        <v>0.08777340414377488</v>
       </c>
       <c r="N153" t="n">
-        <v>0.07469863821256945</v>
+        <v>0.09307476689489635</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1433920237560024</v>
+        <v>0.0878681610575005</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01733986758391416</v>
+        <v>0.02258409961293367</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1445057180188995</v>
+        <v>0.04437258948011262</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02168437638373982</v>
+        <v>0.02258409961293367</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1451896268483312</v>
+        <v>0.04437258948011262</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04890053547616571</v>
+        <v>0.06105635803134041</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1455186912182171</v>
+        <v>0.08877082919086324</v>
       </c>
       <c r="N154" t="n">
-        <v>0.07591703425702284</v>
+        <v>0.09343223876734741</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1450214785714115</v>
+        <v>0.08886666288769939</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01740057999468037</v>
+        <v>0.02260430276909513</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1461293777719208</v>
+        <v>0.04487115790123748</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02175165045726435</v>
+        <v>0.02260430276909513</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1468209709702225</v>
+        <v>0.04487115790123748</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04884820007641275</v>
+        <v>0.06133278696851396</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1471537326925791</v>
+        <v>0.08976825423795159</v>
       </c>
       <c r="N155" t="n">
-        <v>0.07515086968805723</v>
+        <v>0.09370278952506045</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1466509333868206</v>
+        <v>0.08986516471789825</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01946745156220763</v>
+        <v>0.02262233543189067</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1477530375249421</v>
+        <v>0.04536972632236234</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02182303848625153</v>
+        <v>0.02262233543189067</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1484523150921139</v>
+        <v>0.04536972632236234</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04920529740258384</v>
+        <v>0.06121053375131091</v>
       </c>
       <c r="M156" t="n">
-        <v>0.148788774166941</v>
+        <v>0.09076567928503994</v>
       </c>
       <c r="N156" t="n">
-        <v>0.07639868938492927</v>
+        <v>0.09328551868106905</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1482803882022297</v>
+        <v>0.09086366654809712</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01958296541387134</v>
+        <v>0.02263820792853058</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1493766972779635</v>
+        <v>0.04586829474348721</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02222029028118239</v>
+        <v>0.02263820792853058</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1500836592140052</v>
+        <v>0.04586829474348721</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04939469735338731</v>
+        <v>0.06118949412120162</v>
       </c>
       <c r="M157" t="n">
-        <v>0.150423815641303</v>
+        <v>0.0917631043321283</v>
       </c>
       <c r="N157" t="n">
-        <v>0.07676102856101541</v>
+        <v>0.09347952574840662</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1499098430176388</v>
+        <v>0.09186216837829599</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01775319308033976</v>
+        <v>0.02265193058622515</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1510003570309849</v>
+        <v>0.04636686316461206</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02238504375773977</v>
+        <v>0.02265193058622515</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1517150033358966</v>
+        <v>0.04636686316461206</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04932753670085396</v>
+        <v>0.06136956381965639</v>
       </c>
       <c r="M158" t="n">
-        <v>0.152058857115665</v>
+        <v>0.09276052937921664</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0763555191412647</v>
+        <v>0.09328391024010663</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1515392978330479</v>
+        <v>0.09286067020849485</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01996707630047488</v>
+        <v>0.02266351373218467</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1526240167840062</v>
+        <v>0.04686543158573692</v>
       </c>
       <c r="J159" t="n">
-        <v>0.022506347182635</v>
+        <v>0.02266351373218467</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1533463474577879</v>
+        <v>0.04686543158573692</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04959368498395997</v>
+        <v>0.06095063858814556</v>
       </c>
       <c r="M159" t="n">
-        <v>0.153693898590027</v>
+        <v>0.093757954426305</v>
       </c>
       <c r="N159" t="n">
-        <v>0.07763936493477025</v>
+        <v>0.09369777166920268</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1531687526484571</v>
+        <v>0.09385917203869372</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01921355681313871</v>
+        <v>0.02267296769361939</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1542476765370275</v>
+        <v>0.04736400000686179</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02257143097663881</v>
+        <v>0.02267296769361939</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1549776915796793</v>
+        <v>0.04736400000686179</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05046452392889572</v>
+        <v>0.06083261416813956</v>
       </c>
       <c r="M160" t="n">
-        <v>0.155328940064389</v>
+        <v>0.09475537947339334</v>
       </c>
       <c r="N160" t="n">
-        <v>0.07806863935835384</v>
+        <v>0.09352020954872814</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1547982074638662</v>
+        <v>0.0948576738688926</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02048157635719325</v>
+        <v>0.02268030279773962</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1558713362900489</v>
+        <v>0.04786256842798665</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02316752556052185</v>
+        <v>0.02268030279773962</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1566090357015707</v>
+        <v>0.04786256842798665</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05101143526185159</v>
+        <v>0.06141538630110868</v>
       </c>
       <c r="M161" t="n">
-        <v>0.156963981538751</v>
+        <v>0.0957528045204817</v>
       </c>
       <c r="N161" t="n">
-        <v>0.07969941582883738</v>
+        <v>0.09415032339171658</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1564276622792753</v>
+        <v>0.09585617569909147</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.0207600766715005</v>
+        <v>0.02268552937175561</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1574949960430702</v>
+        <v>0.04836113684911151</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02318186135505487</v>
+        <v>0.02268552937175561</v>
       </c>
       <c r="K162" t="n">
-        <v>0.158240379823462</v>
+        <v>0.04836113684911151</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05170580070901792</v>
+        <v>0.06129885072852334</v>
       </c>
       <c r="M162" t="n">
-        <v>0.158599023013113</v>
+        <v>0.09675022956757005</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08078776776304258</v>
+        <v>0.09448721271120153</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1580571170946844</v>
+        <v>0.09685467752929033</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02003799949492245</v>
+        <v>0.02268865774287768</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1591186557960916</v>
+        <v>0.04885970527023636</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02360166878100857</v>
+        <v>0.02268865774287768</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1598717239453534</v>
+        <v>0.04885970527023636</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05261900199658509</v>
+        <v>0.06138290319185374</v>
       </c>
       <c r="M163" t="n">
-        <v>0.160234064487475</v>
+        <v>0.0977476546146584</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08198976857779122</v>
+        <v>0.09492997702021638</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1596865719100935</v>
+        <v>0.0978531793594892</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0193042865663211</v>
+        <v>0.02268969823831607</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1607423155491129</v>
+        <v>0.04935827369136123</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02411417825915366</v>
+        <v>0.02268969823831607</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1615030680672448</v>
+        <v>0.04935827369136123</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05292242085074339</v>
+        <v>0.06126743943257035</v>
       </c>
       <c r="M164" t="n">
-        <v>0.161869105961837</v>
+        <v>0.09874507966174675</v>
       </c>
       <c r="N164" t="n">
-        <v>0.08246149168990535</v>
+        <v>0.09427771583179467</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1613160267255026</v>
+        <v>0.09885168118968807</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01954787962455844</v>
+        <v>0.02268969823831608</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1623659753021343</v>
+        <v>0.04935827369136123</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02430662021026082</v>
+        <v>0.02268969823831608</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1631344121891361</v>
+        <v>0.04935827369136123</v>
       </c>
       <c r="L165" t="n">
-        <v>0.0535874389976832</v>
+        <v>0.06125235519214353</v>
       </c>
       <c r="M165" t="n">
-        <v>0.163504147436199</v>
+        <v>0.0997425047088351</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08335901051620659</v>
+        <v>0.09482952865896999</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1629454815409118</v>
+        <v>0.09985018301988693</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02175853870705868</v>
+        <v>0.02215986821726662</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1639896350551556</v>
+        <v>0.04935800516289721</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02436622505510082</v>
+        <v>0.02215986821726662</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1647657563110275</v>
+        <v>0.04935800516289721</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0543854381635949</v>
+        <v>0.06123754621204353</v>
       </c>
       <c r="M166" t="n">
-        <v>0.165139188910561</v>
+        <v>0.1007399297559235</v>
       </c>
       <c r="N166" t="n">
-        <v>0.0850383984735168</v>
+        <v>0.09448451501477562</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1645749363563208</v>
+        <v>0.1008486848500858</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02095329489356131</v>
+        <v>0.02163607999044902</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1656132948081769</v>
+        <v>0.04935773663443319</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0246930225644556</v>
+        <v>0.02163607999044902</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1663971004329189</v>
+        <v>0.04935773663443319</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05510165496850658</v>
+        <v>0.06102290823374079</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1667742303849229</v>
+        <v>0.1017373548030118</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08601487355313558</v>
+        <v>0.09474177441224524</v>
       </c>
       <c r="O167" t="n">
-        <v>0.16620439117173</v>
+        <v>0.1018471866802847</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02214328111663072</v>
+        <v>0.02111903097435941</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1672369545611983</v>
+        <v>0.04935746810596917</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02491279044342952</v>
+        <v>0.02111903097435941</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1680284445548102</v>
+        <v>0.04935746810596917</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05579464640867252</v>
+        <v>0.06100833699870561</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1684092718592849</v>
+        <v>0.1027347798501002</v>
       </c>
       <c r="N168" t="n">
-        <v>0.08667051874403725</v>
+        <v>0.09530040636441228</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1678338459871391</v>
+        <v>0.1028456885104835</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02032884817759319</v>
+        <v>0.02060941858544872</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1688606143142196</v>
+        <v>0.04935719957750515</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0250272961289177</v>
+        <v>0.02060941858544872</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1696597886767016</v>
+        <v>0.04935719957750515</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0557756741790594</v>
+        <v>0.06079372824840834</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1700443133336469</v>
+        <v>0.1037322048971885</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08690819642569336</v>
+        <v>0.09545951038431022</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1694633008025482</v>
+        <v>0.1038441903406824</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02151034687777498</v>
+        <v>0.02010794024021244</v>
       </c>
       <c r="G170" t="n">
-        <v>0.170484274067241</v>
+        <v>0.04935693104904114</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02553694471040696</v>
+        <v>0.02010794024021244</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1712911327985929</v>
+        <v>0.04935693104904114</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0561456461374473</v>
+        <v>0.06117897772431935</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1716793548080089</v>
+        <v>0.1047296299442769</v>
       </c>
       <c r="N170" t="n">
-        <v>0.0882293000815319</v>
+        <v>0.09561818598497263</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1710927556179573</v>
+        <v>0.1048426921708813</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02268812801850238</v>
+        <v>0.01961529335510213</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1721079338202623</v>
+        <v>0.04935666252057712</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02574214127738414</v>
+        <v>0.01961529335510213</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1729224769204843</v>
+        <v>0.04935666252057712</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05710547014161629</v>
+        <v>0.06076398116790896</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1733143962823709</v>
+        <v>0.1057270549913652</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08873522319498089</v>
+        <v>0.09597553267943287</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1727222104333665</v>
+        <v>0.1058411940010801</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02086254240110165</v>
+        <v>0.01913217534661264</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1737315935732837</v>
+        <v>0.04935639399211311</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02574329091933605</v>
+        <v>0.01913217534661264</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1745538210423757</v>
+        <v>0.04935639399211311</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05715605404934643</v>
+        <v>0.06104863432064758</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1749494377567329</v>
+        <v>0.1067244800384536</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08952735924946803</v>
+        <v>0.09573064998072456</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1743516652487755</v>
+        <v>0.106839695831279</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02103394082689905</v>
+        <v>0.01865928363119625</v>
       </c>
       <c r="G173" t="n">
-        <v>0.175355253326305</v>
+        <v>0.04935612546364909</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02614079872574956</v>
+        <v>0.01865928363119625</v>
       </c>
       <c r="K173" t="n">
-        <v>0.176185165164267</v>
+        <v>0.04935612546364909</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05749830571841771</v>
+        <v>0.06113283292400548</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1765844792310949</v>
+        <v>0.1077219050855419</v>
       </c>
       <c r="N173" t="n">
-        <v>0.08990710172842137</v>
+        <v>0.0961826374018811</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1759811200641847</v>
+        <v>0.1078381976614779</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02320267409722088</v>
+        <v>0.01819731562534695</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1769789130793263</v>
+        <v>0.04935585693518507</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02633506978611143</v>
+        <v>0.01819731562534695</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1778165092861584</v>
+        <v>0.04935585693518507</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05793313300661027</v>
+        <v>0.06111647271945309</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1782195207054569</v>
+        <v>0.1087193301326303</v>
       </c>
       <c r="N174" t="n">
-        <v>0.08997584411526893</v>
+        <v>0.09643059445593605</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1776105748795938</v>
+        <v>0.1088366994916768</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0213690930133934</v>
+        <v>0.01774696874551801</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1786025728323477</v>
+        <v>0.04935558840672105</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02622650918990851</v>
+        <v>0.01774696874551801</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1794478534080498</v>
+        <v>0.04935558840672105</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05856144377170411</v>
+        <v>0.06069944944846065</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1798545621798188</v>
+        <v>0.1097167551797186</v>
       </c>
       <c r="N175" t="n">
-        <v>0.09093497989343852</v>
+        <v>0.09597362065592285</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1792400296950029</v>
+        <v>0.1098352013218756</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02253354837674287</v>
+        <v>0.01730894040820237</v>
       </c>
       <c r="G176" t="n">
-        <v>0.180226232585369</v>
+        <v>0.04935531987825704</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02661552202662765</v>
+        <v>0.01730894040820237</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1810791975299411</v>
+        <v>0.04935531987825704</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05878414587147932</v>
+        <v>0.06078165885249856</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1814896036541808</v>
+        <v>0.110714180226807</v>
       </c>
       <c r="N176" t="n">
-        <v>0.09178590254635804</v>
+        <v>0.09641081551487507</v>
       </c>
       <c r="O176" t="n">
-        <v>0.180869484510412</v>
+        <v>0.1108337031520745</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02269639098859554</v>
+        <v>0.01688392802985436</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1818498923383904</v>
+        <v>0.04935505134979302</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02670251338575563</v>
+        <v>0.01688392802985436</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1827105416518325</v>
+        <v>0.04935505134979302</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05920214716371597</v>
+        <v>0.06116299667303723</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1831246451285428</v>
+        <v>0.1117116052738953</v>
       </c>
       <c r="N177" t="n">
-        <v>0.09243000555745545</v>
+        <v>0.09704127854582612</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1824989393258212</v>
+        <v>0.1118322049822734</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02386299816303337</v>
+        <v>0.01647262902696583</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1834735520914117</v>
+        <v>0.049354782821329</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02678952982686475</v>
+        <v>0.01647262902696583</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1843418857737238</v>
+        <v>0.049354782821329</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05971751419397239</v>
+        <v>0.06054335865154692</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1847596866029048</v>
+        <v>0.1127090303209837</v>
       </c>
       <c r="N178" t="n">
-        <v>0.09337709348692064</v>
+        <v>0.09656410926180953</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1841283941412303</v>
+        <v>0.1128307068124722</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02403890020567091</v>
+        <v>0.01607574081599228</v>
       </c>
       <c r="G179" t="n">
-        <v>0.185097211844433</v>
+        <v>0.04935451429286498</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02698718286169551</v>
+        <v>0.01607574081599228</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1859732298956152</v>
+        <v>0.04935451429286498</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06045375852288662</v>
+        <v>0.06092264052949806</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1863947280772668</v>
+        <v>0.113706455368072</v>
       </c>
       <c r="N179" t="n">
-        <v>0.09346196562652132</v>
+        <v>0.09677840717585878</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1857578489566394</v>
+        <v>0.1138292086426711</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0232182584405121</v>
+        <v>0.01569396081342431</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1867208715974544</v>
+        <v>0.04935424576440097</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02719159434343392</v>
+        <v>0.01569396081342431</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1876045740175065</v>
+        <v>0.04935424576440097</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06080811277734355</v>
+        <v>0.06090073804836091</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1880297695516288</v>
+        <v>0.1147038804151604</v>
       </c>
       <c r="N180" t="n">
-        <v>0.09406775420155777</v>
+        <v>0.09698327180100735</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1873873037720485</v>
+        <v>0.11482771047287</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.0243950467194898</v>
+        <v>0.0153279864357187</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1883445313504757</v>
+        <v>0.04935397723593695</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02759580554916413</v>
+        <v>0.0153279864357187</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1892359181393979</v>
+        <v>0.04935397723593695</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06096498156189623</v>
+        <v>0.06087754694960587</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1896648110259908</v>
+        <v>0.1157013054622487</v>
       </c>
       <c r="N181" t="n">
-        <v>0.09497052162446429</v>
+        <v>0.0966778026502888</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1890167585874576</v>
+        <v>0.1158262123030688</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02456323889453697</v>
+        <v>0.01497851509936472</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1899681911034971</v>
+        <v>0.04935370870747293</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0276928577559703</v>
+        <v>0.01497851509936472</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1908672622612892</v>
+        <v>0.04935370870747293</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06150876948109774</v>
+        <v>0.06045296297470329</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1912998525003528</v>
+        <v>0.1166987305093371</v>
       </c>
       <c r="N182" t="n">
-        <v>0.09634633030767514</v>
+        <v>0.09686109923673664</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1906462134028667</v>
+        <v>0.1168247141332677</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02371680881758642</v>
+        <v>0.01464624422082761</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1915918508565184</v>
+        <v>0.04935344017900892</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0278757922409366</v>
+        <v>0.01464624422082761</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1924986063831806</v>
+        <v>0.04935344017900892</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06212388113950135</v>
+        <v>0.06052688186512351</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1929348939747148</v>
+        <v>0.1176961555564254</v>
       </c>
       <c r="N183" t="n">
-        <v>0.09597124266362489</v>
+        <v>0.0970322610733842</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1922756682182759</v>
+        <v>0.1178232159634666</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0238497303405711</v>
+        <v>0.01433187121657406</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1932155106095398</v>
+        <v>0.0493531716505449</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02823765028114719</v>
+        <v>0.01433187121657406</v>
       </c>
       <c r="K184" t="n">
-        <v>0.194129950505072</v>
+        <v>0.0493531716505449</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06219472114166005</v>
+        <v>0.06039919936233687</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1945699354490767</v>
+        <v>0.1186935806035138</v>
       </c>
       <c r="N184" t="n">
-        <v>0.09752132110474793</v>
+        <v>0.0971903876732651</v>
       </c>
       <c r="O184" t="n">
-        <v>0.193905123033685</v>
+        <v>0.1188217177936655</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02495597731542386</v>
+        <v>0.01403609350309112</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1948391703625611</v>
+        <v>0.04935290312208088</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02817147315368618</v>
+        <v>0.01403609350309112</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1957612946269633</v>
+        <v>0.04935290312208088</v>
       </c>
       <c r="L185" t="n">
-        <v>0.062805694092127</v>
+        <v>0.0609698112078137</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1962049769234387</v>
+        <v>0.1196910056506021</v>
       </c>
       <c r="N185" t="n">
-        <v>0.09747262804347867</v>
+        <v>0.09753457854941289</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1955345778490941</v>
+        <v>0.1198202196238643</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02503095192013215</v>
+        <v>0.01375960849683928</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1964628301155825</v>
+        <v>0.04935263459361686</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02827030213563778</v>
+        <v>0.01375960849683928</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1973926387488547</v>
+        <v>0.04935263459361686</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06334120459545528</v>
+        <v>0.06053861314302439</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1978400183978007</v>
+        <v>0.1206884306976905</v>
       </c>
       <c r="N186" t="n">
-        <v>0.09830122631380539</v>
+        <v>0.09776393321486093</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1971640326645032</v>
+        <v>0.1208187214540632</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02509569356383066</v>
+        <v>0.01350311361430394</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1980864898686038</v>
+        <v>0.04935236606515285</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02824510167598564</v>
+        <v>0.01350311361430394</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1990239828707461</v>
+        <v>0.04935236606515285</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06351150288995824</v>
+        <v>0.06080550090943931</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1994750598721627</v>
+        <v>0.1216858557447788</v>
       </c>
       <c r="N187" t="n">
-        <v>0.09845809223738039</v>
+        <v>0.09707755118264277</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1987934874799123</v>
+        <v>0.1218172232842621</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02515902818681645</v>
+        <v>0.01326730627194733</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1997101496216251</v>
+        <v>0.04935209753668883</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02831813589139487</v>
+        <v>0.01326730627194733</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2006553269926374</v>
+        <v>0.04935209753668883</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06347506857901983</v>
+        <v>0.06086862735989357</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2011101013465247</v>
+        <v>0.1226832807918672</v>
       </c>
       <c r="N188" t="n">
-        <v>0.0985094130727025</v>
+        <v>0.09716234428435477</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2004229422953215</v>
+        <v>0.1228157251144609</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0252209336120492</v>
+        <v>0.01305288388625306</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2013338093746465</v>
+        <v>0.04935182900822482</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02858953667585085</v>
+        <v>0.01305288388625306</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2022866711145288</v>
+        <v>0.04935182900822482</v>
       </c>
       <c r="L189" t="n">
-        <v>0.0633349916803598</v>
+        <v>0.06072400297298786</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2027451428208867</v>
+        <v>0.1236807058389555</v>
       </c>
       <c r="N189" t="n">
-        <v>0.09885510072621073</v>
+        <v>0.09668135545059053</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2020523971107306</v>
+        <v>0.1238142269446598</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02528138766248857</v>
+        <v>0.01285777944392251</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2029574691276678</v>
+        <v>0.0493515604797608</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02845927842031161</v>
+        <v>0.01285777944392251</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2039180152364202</v>
+        <v>0.0493515604797608</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06349121480081257</v>
+        <v>0.06067184553555099</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2043801842952487</v>
+        <v>0.1246781308860439</v>
       </c>
       <c r="N190" t="n">
-        <v>0.09879506710434327</v>
+        <v>0.09663588290296488</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2036818519261397</v>
+        <v>0.1248127287748587</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02534036816109422</v>
+        <v>0.01266607252504899</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2045811288806892</v>
+        <v>0.04935129195129678</v>
       </c>
       <c r="J191" t="n">
-        <v>0.0288273355157352</v>
+        <v>0.01266607252504899</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2055493593583115</v>
+        <v>0.04935129195129678</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06414368054721256</v>
+        <v>0.06011255524458567</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2060152257696107</v>
+        <v>0.1256755559331322</v>
       </c>
       <c r="N191" t="n">
-        <v>0.09882922411353884</v>
+        <v>0.0967301321013781</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2053113067415488</v>
+        <v>0.1258112306050576</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02439785293082583</v>
+        <v>0.01247561623525511</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2062047886337105</v>
+        <v>0.04935102342283276</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02869368235307966</v>
+        <v>0.01247561623525511</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2071807034802029</v>
+        <v>0.04935102342283276</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06399233152639422</v>
+        <v>0.06004653229709433</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2076502672439726</v>
+        <v>0.1266729809802206</v>
       </c>
       <c r="N192" t="n">
-        <v>0.09955748366023609</v>
+        <v>0.09656830850573062</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2069407615569579</v>
+        <v>0.1268097324352564</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02345381979464309</v>
+        <v>0.01228702463685208</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2078284483867318</v>
+        <v>0.04935075489436874</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02895829332330301</v>
+        <v>0.01228702463685208</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2088120476020942</v>
+        <v>0.04935075489436874</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06393711034519198</v>
+        <v>0.06017417689007959</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2092853087183346</v>
+        <v>0.1276704060273089</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09917975765087361</v>
+        <v>0.09675461757592274</v>
       </c>
       <c r="O193" t="n">
-        <v>0.208570216372367</v>
+        <v>0.1278082342654553</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02550824657550566</v>
+        <v>0.01210091179213461</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2094521081397532</v>
+        <v>0.04935048636590472</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02872114281736329</v>
+        <v>0.01210091179213461</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2104433917239856</v>
+        <v>0.04935048636590472</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06397795961044025</v>
+        <v>0.05989588922054401</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2109203501926966</v>
+        <v>0.1286678310743973</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09989595799189005</v>
+        <v>0.09579326477185485</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2101996711877762</v>
+        <v>0.1288067360956542</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02456111109637321</v>
+        <v>0.01191789176341374</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2110757678927745</v>
+        <v>0.04935021783744071</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02888220522621854</v>
+        <v>0.01191789176341374</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2120747358458769</v>
+        <v>0.04935021783744071</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06461482192897353</v>
+        <v>0.06041206948549008</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2125553916670586</v>
+        <v>0.1296652561214856</v>
       </c>
       <c r="N195" t="n">
-        <v>0.09990599658972382</v>
+        <v>0.0952884555534273</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2118291260031853</v>
+        <v>0.129805237925853</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02361239118020542</v>
+        <v>0.01173857861298442</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2126994276457959</v>
+        <v>0.04934994930897669</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02904145494082679</v>
+        <v>0.01173857861298442</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2137060799677684</v>
+        <v>0.04934994930897669</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06484763990762613</v>
+        <v>0.06022311788192042</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2141904331414206</v>
+        <v>0.130662681168574</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1000097853508137</v>
+        <v>0.09454439538054032</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2134585808185944</v>
+        <v>0.1308037397560519</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02566206464996196</v>
+        <v>0.01156358640315738</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2143230873988172</v>
+        <v>0.04934968078051268</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02899886635214609</v>
+        <v>0.01156358640315738</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2153374240896597</v>
+        <v>0.04934968078051268</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06447635615323261</v>
+        <v>0.05962943460683756</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2158254746157826</v>
+        <v>0.1316601062156623</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1002072361815982</v>
+        <v>0.09436528971309438</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2150880356340035</v>
+        <v>0.1318022415862508</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02571010932860249</v>
+        <v>0.01139352919623158</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2159467471518386</v>
+        <v>0.04934941225204866</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02915441385113446</v>
+        <v>0.01139352919623158</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2169687682115511</v>
+        <v>0.04934941225204866</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06460091327262732</v>
+        <v>0.05993141985724407</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2174605160901446</v>
+        <v>0.1326575312627507</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1002982609885159</v>
+        <v>0.09455534401098981</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2167174904494126</v>
+        <v>0.1328007434164496</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02575650303908671</v>
+        <v>0.0112290210545064</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2175704069048599</v>
+        <v>0.04934914372358464</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02930807182874995</v>
+        <v>0.0112290210545064</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2186001123334424</v>
+        <v>0.04934914372358464</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06492125387264477</v>
+        <v>0.05992947383014247</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2190955575645066</v>
+        <v>0.133654956309839</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1007827716780054</v>
+        <v>0.09351876373412693</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2183469452648217</v>
+        <v>0.1337992452466485</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02380122360437426</v>
+        <v>0.01107067604029193</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2191940666578812</v>
+        <v>0.04934887519512063</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02915981467595057</v>
+        <v>0.01107067604029193</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2202314564553338</v>
+        <v>0.04934887519512063</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06513732056011931</v>
+        <v>0.05982399672253533</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2207305990388686</v>
+        <v>0.1346523813569274</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1004606801565054</v>
+        <v>0.09325975434240613</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2199764000802308</v>
+        <v>0.1347977470768474</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02384424884742482</v>
+        <v>0.01091910821588422</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2208177264109026</v>
+        <v>0.04934860666665661</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0294096167836944</v>
+        <v>0.01091910821588422</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2218628005772251</v>
+        <v>0.04934860666665661</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06484905594188545</v>
+        <v>0.05961538873142519</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2223656405132306</v>
+        <v>0.1356498064040157</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1007318983304544</v>
+        <v>0.09248252129572776</v>
       </c>
       <c r="O201" t="n">
-        <v>0.22160585489564</v>
+        <v>0.1357962489070462</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02388555659119809</v>
+        <v>0.01077493164359275</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2224413861639239</v>
+        <v>0.04934833813819259</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02915745254293943</v>
+        <v>0.01077493164359275</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2234941446991165</v>
+        <v>0.04934833813819259</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06515640262477757</v>
+        <v>0.05960405005381467</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2240006819875925</v>
+        <v>0.1366472314511041</v>
       </c>
       <c r="N202" t="n">
-        <v>0.100696338106291</v>
+        <v>0.09129127005399207</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2232353097110491</v>
+        <v>0.1367947507372451</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02592512465865371</v>
+        <v>0.01063876038571422</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2240650459169453</v>
+        <v>0.04934806960972857</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02940329634464373</v>
+        <v>0.01063876038571422</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2251254888210079</v>
+        <v>0.04934806960972857</v>
       </c>
       <c r="L203" t="n">
-        <v>0.0651593032156301</v>
+        <v>0.05909038088670621</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2256357234619545</v>
+        <v>0.1376446564981924</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1012539113904539</v>
+        <v>0.09139020607709958</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2248647645264582</v>
+        <v>0.137793252567444</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02396293087275138</v>
+        <v>0.01051120850455744</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2256887056699666</v>
+        <v>0.04934780108126455</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0295471225797653</v>
+        <v>0.01051120850455744</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2267568329428992</v>
+        <v>0.04934780108126455</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06575770032127751</v>
+        <v>0.05907478142710249</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2272707649363165</v>
+        <v>0.1386420815452808</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1018045300893815</v>
+        <v>0.09028353482495044</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2264942193418673</v>
+        <v>0.1387917543976428</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02599895305645077</v>
+        <v>0.01039289006241981</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2273123654229879</v>
+        <v>0.04934753255280053</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02958890563926223</v>
+        <v>0.01039289006241981</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2283881770647906</v>
+        <v>0.04934753255280053</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06585153654855422</v>
+        <v>0.05895765187200594</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2289058064106785</v>
+        <v>0.1396395065923692</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1012481061095125</v>
+        <v>0.0899754617574452</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2281236741572765</v>
+        <v>0.1397902562278417</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02503316903271152</v>
+        <v>0.0102844191216094</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2289360251760093</v>
+        <v>0.04934726402433652</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02942861991409247</v>
+        <v>0.0102844191216094</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2300195211866819</v>
+        <v>0.04934726402433652</v>
       </c>
       <c r="L206" t="n">
-        <v>0.0654407545042946</v>
+        <v>0.05913939241841923</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2305408478850405</v>
+        <v>0.1406369316394575</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1016845513572855</v>
+        <v>0.08897019233448417</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2297531289726856</v>
+        <v>0.1407887580580406</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02606555662449334</v>
+        <v>0.01018640974442441</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2305596849290306</v>
+        <v>0.0493469954958725</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02936623979521416</v>
+        <v>0.01018640974442441</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2316508653085733</v>
+        <v>0.0493469954958725</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06552529679533317</v>
+        <v>0.05882040326334484</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2321758893594025</v>
+        <v>0.1416343566865458</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1016137777391391</v>
+        <v>0.08847193201596754</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2313825837880946</v>
+        <v>0.1417872598882395</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02409609365475587</v>
+        <v>0.01009947599317203</v>
       </c>
       <c r="G208" t="n">
-        <v>0.232183344682052</v>
+        <v>0.04934672696740849</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02970173967358528</v>
+        <v>0.01009947599317203</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2332822094304647</v>
+        <v>0.04934672696740849</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06610510602850436</v>
+        <v>0.05900108460378534</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2338109308337645</v>
+        <v>0.1426317817336342</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1015356971615119</v>
+        <v>0.08868488626179588</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2330120386035038</v>
+        <v>0.1427857617184383</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0241247579464588</v>
+        <v>0.01002423193015142</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2338070044350734</v>
+        <v>0.04934645843894447</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02943509394016387</v>
+        <v>0.01002423193015142</v>
       </c>
       <c r="K209" t="n">
-        <v>0.234913553552356</v>
+        <v>0.04934645843894447</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06598012481064253</v>
+        <v>0.0585818366367433</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2354459723081265</v>
+        <v>0.1436292067807226</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1019502215308425</v>
+        <v>0.08721326053186929</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2346414934189129</v>
+        <v>0.1437842635486372</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0251515273225618</v>
+        <v>0.009961291617668747</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2354306641880947</v>
+        <v>0.04934618991048045</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02956627698590794</v>
+        <v>0.009961291617668747</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2365448976742474</v>
+        <v>0.04934618991048045</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06605029574858221</v>
+        <v>0.05846305955922121</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2370810137824885</v>
+        <v>0.1446266318278109</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1018572627535694</v>
+        <v>0.08716126028608834</v>
       </c>
       <c r="O210" t="n">
-        <v>0.236270948234322</v>
+        <v>0.1447827653788361</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02517637960602456</v>
+        <v>0.009911269118024223</v>
       </c>
       <c r="G211" t="n">
-        <v>0.237054323941116</v>
+        <v>0.04934592138201643</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02959526320177559</v>
+        <v>0.009911269118024223</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2381762417961387</v>
+        <v>0.04934592138201643</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06621556144915777</v>
+        <v>0.0586451535682217</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2387160552568505</v>
+        <v>0.1456240568748993</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1027567327361314</v>
+        <v>0.0870330909843533</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2379004030497311</v>
+        <v>0.1457812672090349</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02419929261980674</v>
+        <v>0.009874778493522945</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2386779836941374</v>
+        <v>0.04934565285355242</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02982202697872481</v>
+        <v>0.009874778493522945</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2398075859180301</v>
+        <v>0.04934565285355242</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06617586451920363</v>
+        <v>0.05792851886074729</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2403510967312125</v>
+        <v>0.1466214819219876</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1022485433849669</v>
+        <v>0.08563295808656451</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2395298578651402</v>
+        <v>0.1467797690392338</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02422024418686801</v>
+        <v>0.009852433806466249</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2403016434471587</v>
+        <v>0.0493453843250884</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02984654270771364</v>
+        <v>0.009852433806466249</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2414389300399215</v>
+        <v>0.0493453843250884</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06623114756555426</v>
+        <v>0.05791355563380055</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2419861382055744</v>
+        <v>0.147618906969076</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1021326066065145</v>
+        <v>0.08596506705262236</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2411593126805494</v>
+        <v>0.1477782708694327</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02423921213016804</v>
+        <v>0.009844849119158033</v>
       </c>
       <c r="G214" t="n">
-        <v>0.24192530320018</v>
+        <v>0.04934511579662439</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02966878477970011</v>
+        <v>0.009844849119158033</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2430702741618128</v>
+        <v>0.04934511579662439</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06588135319504407</v>
+        <v>0.05810066408438402</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2436211796799364</v>
+        <v>0.1486163320161643</v>
       </c>
       <c r="N214" t="n">
-        <v>0.102108834307213</v>
+        <v>0.08503362334242714</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2427887674959585</v>
+        <v>0.1487767726996315</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02625617427266648</v>
+        <v>0.009844849119158033</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2435489629532014</v>
+        <v>0.04934511579662439</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02968872758564231</v>
+        <v>0.009844849119158033</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2447016182837042</v>
+        <v>0.04934511579662439</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06652642401450748</v>
+        <v>0.05819024440950027</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2452562211542984</v>
+        <v>0.1496137570632526</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1028771383935007</v>
+        <v>0.08524283241587921</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2444182223113676</v>
+        <v>0.1497752745298304</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02627110843732305</v>
+        <v>0.009512509642705863</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2451726227062227</v>
+        <v>0.0493203032173558</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02960634551649821</v>
+        <v>0.009512509642705863</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2463329624055955</v>
+        <v>0.0493203032173558</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06626630263077898</v>
+        <v>0.05758269680615183</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2468912626286604</v>
+        <v>0.150611182110341</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1029374307718164</v>
+        <v>0.08449689973287894</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2460476771267767</v>
+        <v>0.1507737763600293</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02528399244709742</v>
+        <v>0.009182653531797494</v>
       </c>
       <c r="G217" t="n">
-        <v>0.246796282459244</v>
+        <v>0.04929549063808722</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02992161296322586</v>
+        <v>0.009182653531797494</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2479643065274869</v>
+        <v>0.04929549063808722</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06650093165069298</v>
+        <v>0.0574784214713413</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2485263041030224</v>
+        <v>0.1516086071574294</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1027896233485987</v>
+        <v>0.08460003075332667</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2476771319421859</v>
+        <v>0.1517722781902281</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02529480412494921</v>
+        <v>0.008856269119345908</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2484199422122654</v>
+        <v>0.04927067805881864</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02963450431678333</v>
+        <v>0.008856269119345908</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2495956506493782</v>
+        <v>0.04927067805881864</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06613025368108386</v>
+        <v>0.05787781860207114</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2501613455773844</v>
+        <v>0.1526060322045177</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1024336280302861</v>
+        <v>0.08405643093712284</v>
       </c>
       <c r="O218" t="n">
-        <v>0.249306586757595</v>
+        <v>0.152770780020427</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02630352129383814</v>
+        <v>0.008534344738263831</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2500436019652867</v>
+        <v>0.04924586547955006</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02984499396812862</v>
+        <v>0.008534344738263831</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2512269947712696</v>
+        <v>0.04924586547955006</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06645421132878615</v>
+        <v>0.05758128839534402</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2517963870517463</v>
+        <v>0.1536034572516061</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1033693567233173</v>
+        <v>0.08387030574416765</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2509360415730041</v>
+        <v>0.1537692818506259</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02631012177672386</v>
+        <v>0.008217868721464017</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2516672617183081</v>
+        <v>0.04922105290028147</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02975305630821976</v>
+        <v>0.008217868721464017</v>
       </c>
       <c r="K220" t="n">
-        <v>0.252858338893161</v>
+        <v>0.04922105290028147</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06637274720063416</v>
+        <v>0.05758923104816244</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2534314285261083</v>
+        <v>0.1546008822986944</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1031967213341308</v>
+        <v>0.08334586063436156</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2525654963884132</v>
+        <v>0.1547677836808247</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02531458339656607</v>
+        <v>0.007907829401859419</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2532909214713294</v>
+        <v>0.04919624032101289</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02985866572801482</v>
+        <v>0.007907829401859419</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2544896830150524</v>
+        <v>0.04919624032101289</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06628580390346245</v>
+        <v>0.05760204675752892</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2550664700004703</v>
+        <v>0.1555983073457828</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1024156337691652</v>
+        <v>0.08378730106760485</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2541949512038223</v>
+        <v>0.1557662855110236</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02431688397632441</v>
+        <v>0.007605215112362715</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2549145812243508</v>
+        <v>0.0491714277417443</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02996179661847181</v>
+        <v>0.007605215112362715</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2561210271369437</v>
+        <v>0.0491714277417443</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0665933240441054</v>
+        <v>0.05711887502027088</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2567015114748323</v>
+        <v>0.1565957323928711</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1032260059348591</v>
+        <v>0.08368314871557758</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2558244060192315</v>
+        <v>0.1567647873412225</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02531040912523781</v>
+        <v>0.007311014185886852</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2565382409773721</v>
+        <v>0.04914661516247572</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0296600109805287</v>
+        <v>0.007311014185886852</v>
       </c>
       <c r="K223" t="n">
-        <v>0.257752371258835</v>
+        <v>0.04914661516247572</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06659311470870902</v>
+        <v>0.05713632422897266</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2583365529491943</v>
+        <v>0.1575931574399595</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1030159913217781</v>
+        <v>0.08378317975845972</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2574538608346406</v>
+        <v>0.1577632891714214</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02424805957439499</v>
+        <v>0.007026214955344584</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2581619007303935</v>
+        <v>0.04912180258320714</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02980263669572823</v>
+        <v>0.007026214955344584</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2593837153807264</v>
+        <v>0.04912180258320714</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06658031535547018</v>
+        <v>0.05735418714118948</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2599715944235563</v>
+        <v>0.1585905824870478</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1022062529004655</v>
+        <v>0.08338328307214909</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2590833156500497</v>
+        <v>0.1587617910016202</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02412623174616324</v>
+        <v>0.00675180575364865</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2597855604834148</v>
+        <v>0.04909699000393856</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02947539889028203</v>
+        <v>0.00675180575364865</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2610150595026178</v>
+        <v>0.04909699000393856</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06580967852872907</v>
+        <v>0.05717247351145863</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2616066358979183</v>
+        <v>0.1595880075341362</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1027571832093391</v>
+        <v>0.08378350224502512</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2607127704654588</v>
+        <v>0.1597602928318191</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0239518391861082</v>
+        <v>0.006488774913712005</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2614092202364361</v>
+        <v>0.04907217742466998</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02948628101355467</v>
+        <v>0.006488774913712005</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2626464036245092</v>
+        <v>0.04907217742466998</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06579909616805235</v>
+        <v>0.05689119309431737</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2632416773722803</v>
+        <v>0.1605854325812245</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1019962448332085</v>
+        <v>0.08298388086546704</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2623422252808679</v>
+        <v>0.160758794662018</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02573179543979558</v>
+        <v>0.006238110768447401</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2630328799894575</v>
+        <v>0.0490473648454014</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02904326651491083</v>
+        <v>0.006238110768447401</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2642777477464005</v>
+        <v>0.0490473648454014</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06536646021300666</v>
+        <v>0.05681035564430303</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2648767188466423</v>
+        <v>0.1615828576283128</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1007509003568828</v>
+        <v>0.0830844625218542</v>
       </c>
       <c r="O227" t="n">
-        <v>0.263971680096277</v>
+        <v>0.1617572964922168</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02347301405279098</v>
+        <v>0.006000801650767593</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2646565397424789</v>
+        <v>0.04902255226613281</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02895433884371508</v>
+        <v>0.006000801650767593</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2659090918682919</v>
+        <v>0.04902255226613281</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06462966260315869</v>
+        <v>0.05682997091595296</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2665117603210043</v>
+        <v>0.1625802826754012</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1001486123651715</v>
+        <v>0.08308529080256583</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2656011349116861</v>
+        <v>0.1627557983224157</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02518240857066008</v>
+        <v>0.005777835893585499</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2662801994955002</v>
+        <v>0.04899773968686423</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02852748144933206</v>
+        <v>0.005777835893585499</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2675404359901832</v>
+        <v>0.04899773968686423</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06360659527807505</v>
+        <v>0.05675004866380451</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2681468017953663</v>
+        <v>0.1635777077224896</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09901684344288392</v>
+        <v>0.08388640929598123</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2672305897270953</v>
+        <v>0.1637543001526146</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02386689253896855</v>
+        <v>0.005570201829813846</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2679038592485215</v>
+        <v>0.04897292710759565</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02817067778112642</v>
+        <v>0.005570201829813846</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2691717801120746</v>
+        <v>0.04897292710759565</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06271515017732252</v>
+        <v>0.05687059864239485</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2697818432697283</v>
+        <v>0.1645751327695779</v>
       </c>
       <c r="N230" t="n">
-        <v>0.09708305617482932</v>
+        <v>0.08358786159047971</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2688600445425044</v>
+        <v>0.1647528019828134</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02353337950328203</v>
+        <v>0.005378887792365533</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2695275190015429</v>
+        <v>0.04894811452832706</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02779191128846271</v>
+        <v>0.005378887792365533</v>
       </c>
       <c r="K231" t="n">
-        <v>0.270803124233966</v>
+        <v>0.04894811452832706</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0618732192404676</v>
+        <v>0.05629163060626138</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2714168847440903</v>
+        <v>0.1655725578166663</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09557471314581706</v>
+        <v>0.08368969127444048</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2704894993579135</v>
+        <v>0.1657513038130123</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.0241887830091662</v>
+        <v>0.005204882114153334</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2711511787545642</v>
+        <v>0.04892330194905849</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02749916542070564</v>
+        <v>0.005204882114153334</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2724344683558573</v>
+        <v>0.04892330194905849</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06119869440707706</v>
+        <v>0.05651315430994142</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2730519262184523</v>
+        <v>0.1665699828637546</v>
       </c>
       <c r="N232" t="n">
-        <v>0.0943192769406565</v>
+        <v>0.08339194193624294</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2721189541733226</v>
+        <v>0.1667498056432112</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02384001660218671</v>
+        <v>0.005049173128090015</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2727748385075855</v>
+        <v>0.0488984893697899</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02720042362721981</v>
+        <v>0.005049173128090015</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2740658124777487</v>
+        <v>0.0488984893697899</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06030946761671752</v>
+        <v>0.05633517950797221</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2746869676928143</v>
+        <v>0.167567407910843</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09314421014415702</v>
+        <v>0.08299465716426629</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2737484089887317</v>
+        <v>0.1677483074734101</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02249399382790919</v>
+        <v>0.004912749167088483</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2743984982606069</v>
+        <v>0.04887367679052132</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02660366935736981</v>
+        <v>0.004912749167088483</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2756971565996401</v>
+        <v>0.04887367679052132</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05942343080895565</v>
+        <v>0.05635771595489109</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2763220091671763</v>
+        <v>0.1685648329579313</v>
       </c>
       <c r="N234" t="n">
-        <v>0.0924769753411277</v>
+        <v>0.08299788054688984</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2753778638041409</v>
+        <v>0.1687468093036089</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02115762823189934</v>
+        <v>0.004796598564061505</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2760221580136282</v>
+        <v>0.04884886421125274</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02641688606052027</v>
+        <v>0.004796598564061505</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2773285007215314</v>
+        <v>0.04884886421125274</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05885847592335811</v>
+        <v>0.0560807734052354</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2779570506415382</v>
+        <v>0.1695622580050197</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09034503511637815</v>
+        <v>0.08310165567249289</v>
       </c>
       <c r="O235" t="n">
-        <v>0.27700731861955</v>
+        <v>0.1697453111338078</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02083783335972279</v>
+        <v>0.004701709651921876</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2776458177666495</v>
+        <v>0.04882405163198415</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02584805718603582</v>
+        <v>0.004701709651921876</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2789598448434227</v>
+        <v>0.04882405163198415</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05783249489949158</v>
+        <v>0.0561043616135424</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2795920921159002</v>
+        <v>0.170559683052108</v>
       </c>
       <c r="N236" t="n">
-        <v>0.08947585205471764</v>
+        <v>0.08360602612945467</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2786367734349591</v>
+        <v>0.1707438129640067</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02154152275694522</v>
+        <v>0.00462907076358246</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2792694775196709</v>
+        <v>0.04879923905271557</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02570516618328109</v>
+        <v>0.00462907076358246</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2805911889653142</v>
+        <v>0.04879923905271557</v>
       </c>
       <c r="L237" t="n">
-        <v>0.0571633796769227</v>
+        <v>0.05592849033434941</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2812271335902622</v>
+        <v>0.1715571080991964</v>
       </c>
       <c r="N237" t="n">
-        <v>0.08819688874095544</v>
+        <v>0.08301103550615457</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2802662282503682</v>
+        <v>0.1717423147942055</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02126672206011378</v>
+        <v>0.004579670231956039</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2808931372726923</v>
+        <v>0.04877442647344699</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02538932819082643</v>
+        <v>0.004579670231956039</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2822225330872055</v>
+        <v>0.04877442647344699</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05595670066889394</v>
+        <v>0.05625316932219376</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2828621750646242</v>
+        <v>0.1725545331462847</v>
       </c>
       <c r="N238" t="n">
-        <v>0.0874093487704421</v>
+        <v>0.08391672739097178</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2818956830657773</v>
+        <v>0.1727408166244044</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02199225423273035</v>
+        <v>0.004554496389955427</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2825167970257136</v>
+        <v>0.0487496138941784</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02477550619437253</v>
+        <v>0.004554496389955427</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2838538772090969</v>
+        <v>0.0487496138941784</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05525671474188493</v>
+        <v>0.05617840833161278</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2844972165389862</v>
+        <v>0.1735519581933731</v>
       </c>
       <c r="N239" t="n">
-        <v>0.08552719476502663</v>
+        <v>0.08332314537228569</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2835251378811864</v>
+        <v>0.1737393184546033</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.0217167473810619</v>
+        <v>0.004551307145458816</v>
       </c>
       <c r="G240" t="n">
-        <v>0.284140456778735</v>
+        <v>0.04872480131490983</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02446049225863919</v>
+        <v>0.004551307145458816</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2854852213309882</v>
+        <v>0.04872480131490983</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05495406596212632</v>
+        <v>0.05570421711714366</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2861322580133482</v>
+        <v>0.1745493832404614</v>
       </c>
       <c r="N240" t="n">
-        <v>0.08524093392036325</v>
+        <v>0.08313033303847539</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2851545926965955</v>
+        <v>0.1747378202848021</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0214401851266626</v>
+        <v>0.004551406305786397</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2857641165317563</v>
+        <v>0.04869998873564124</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02434426747053883</v>
+        <v>0.004551406305786397</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2871165654528796</v>
+        <v>0.04869998873564124</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05394871194294978</v>
+        <v>0.05553060543332383</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2877672994877101</v>
+        <v>0.1755468082875498</v>
       </c>
       <c r="N241" t="n">
-        <v>0.08435050117656984</v>
+        <v>0.08403833397792043</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2867840475120047</v>
+        <v>0.175736322115001</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01916255109108662</v>
+        <v>0.004551780063944161</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2873877762847776</v>
+        <v>0.04867517615637266</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02402681291698383</v>
+        <v>0.004551780063944161</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2887479095747709</v>
+        <v>0.04867517615637266</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05314061029768694</v>
+        <v>0.05565758303469059</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2894023409620721</v>
+        <v>0.1765442333346381</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08265583147376493</v>
+        <v>0.08374719177899986</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2884135023274138</v>
+        <v>0.1767348239451999</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01988382889588813</v>
+        <v>0.00455261148515225</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2890114360377989</v>
+        <v>0.04865036357710408</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02360810968488659</v>
+        <v>0.00455261148515225</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2903792536966623</v>
+        <v>0.04865036357710408</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05262971863966948</v>
+        <v>0.05528515967578118</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2910373824364341</v>
+        <v>0.1775416583817265</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08115685975206655</v>
+        <v>0.0836569500300931</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2900429571428229</v>
+        <v>0.1777333257753988</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02060400216262133</v>
+        <v>0.004554083634630807</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2906350957908203</v>
+        <v>0.04862555099783549</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02338813886115956</v>
+        <v>0.004554083634630807</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2920105978185537</v>
+        <v>0.04862555099783549</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05231599458222908</v>
+        <v>0.05561334511113292</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2926724239107961</v>
+        <v>0.1785390834288148</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08005352095159279</v>
+        <v>0.08336765231957943</v>
       </c>
       <c r="O244" t="n">
-        <v>0.291672411958232</v>
+        <v>0.1787318276055976</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01832305451284037</v>
+        <v>0.004556379577599953</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2922587555438416</v>
+        <v>0.04860073841856691</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02306688153271508</v>
+        <v>0.004556379577599953</v>
       </c>
       <c r="K245" t="n">
-        <v>0.293641941940445</v>
+        <v>0.04860073841856691</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0510993957386974</v>
+        <v>0.05574214909528316</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2943074653851581</v>
+        <v>0.1795365084759032</v>
       </c>
       <c r="N245" t="n">
-        <v>0.07904575001246189</v>
+        <v>0.08337934223583809</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2933018667736411</v>
+        <v>0.1797303294357965</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01904096956809946</v>
+        <v>0.004559682379279818</v>
       </c>
       <c r="G246" t="n">
-        <v>0.293882415296863</v>
+        <v>0.04857592583929833</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02274431878646559</v>
+        <v>0.004559682379279818</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2952732860623364</v>
+        <v>0.04857592583929833</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05067987972240612</v>
+        <v>0.05557158138276924</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2959425068595201</v>
+        <v>0.1805339335229915</v>
       </c>
       <c r="N246" t="n">
-        <v>0.07783348187479205</v>
+        <v>0.08389206336724842</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2949313215890503</v>
+        <v>0.1807288312659954</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01975773094995274</v>
+        <v>0.00456417510489053</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2955060750498843</v>
+        <v>0.04855111326002975</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02232043170932346</v>
+        <v>0.00456417510489053</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2969046301842277</v>
+        <v>0.04855111326002975</v>
       </c>
       <c r="L247" t="n">
-        <v>0.0499574041466869</v>
+        <v>0.05520165172812835</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2975775483338821</v>
+        <v>0.1815313585700799</v>
       </c>
       <c r="N247" t="n">
-        <v>0.07701665147870151</v>
+        <v>0.08310585930218961</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2965607764044594</v>
+        <v>0.1817273330961942</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.0194733222799544</v>
+        <v>0.004570040819652225</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2971297348029057</v>
+        <v>0.04852630068076116</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02199520138820112</v>
+        <v>0.004570040819652225</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2985359743061191</v>
+        <v>0.04852630068076116</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04893192662487142</v>
+        <v>0.05513236988589787</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2992125898082441</v>
+        <v>0.1825287836171682</v>
       </c>
       <c r="N248" t="n">
-        <v>0.07579519376430832</v>
+        <v>0.08402077362904103</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2981902312198685</v>
+        <v>0.1827258349263931</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01918772717965863</v>
+        <v>0.004577462588785039</v>
       </c>
       <c r="G249" t="n">
-        <v>0.298753394555927</v>
+        <v>0.04850148810149259</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02186860891001093</v>
+        <v>0.004577462588785039</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3001673184280105</v>
+        <v>0.04850148810149259</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04860340477029135</v>
+        <v>0.05486374561061516</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3008476312826061</v>
+        <v>0.1835262086642566</v>
       </c>
       <c r="N249" t="n">
-        <v>0.07456904367173078</v>
+        <v>0.08373684993618197</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2998196860352776</v>
+        <v>0.183724336756592</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01890092927061959</v>
+        <v>0.0045866234775091</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3003770543089484</v>
+        <v>0.048476675522224</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02154063536166534</v>
+        <v>0.0045866234775091</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3017986625499018</v>
+        <v>0.048476675522224</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04737179619627835</v>
+        <v>0.05499578865681742</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3024826727569681</v>
+        <v>0.1845236337113449</v>
       </c>
       <c r="N250" t="n">
-        <v>0.07423813614108699</v>
+        <v>0.08385413181199164</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3014491408506867</v>
+        <v>0.1847228385867908</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01761291217439147</v>
+        <v>0.004597706551044529</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3020007140619697</v>
+        <v>0.04845186294295542</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02101126183007671</v>
+        <v>0.004597706551044529</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3034300066717932</v>
+        <v>0.04845186294295542</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04723705851616408</v>
+        <v>0.055328508779042</v>
       </c>
       <c r="M251" t="n">
-        <v>0.30411771423133</v>
+        <v>0.1855210587584333</v>
       </c>
       <c r="N251" t="n">
-        <v>0.07320240611249507</v>
+        <v>0.08327266284484941</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3030785956660959</v>
+        <v>0.1857213404169897</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01632365951252843</v>
+        <v>0.004610894874611471</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3036243738149911</v>
+        <v>0.04842705036368683</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02078046940215748</v>
+        <v>0.004610894874611471</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3050613507936846</v>
+        <v>0.04842705036368683</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04639914934328029</v>
+        <v>0.05496191573182624</v>
       </c>
       <c r="M252" t="n">
-        <v>0.305752755705692</v>
+        <v>0.1865184838055216</v>
       </c>
       <c r="N252" t="n">
-        <v>0.07136178852607339</v>
+        <v>0.08329248662313454</v>
       </c>
       <c r="O252" t="n">
-        <v>0.304708050481505</v>
+        <v>0.1867198422471886</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01603315490658467</v>
+        <v>0.004626371513430053</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3052480335680124</v>
+        <v>0.04840223778441825</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02044823916482003</v>
+        <v>0.004626371513430053</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3066926949155759</v>
+        <v>0.04840223778441825</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04515802629095855</v>
+        <v>0.05489601926970741</v>
       </c>
       <c r="M253" t="n">
-        <v>0.307387797180054</v>
+        <v>0.18751590885261</v>
       </c>
       <c r="N253" t="n">
-        <v>0.07091621832193989</v>
+        <v>0.08361364673522631</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3063375052969141</v>
+        <v>0.1877183440773874</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01774138197811435</v>
+        <v>0.00464431953272039</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3068716933210338</v>
+        <v>0.04837742520514967</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01991455220497676</v>
+        <v>0.00464431953272039</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3083240390374672</v>
+        <v>0.04837742520514967</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04461364697253054</v>
+        <v>0.0547308291472228</v>
       </c>
       <c r="M254" t="n">
-        <v>0.309022838654416</v>
+        <v>0.1885133338996983</v>
       </c>
       <c r="N254" t="n">
-        <v>0.06956563044021297</v>
+        <v>0.083836186769504</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3079669601123232</v>
+        <v>0.1887168459075863</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01744832434867164</v>
+        <v>0.004664921997702645</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3084953530740551</v>
+        <v>0.04835261262588109</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01967938960954006</v>
+        <v>0.004664921997702645</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3099553831593587</v>
+        <v>0.04835261262588109</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04396596900132804</v>
+        <v>0.05476635511890982</v>
       </c>
       <c r="M255" t="n">
-        <v>0.310657880128778</v>
+        <v>0.1895107589467867</v>
       </c>
       <c r="N255" t="n">
-        <v>0.06790995982101067</v>
+        <v>0.08326015031434686</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3095964149277323</v>
+        <v>0.1897153477377852</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01715396563981073</v>
+        <v>0.004688361973596927</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3101190128270764</v>
+        <v>0.0483278000466125</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01934273246542235</v>
+        <v>0.004688361973596927</v>
       </c>
       <c r="K256" t="n">
-        <v>0.31158672728125</v>
+        <v>0.0483278000466125</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04301494999068264</v>
+        <v>0.05450260693930567</v>
       </c>
       <c r="M256" t="n">
-        <v>0.31229292160314</v>
+        <v>0.1905081839938751</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0673491414044512</v>
+        <v>0.08408558095813429</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3112258697431414</v>
+        <v>0.190713849567984</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01485828947308578</v>
+        <v>0.004714822525623365</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3117426725800978</v>
+        <v>0.04830298746734393</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01900456185953606</v>
+        <v>0.004714822525623365</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3132180714031413</v>
+        <v>0.04830298746734393</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04266054755392598</v>
+        <v>0.05473959436294767</v>
       </c>
       <c r="M257" t="n">
-        <v>0.313927963077502</v>
+        <v>0.1915056090409634</v>
       </c>
       <c r="N257" t="n">
-        <v>0.06628311013065269</v>
+        <v>0.08371252228924547</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3128553245585505</v>
+        <v>0.1917123513981829</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.015561279470051</v>
+        <v>0.0047444867190021</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3133663323331191</v>
+        <v>0.04827817488807534</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01856485887879354</v>
+        <v>0.0047444867190021</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3148494155250327</v>
+        <v>0.04827817488807534</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04160271930438977</v>
+        <v>0.05457732714437319</v>
       </c>
       <c r="M258" t="n">
-        <v>0.315563004551864</v>
+        <v>0.1925030340880517</v>
       </c>
       <c r="N258" t="n">
-        <v>0.06441180093973348</v>
+        <v>0.08434101789605969</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3144847793739597</v>
+        <v>0.1927108532283818</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01626291925226053</v>
+        <v>0.004777537618953255</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3149899920861405</v>
+        <v>0.04825336230880676</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01832360461010718</v>
+        <v>0.004777537618953255</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3164807596469241</v>
+        <v>0.04825336230880676</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04094142285540572</v>
+        <v>0.05461581503811952</v>
       </c>
       <c r="M259" t="n">
-        <v>0.317198046026226</v>
+        <v>0.1935004591351401</v>
       </c>
       <c r="N259" t="n">
-        <v>0.06333514877181151</v>
+        <v>0.08377111136695631</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3161142341893688</v>
+        <v>0.1937093550585807</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01396319244126857</v>
+        <v>0.004814158290696972</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3166136518391618</v>
+        <v>0.04822854972953818</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01798078014038942</v>
+        <v>0.004814158290696972</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3181121037688155</v>
+        <v>0.04822854972953818</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03987661582030544</v>
+        <v>0.05415506779872389</v>
       </c>
       <c r="M260" t="n">
-        <v>0.318833087500588</v>
+        <v>0.1944978841822284</v>
       </c>
       <c r="N260" t="n">
-        <v>0.06175308856700518</v>
+        <v>0.08390284629031453</v>
       </c>
       <c r="O260" t="n">
-        <v>0.317743689004778</v>
+        <v>0.1947078568887795</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01566208265862929</v>
+        <v>0.004854531799453374</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3182373115921832</v>
+        <v>0.04820373715026959</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01783636655655269</v>
+        <v>0.004854531799453374</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3197434478907068</v>
+        <v>0.04820373715026959</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03920825581242063</v>
+        <v>0.05409509518072367</v>
       </c>
       <c r="M261" t="n">
-        <v>0.32046812897495</v>
+        <v>0.1954953092293168</v>
       </c>
       <c r="N261" t="n">
-        <v>0.06146555526543263</v>
+        <v>0.08383626625451368</v>
       </c>
       <c r="O261" t="n">
-        <v>0.319373143820187</v>
+        <v>0.1957063587189784</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01335957352589687</v>
+        <v>0.004898841210442581</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3198609713452045</v>
+        <v>0.04817892457100102</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01729034494550928</v>
+        <v>0.004898841210442581</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3213747920125982</v>
+        <v>0.04817892457100102</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03893630044508289</v>
+        <v>0.0545359069386562</v>
       </c>
       <c r="M262" t="n">
-        <v>0.322103170449312</v>
+        <v>0.1964927342764052</v>
       </c>
       <c r="N262" t="n">
-        <v>0.05947248380721187</v>
+        <v>0.08367141484793306</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3210025986355961</v>
+        <v>0.1967048605491773</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01305564866462548</v>
+        <v>0.004947269588884751</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3214846310982258</v>
+        <v>0.04815411199173242</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01714269639417174</v>
+        <v>0.004947269588884751</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3230061361344895</v>
+        <v>0.04815411199173242</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03796070733162407</v>
+        <v>0.05457751282705872</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3237382119236739</v>
+        <v>0.1974901593234935</v>
       </c>
       <c r="N263" t="n">
-        <v>0.05847380913246131</v>
+        <v>0.08350833565895194</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3226320534510053</v>
+        <v>0.1977033623793761</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01375029169636929</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3231082908512471</v>
+        <v>0.04812929941246385</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01659340198945235</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3246374802563809</v>
+        <v>0.04812929941246385</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03698143408537563</v>
+        <v>0.0539199226004686</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3253732533980359</v>
+        <v>0.1984875843705819</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05696946618129894</v>
+        <v>0.08364707227594959</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3242615082664144</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.198701864209575</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04811614151772701</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.04811614151772701</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005360750204008689</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04811641004619102</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.005360750204008689</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.04811641004619102</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.00571809433004674</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04811667857465504</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.00571809433004674</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.04811667857465504</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006071936511374304</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04811694710311906</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.006071936511374304</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.04811694710311906</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006422180881282429</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04811721563158308</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.006422180881282429</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.04811721563158308</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006768731573031553</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04811748416004709</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.006768731573031553</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.04811748416004709</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.007111492719912425</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04811775268851111</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.007111492719912425</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.04811775268851111</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007450368455185812</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04811802121697512</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.007450368455185812</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.04811802121697512</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.00778526291214212</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04811828974543914</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.00778526291214212</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.04811828974543914</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.008116080224042456</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04811855827390316</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.008116080224042456</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.04811855827390316</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.008442724524176888</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04811882680236718</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.008442724524176888</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.04811882680236718</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008765099945806869</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.0481190953308312</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.008765099945806869</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.0481190953308312</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.009083110622222106</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04811936385929522</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.009083110622222106</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.04811936385929522</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.009396660686684426</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04811963238775923</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.009396660686684426</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.04811963238775923</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.009705654272483155</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04811990091622325</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.009705654272483155</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.04811990091622325</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01000999551288052</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04812016944468726</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.01000999551288052</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.04812016944468726</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01030958854116541</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04812043797315128</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.01030958854116541</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.04812043797315128</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.0106043374906005</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.0481207065016153</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.0106043374906005</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.0481207065016153</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01089414649446801</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04812097503007931</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.01089414649446801</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.04812097503007931</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01117891968604977</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04812124355854333</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.01117891968604977</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.04812124355854333</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01145856119860905</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04812151208700734</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.01145856119860905</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.04812151208700734</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.0117329751654337</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04812178061547136</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.0117329751654337</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.04812178061547136</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01200206571978745</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04812204914393538</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.01200206571978745</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.04812204914393538</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01226573699495766</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.0481223176723994</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.01226573699495766</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.0481223176723994</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01252389312420858</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04812258620086342</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.01252389312420858</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.04812258620086342</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01277682969661806</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04812285472932744</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.01277682969661806</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.04812285472932744</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01302679958019679</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04812312325779145</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.01302679958019679</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.04812312325779145</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01327409836402232</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04812339178625547</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.01327409836402232</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.04812339178625547</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01351863018135961</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04812366031471949</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.01351863018135961</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.04812366031471949</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01376029916549491</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04812392884318351</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.01376029916549491</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.04812392884318351</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01399900944969343</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04812419737164752</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.01399900944969343</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.04812419737164752</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.0142346651672412</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04812446590011154</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.0142346651672412</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.04812446590011154</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01446717045140364</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04812473442857555</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.01446717045140364</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.04812473442857555</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01469642943546162</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04812500295703957</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.01469642943546162</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.04812500295703957</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01492234625269565</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04812527148550359</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.01492234625269565</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.04812527148550359</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01514482503637159</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04812554001396761</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.01514482503637159</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.04812554001396761</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01536376991977478</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04812580854243163</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.01536376991977478</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.04812580854243163</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01557908503617139</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04812607707089564</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.01557908503617139</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.04812607707089564</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01579067451884644</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04812634559935966</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.01579067451884644</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.04812634559935966</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01599844250106641</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04812661412782367</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.01599844250106641</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.04812661412782367</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01620229311611603</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04812688265628769</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.01620229311611603</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.04812688265628769</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01640213049726205</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04812715118475171</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.01640213049726205</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.04812715118475171</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01659785877778887</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04812741971321573</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.01659785877778887</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.04812741971321573</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01678938209096364</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04812768824167974</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.01678938209096364</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.04812768824167974</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01697660457007036</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04812795677014376</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.01697660457007036</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.04812795677014376</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01715943034837658</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04812822529860777</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.01715943034837658</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.04812822529860777</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01733776355916591</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04812849382707179</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.01733776355916591</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.04812849382707179</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01751150833570625</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04812876235553581</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.01751150833570625</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.04812876235553581</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01768056881128086</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04812903088399983</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.01768056881128086</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.04812903088399983</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01784484911915805</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04812929941246385</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.01784484911915805</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.04812929941246385</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01784484911915804</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04811614151772701</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.01784484911915804</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.04811614151772701</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01803651496573705</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04814149115392362</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.01803651496573705</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.04814149115392362</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01822649291144905</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04816684079012024</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.01822649291144905</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.04816684079012024</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01841436974975366</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04819219042631686</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.01841436974975366</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.04819219042631686</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01859973227411058</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04821754006251347</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.01859973227411058</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.04821754006251347</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01878216727797956</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04824288969871009</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.01878216727797956</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.04824288969871009</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01896126155482022</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.0482682393349067</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.01896126155482022</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.0482682393349067</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01913660189809231</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04829358897110332</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.01913660189809231</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.04829358897110332</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01930777510125552</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04831893860729994</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.01930777510125552</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.04831893860729994</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01947436795776955</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04834428824349656</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.01947436795776955</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.04834428824349656</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01963596726109405</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04836963787969317</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.01963596726109405</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.04836963787969317</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01979215980468875</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04839498751588979</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.01979215980468875</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.04839498751588979</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01994253238201336</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04842033715208641</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.01994253238201336</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.04842033715208641</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.02008667178652751</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04844568678828302</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.02008667178652751</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.04844568678828302</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.02022416481169095</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04847103642447964</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.02022416481169095</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.04847103642447964</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.0203545982509634</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04849638606067626</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.0203545982509634</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.04849638606067626</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.02047755889780449</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04852173569687288</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.02047755889780449</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.04852173569687288</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.02059263354567394</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04854708533306949</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.02059263354567394</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.04854708533306949</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.02069940898803146</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04857243496926611</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.02069940898803146</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.04857243496926611</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.0207974720183367</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04859778460546273</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.0207974720183367</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.04859778460546273</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.02088640943004939</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04862313424165934</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.02088640943004939</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.04862313424165934</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.02096580801662926</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04864848387785595</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.02096580801662926</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.04864848387785595</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.02103525457153595</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04867383351405258</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.02103525457153595</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.04867383351405258</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.02109433588822916</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04869918315024919</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.02109433588822916</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.04869918315024919</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.02114263876016859</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04872453278644581</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.02114263876016859</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.04872453278644581</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.02118108299401247</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04874988242264242</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.02118108299401247</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.04874988242264242</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.02121738630497703</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04877523205883904</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.02121738630497703</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.04877523205883904</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.0212528079862765</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04880058169503566</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.0212528079862765</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.04880058169503566</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.02128728907821163</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04882593133123227</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.02128728907821163</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.04882593133123227</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.02132077062108317</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04885128096742889</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.02132077062108317</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.04885128096742889</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.02135319365519187</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04887663060362551</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.02135319365519187</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.04887663060362551</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.02138449922083849</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04890198023982212</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.02138449922083849</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.04890198023982212</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.02141462835832376</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04892732987601874</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.02141462835832376</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.04892732987601874</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.02144352210794845</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04895267951221536</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.02144352210794845</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.04895267951221536</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.02147112151001331</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04897802914841197</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.02147112151001331</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.04897802914841197</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.02149736760481907</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04900337878460859</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.02149736760481907</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.04900337878460859</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.0215222014326665</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04902872842080521</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.0215222014326665</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.04902872842080521</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.02154556403385635</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04905407805700182</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.02154556403385635</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.04905407805700182</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.02156739644868937</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04907942769319844</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.02156739644868937</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.04907942769319844</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.02158763971746629</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04910477732939506</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.02158763971746629</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.04910477732939506</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.02160623488048788</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04913012696559167</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.02160623488048788</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.04913012696559167</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.02162312297805488</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.0491554766017883</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.02162312297805488</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.0491554766017883</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.02163824505046806</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04918082623798491</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.02163824505046806</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.04918082623798491</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.02165154213802815</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04920617587418152</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.02165154213802815</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.04920617587418152</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.02166295528103593</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04923152551037814</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.02166295528103593</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.04923152551037814</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.02167242551979214</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04925687514657476</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.02167242551979214</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.04925687514657476</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.02167989389459747</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04928222478277137</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.02167989389459747</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.04928222478277137</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.02168530144575276</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04930757441896799</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.02168530144575276</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.04930757441896799</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.02168858921355872</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04933292405516461</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.02168858921355872</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.04933292405516461</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.0216896982383161</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04935827369136123</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.0216896982383161</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.04935827369136123</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.02168969823831608</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04935827369136123</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.02168969823831608</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.04935827369136123</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.0213938097052845</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05253870004002032</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.0213938097052845</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.05253870004002032</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.02113985466753233</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05571912638867942</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.02113985466753233</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.05571912638867942</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.02092462886744482</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05889955273733852</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.02092462886744482</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.05889955273733852</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.02074492804740712</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06207997908599761</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.02074492804740712</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.06207997908599761</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.02059754794980442</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06526040543465671</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.02059754794980442</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.06526040543465671</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.02047928431702192</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06844083178331579</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.02047928431702192</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.06844083178331579</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.0203869328914448</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.0716212581319749</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.0203869328914448</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.0716212581319749</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.02031728941545828</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07480168448063398</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.02031728941545828</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.07480168448063398</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.0202671496314475</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07798211082929309</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.0202671496314475</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.07798211082929309</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.02023330928179772</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08116253717795219</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.02023330928179772</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.08116253717795219</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02021256410889406</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08434296352661128</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.02021256410889406</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.08434296352661128</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02020170985512176</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08752338987527038</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.02020170985512176</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.08752338987527038</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02019754226286598</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.09070381622392948</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.02019754226286598</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.09070381622392948</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02019685707451192</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09388424257258858</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.02019685707451192</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.09388424257258858</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02026301217795873</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09706466892124765</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.02026301217795873</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.09706466892124765</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02046090447308643</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1002450952699068</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.02046090447308643</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.1002450952699068</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02074803208512083</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1034255216185659</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.02074803208512083</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.1034255216185659</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02108124152895534</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.106605947967225</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.02108124152895534</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.106605947967225</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02141737931948341</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.109786374315884</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.02141737931948341</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.109786374315884</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02171329197159846</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1129668006645431</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.02171329197159846</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1129668006645431</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02192582600019392</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1161472270132022</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.02192582600019392</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1161472270132022</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02201182792016323</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1193276533618613</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.02201182792016323</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1193276533618613</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02197351451503315</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1225080797105204</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.02197351451503315</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1225080797105204</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02185462926292828</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1256885060591795</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.02185462926292828</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1256885060591795</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02166267117610692</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1288689324078386</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.02166267117610692</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1288689324078386</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02140503942712658</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1320493587564977</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.02140503942712658</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1320493587564977</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02108913318854476</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1352297851051568</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.02108913318854476</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1352297851051568</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02072235163291898</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1384102114538159</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.02072235163291898</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1384102114538159</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02031209393280671</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.141590637802475</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.02031209393280671</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.141590637802475</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.01986575926076548</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1447710641511341</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.01986575926076548</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1447710641511341</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.01939074678935275</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1479514904997932</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.01939074678935275</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.1479514904997932</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.01889445569112602</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.01889445569112602</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.01838428513864282</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1543123431971114</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.01838428513864282</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.1543123431971114</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.01782257953733289</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1574927695457705</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.01782257953733289</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.1574927695457705</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.01685516795551247</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1606731958944296</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.01685516795551247</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1606731958944296</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.0157747094758319</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1638536222430887</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.0157747094758319</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1638536222430887</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.01504474142247546</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1670340485917478</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.01504474142247546</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1670340485917478</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.01495481092155729</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1702144749404069</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.01495481092155729</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1702144749404069</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.01496024556640785</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.173394901289066</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.01496024556640785</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.173394901289066</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.01497116460551735</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.176575327637725</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.01497116460551735</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.176575327637725</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.01498794175986408</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1797557539863842</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.01498794175986408</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1797557539863842</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.01501095075042636</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1829361803350432</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.01501095075042636</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1829361803350432</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.01504056529818248</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1861166066837023</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.01504056529818248</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.1861166066837023</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.0150771591241108</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1892970330323615</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.0150771591241108</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.1892970330323615</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.01512110594918957</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1924774593810205</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.01512110594918957</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.1924774593810205</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.01520214067448176</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1956578857296797</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.01520214067448176</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.1956578857296797</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.01558492463731789</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1988383120783387</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.01558492463731789</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.1988383120783387</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.01612203384856668</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2020187384269978</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.01612203384856668</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.2020187384269978</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.01655070884734812</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2051991647756569</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.01655070884734812</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.2051991647756569</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.0168579812151895</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.208379591124316</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.0168579812151895</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.208379591124316</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.01713509840710997</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2115600174729751</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.01713509840710997</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2115600174729751</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.01739044030366046</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2147404438216342</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.01739044030366046</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2147404438216342</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.01763238678539203</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2179208701702933</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.01763238678539203</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2179208701702933</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.01786931773285563</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2211012965189524</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.01786931773285563</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2211012965189524</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.01810645271249339</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2242817228676115</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.01810645271249339</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2242817228676115</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.01831789624183927</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2274621492162706</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.01831789624183927</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2274621492162706</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.01851837626832271</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2306425755649297</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.01851837626832271</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2306425755649297</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.01873631282051755</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2338230019135888</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.01873631282051755</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2338230019135888</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.01900012592699762</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2370034282622479</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.01900012592699762</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2370034282622479</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.01935636658218082</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.240183854610907</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.01935636658218082</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.240183854610907</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.01982617085146951</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2433642809595661</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.01982617085146951</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2433642809595661</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02039415101349917</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2465447073082252</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.02039415101349917</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2465447073082252</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02104488390133093</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2497251336568842</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.02104488390133093</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2497251336568842</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.021762946348026</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2529055600055434</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.021762946348026</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2529055600055434</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02253291518664553</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2560859863542024</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.02253291518664553</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2560859863542024</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02333936725025072</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2592664127028616</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.02333936725025072</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2592664127028616</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02416687937190273</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2624468390515206</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.02416687937190273</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2624468390515206</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02500002838466277</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2656272654001798</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.02500002838466277</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2656272654001798</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02582339112159196</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2688076917488388</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.02582339112159196</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2688076917488388</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02662154441575154</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.271988118097498</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.02662154441575154</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.271988118097498</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02737906510020265</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.275168544446157</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.02737906510020265</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.275168544446157</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02808053000800649</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2783489707948162</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.02808053000800649</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2783489707948162</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02871051597222421</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2815293971434752</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.02871051597222421</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2815293971434752</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02925359982591701</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2847098234921344</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.02925359982591701</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2847098234921344</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02969435840214607</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2878902498407934</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.02969435840214607</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2878902498407934</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03001736853397254</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2910706761894525</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.03001736853397254</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.2910706761894525</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03025293098442144</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2942511025381116</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.03025293098442144</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.2942511025381116</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03022090460834873</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2974315288867707</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.03022090460834873</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.2974315288867707</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02944371711762203</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.3006119552354298</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.02944371711762203</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.3006119552354298</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02784067277462758</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3037923815840888</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.02784067277462758</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.3037923815840888</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02569639837801622</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.306972807932748</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.02569639837801622</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.306972807932748</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02329552072643901</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3101532342814071</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.02329552072643901</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3101532342814071</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02092266661854675</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3133336606300662</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.02092266661854675</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3133336606300662</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.01886246285299047</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3165140869787252</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.01886246285299047</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3165140869787252</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.01739953622842101</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3196945133273844</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.01739953622842101</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3196945133273844</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.01661164759096037</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3228749396760435</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.01661164759096037</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3228749396760435</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.01591263362421198</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3260553660247026</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.01591263362421198</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3260553660247026</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.01524564673579083</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3292357923733616</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.01524564673579083</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3292357923733616</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.01461484482111668</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3324162187220208</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.01461484482111668</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3324162187220208</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.01402438577560941</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3355966450706798</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.01402438577560941</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3355966450706798</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.01347842749468882</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.338777071419339</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.01347842749468882</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.338777071419339</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.01298112787377483</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3419574977679981</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.01298112787377483</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3419574977679981</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.01253664480828717</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3451379241166572</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.01253664480828717</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3451379241166572</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.01214913619364578</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3483183504653162</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.01214913619364578</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3483183504653162</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.01182275992527044</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3514987768139754</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.01182275992527044</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3514987768139754</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.01156167389858102</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3546792031626344</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.01156167389858102</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3546792031626344</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.01137003600899734</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3578596295112935</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.01137003600899734</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3578596295112935</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.01125200415193925</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3610400558599526</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.01125200415193925</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3610400558599526</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.01121173622282659</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3642204822086117</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.01121173622282659</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3642204822086117</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
